--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_15_19.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_15_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-825959.8085413731</v>
+        <v>-826637.6292216446</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>313298.4515052319</v>
+        <v>313298.4515052312</v>
       </c>
     </row>
     <row r="8">
@@ -1373,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>122.0492982736044</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>66.64307131377525</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="I11" t="n">
-        <v>46.21360886079823</v>
+        <v>46.21360886079832</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>32.88999934163201</v>
+        <v>32.8899993416321</v>
       </c>
       <c r="T11" t="n">
-        <v>28.03643329293224</v>
+        <v>28.03643329293232</v>
       </c>
       <c r="U11" t="n">
-        <v>55.76720738385728</v>
+        <v>55.76720738385736</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="W11" t="n">
-        <v>122.0492982736044</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>66.64307131377548</v>
       </c>
     </row>
     <row r="12">
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>51.93274503525224</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1491,31 +1491,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>6.13658612126563</v>
       </c>
       <c r="R12" t="n">
-        <v>122.0492982736044</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="S12" t="n">
-        <v>117.6682934633407</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>20.56530653072797</v>
+        <v>80.16426883755103</v>
       </c>
       <c r="U12" t="n">
-        <v>42.84521610603976</v>
+        <v>42.84521610603985</v>
       </c>
       <c r="V12" t="n">
-        <v>46.26644524054754</v>
+        <v>46.26644524054763</v>
       </c>
       <c r="W12" t="n">
-        <v>72.32210790215689</v>
+        <v>72.32210790215697</v>
       </c>
       <c r="X12" t="n">
-        <v>22.9304387646159</v>
+        <v>22.93043876461599</v>
       </c>
       <c r="Y12" t="n">
-        <v>29.00181045917091</v>
+        <v>29.001810459171</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>8.831062059420516</v>
+        <v>8.831062059420599</v>
       </c>
       <c r="S13" t="n">
-        <v>40.97168601871263</v>
+        <v>40.97168601871272</v>
       </c>
       <c r="T13" t="n">
-        <v>29.35851686199506</v>
+        <v>29.35851686199514</v>
       </c>
       <c r="U13" t="n">
-        <v>94.27381875013465</v>
+        <v>94.27381875013474</v>
       </c>
       <c r="V13" t="n">
-        <v>50.7265395095952</v>
+        <v>50.72653950959528</v>
       </c>
       <c r="W13" t="n">
-        <v>95.92823141448062</v>
+        <v>95.92823141448071</v>
       </c>
       <c r="X13" t="n">
-        <v>27.53697973338782</v>
+        <v>27.53697973338791</v>
       </c>
       <c r="Y13" t="n">
-        <v>22.75879713931371</v>
+        <v>22.7587971393138</v>
       </c>
     </row>
     <row r="14">
@@ -1613,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1622,10 +1622,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>122.0492982736044</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>46.2136088607983</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>28.03643329293232</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>55.76720738385737</v>
       </c>
       <c r="V14" t="n">
-        <v>122.0492982736044</v>
+        <v>99.53307065540774</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>107.5010219193907</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>122.0492982736044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1704,10 +1704,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>107.1657389737211</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>51.93274503525224</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1728,31 +1728,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>6.13658612126563</v>
       </c>
       <c r="R15" t="n">
-        <v>122.0492982736044</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>20.565306530728</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="U15" t="n">
-        <v>53.34777059565926</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="V15" t="n">
-        <v>46.26644524054757</v>
+        <v>46.26644524054763</v>
       </c>
       <c r="W15" t="n">
-        <v>72.32210790215692</v>
+        <v>73.2822945721432</v>
       </c>
       <c r="X15" t="n">
-        <v>22.93043876461593</v>
+        <v>22.93043876461599</v>
       </c>
       <c r="Y15" t="n">
-        <v>29.00181045917094</v>
+        <v>29.001810459171</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>8.831062059420544</v>
+        <v>8.831062059420599</v>
       </c>
       <c r="S16" t="n">
-        <v>40.97168601871266</v>
+        <v>40.97168601871272</v>
       </c>
       <c r="T16" t="n">
-        <v>29.35851686199508</v>
+        <v>29.35851686199514</v>
       </c>
       <c r="U16" t="n">
-        <v>94.27381875013468</v>
+        <v>94.27381875013474</v>
       </c>
       <c r="V16" t="n">
-        <v>50.72653950959523</v>
+        <v>50.72653950959528</v>
       </c>
       <c r="W16" t="n">
-        <v>95.92823141448065</v>
+        <v>95.92823141448071</v>
       </c>
       <c r="X16" t="n">
-        <v>27.53697973338785</v>
+        <v>27.53697973338791</v>
       </c>
       <c r="Y16" t="n">
-        <v>22.75879713931374</v>
+        <v>22.7587971393138</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>53.20745676868125</v>
+        <v>53.20745676868142</v>
       </c>
       <c r="C17" t="n">
-        <v>29.32571377202675</v>
+        <v>29.32571377202692</v>
       </c>
       <c r="D17" t="n">
-        <v>16.89237603307521</v>
+        <v>16.89237603307538</v>
       </c>
       <c r="E17" t="n">
-        <v>50.59912845248408</v>
+        <v>50.59912845248425</v>
       </c>
       <c r="F17" t="n">
-        <v>82.31946603086141</v>
+        <v>82.31946603086158</v>
       </c>
       <c r="G17" t="n">
-        <v>97.94765892927438</v>
+        <v>97.94765892927455</v>
       </c>
       <c r="H17" t="n">
-        <v>26.03172204233374</v>
+        <v>26.03172204233391</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1904,13 +1904,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>17.01668021661482</v>
+        <v>17.01668021661499</v>
       </c>
       <c r="X17" t="n">
-        <v>38.90293068555498</v>
+        <v>38.90293068555422</v>
       </c>
       <c r="Y17" t="n">
-        <v>61.40578380929782</v>
+        <v>61.40578380929799</v>
       </c>
     </row>
     <row r="18">
@@ -1965,31 +1965,31 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.136586121265633</v>
+        <v>6.13658612126563</v>
       </c>
       <c r="R18" t="n">
-        <v>122.0492982736044</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="S18" t="n">
-        <v>122.0492982736044</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>122.0492982736044</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>49.43169076287294</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>49.43169076287315</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>122.0492982736047</v>
       </c>
     </row>
     <row r="19">
@@ -2160,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2172,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>116.247995098009</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
         <v>107.1657389737211</v>
       </c>
       <c r="J21" t="n">
-        <v>51.93274503525224</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2202,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>6.13658612126563</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -2211,16 +2211,16 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="U21" t="n">
-        <v>70.45183618402189</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>122.0492982736044</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>122.0492982736044</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2406,10 +2406,10 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>122.0492982736045</v>
       </c>
       <c r="G24" t="n">
-        <v>122.0492982736044</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2418,7 +2418,7 @@
         <v>107.1657389737211</v>
       </c>
       <c r="J24" t="n">
-        <v>51.93274503525224</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2439,19 +2439,19 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.136586121265633</v>
+        <v>6.13658612126563</v>
       </c>
       <c r="R24" t="n">
-        <v>122.0492982736044</v>
+        <v>122.0492982736045</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>116.2479950980086</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>64.31525006275622</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>161.170083129693</v>
+        <v>161.1700831296931</v>
       </c>
       <c r="C26" t="n">
-        <v>137.2883401330385</v>
+        <v>137.2883401330386</v>
       </c>
       <c r="D26" t="n">
         <v>124.855002394087</v>
       </c>
       <c r="E26" t="n">
-        <v>158.5617548134958</v>
+        <v>158.5617548134959</v>
       </c>
       <c r="F26" t="n">
         <v>190.2820923918732</v>
       </c>
       <c r="G26" t="n">
-        <v>205.9102852902861</v>
+        <v>205.9102852902862</v>
       </c>
       <c r="H26" t="n">
-        <v>133.9943484033455</v>
+        <v>133.9943484033456</v>
       </c>
       <c r="I26" t="n">
-        <v>27.67892728751264</v>
+        <v>27.67892728751266</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.3553177683464</v>
+        <v>14.35531776834645</v>
       </c>
       <c r="T26" t="n">
-        <v>9.50175171964662</v>
+        <v>9.501751719646677</v>
       </c>
       <c r="U26" t="n">
-        <v>37.23252581057167</v>
+        <v>37.23252581057173</v>
       </c>
       <c r="V26" t="n">
-        <v>107.9626263610117</v>
+        <v>107.9626263610118</v>
       </c>
       <c r="W26" t="n">
         <v>124.9793065776266</v>
       </c>
       <c r="X26" t="n">
-        <v>146.8655570465658</v>
+        <v>146.8655570465659</v>
       </c>
       <c r="Y26" t="n">
         <v>169.3684101703096</v>
@@ -2637,7 +2637,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>148.7388631915159</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2655,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>51.93274503525224</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2685,22 +2685,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>2.030624957442361</v>
+        <v>2.030624957442418</v>
       </c>
       <c r="U27" t="n">
-        <v>85.89111279718796</v>
+        <v>24.31053453275421</v>
       </c>
       <c r="V27" t="n">
-        <v>27.73176366726193</v>
+        <v>236.239107986902</v>
       </c>
       <c r="W27" t="n">
-        <v>53.78742632887128</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X27" t="n">
-        <v>4.39575719133029</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y27" t="n">
-        <v>223.3842861340256</v>
+        <v>10.46712888588536</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>22.43700444542702</v>
+        <v>22.43700444542708</v>
       </c>
       <c r="T28" t="n">
-        <v>10.82383528870945</v>
+        <v>10.8238352887095</v>
       </c>
       <c r="U28" t="n">
-        <v>75.73913717684904</v>
+        <v>75.7391371768491</v>
       </c>
       <c r="V28" t="n">
-        <v>32.19185793630959</v>
+        <v>32.19185793630965</v>
       </c>
       <c r="W28" t="n">
-        <v>77.39354984119501</v>
+        <v>77.39354984119507</v>
       </c>
       <c r="X28" t="n">
-        <v>9.002298160102214</v>
+        <v>9.002298160102271</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.224115566028104</v>
+        <v>4.224115566028161</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>161.170083129693</v>
+        <v>161.1700831296931</v>
       </c>
       <c r="C29" t="n">
-        <v>137.2883401330384</v>
+        <v>137.2883401330386</v>
       </c>
       <c r="D29" t="n">
-        <v>124.8550023940869</v>
+        <v>124.855002394087</v>
       </c>
       <c r="E29" t="n">
-        <v>158.5617548134958</v>
+        <v>158.5617548134959</v>
       </c>
       <c r="F29" t="n">
-        <v>190.2820923918731</v>
+        <v>190.2820923918732</v>
       </c>
       <c r="G29" t="n">
-        <v>205.9102852902861</v>
+        <v>205.9102852902862</v>
       </c>
       <c r="H29" t="n">
-        <v>133.9943484033454</v>
+        <v>133.9943484033456</v>
       </c>
       <c r="I29" t="n">
-        <v>27.67892728751256</v>
+        <v>27.67892728751267</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.35531776834635</v>
+        <v>14.35531776834646</v>
       </c>
       <c r="T29" t="n">
-        <v>9.50175171964657</v>
+        <v>9.501751719646684</v>
       </c>
       <c r="U29" t="n">
-        <v>37.23252581057162</v>
+        <v>37.23252581057173</v>
       </c>
       <c r="V29" t="n">
-        <v>107.9626263610116</v>
+        <v>107.9626263610118</v>
       </c>
       <c r="W29" t="n">
-        <v>124.9793065776265</v>
+        <v>124.9793065776266</v>
       </c>
       <c r="X29" t="n">
-        <v>146.8655570465658</v>
+        <v>146.8655570465659</v>
       </c>
       <c r="Y29" t="n">
-        <v>169.3684101703095</v>
+        <v>169.3684101703096</v>
       </c>
     </row>
     <row r="30">
@@ -2871,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2883,16 +2883,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>148.7388631915159</v>
       </c>
       <c r="H30" t="n">
-        <v>20.98919279527431</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>51.93274503525224</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2922,19 +2922,19 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>2.030624957442305</v>
+        <v>2.030624957442418</v>
       </c>
       <c r="U30" t="n">
-        <v>237.2276917808945</v>
+        <v>24.31053453275421</v>
       </c>
       <c r="V30" t="n">
-        <v>27.73176366726187</v>
+        <v>35.56749976013383</v>
       </c>
       <c r="W30" t="n">
-        <v>53.78742632887122</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X30" t="n">
-        <v>4.395757191330233</v>
+        <v>4.395757191330347</v>
       </c>
       <c r="Y30" t="n">
         <v>223.3842861340256</v>
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>22.43700444542697</v>
+        <v>22.43700444542708</v>
       </c>
       <c r="T31" t="n">
-        <v>10.82383528870939</v>
+        <v>10.8238352887095</v>
       </c>
       <c r="U31" t="n">
-        <v>75.73913717684898</v>
+        <v>75.7391371768491</v>
       </c>
       <c r="V31" t="n">
-        <v>32.19185793630953</v>
+        <v>32.19185793630965</v>
       </c>
       <c r="W31" t="n">
-        <v>77.39354984119495</v>
+        <v>77.39354984119507</v>
       </c>
       <c r="X31" t="n">
-        <v>9.002298160102157</v>
+        <v>9.002298160102271</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.224115566028047</v>
+        <v>4.224115566028161</v>
       </c>
     </row>
     <row r="32">
@@ -3035,19 +3035,19 @@
         <v>124.855002394087</v>
       </c>
       <c r="E32" t="n">
-        <v>158.5617548134959</v>
+        <v>158.5617548134958</v>
       </c>
       <c r="F32" t="n">
         <v>190.2820923918732</v>
       </c>
       <c r="G32" t="n">
-        <v>205.9102852902862</v>
+        <v>205.9102852902861</v>
       </c>
       <c r="H32" t="n">
         <v>133.9943484033455</v>
       </c>
       <c r="I32" t="n">
-        <v>27.67892728751266</v>
+        <v>27.67892728751262</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>14.35531776834642</v>
+        <v>14.3553177683464</v>
       </c>
       <c r="T32" t="n">
-        <v>9.501751719646649</v>
+        <v>9.501751719646627</v>
       </c>
       <c r="U32" t="n">
-        <v>37.2325258105717</v>
+        <v>37.23252581057167</v>
       </c>
       <c r="V32" t="n">
         <v>107.9626263610117</v>
@@ -3105,13 +3105,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3120,16 +3120,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>148.7388631915159</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>107.1657389737211</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>51.93274503525224</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>6.13658612126563</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -3159,22 +3159,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>2.03062495744239</v>
+        <v>2.030624957442361</v>
       </c>
       <c r="U33" t="n">
-        <v>24.31053453275419</v>
+        <v>24.31053453275416</v>
       </c>
       <c r="V33" t="n">
-        <v>113.233455760798</v>
+        <v>27.73176366726193</v>
       </c>
       <c r="W33" t="n">
-        <v>266.7045835770116</v>
+        <v>53.78742632887128</v>
       </c>
       <c r="X33" t="n">
-        <v>4.395757191330318</v>
+        <v>4.39575719133029</v>
       </c>
       <c r="Y33" t="n">
-        <v>10.46712888588533</v>
+        <v>143.3167028556853</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>22.43700444542705</v>
+        <v>22.43700444542702</v>
       </c>
       <c r="T34" t="n">
-        <v>10.82383528870947</v>
+        <v>10.82383528870945</v>
       </c>
       <c r="U34" t="n">
-        <v>75.73913717684907</v>
+        <v>75.73913717684904</v>
       </c>
       <c r="V34" t="n">
-        <v>32.19185793630962</v>
+        <v>32.19185793630959</v>
       </c>
       <c r="W34" t="n">
-        <v>77.39354984119504</v>
+        <v>77.39354984119501</v>
       </c>
       <c r="X34" t="n">
-        <v>9.002298160102242</v>
+        <v>9.002298160102214</v>
       </c>
       <c r="Y34" t="n">
-        <v>4.224115566028132</v>
+        <v>4.224115566028104</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>125.9940064659682</v>
+        <v>125.9940064659681</v>
       </c>
       <c r="C35" t="n">
-        <v>102.1122634693137</v>
+        <v>102.1122634693136</v>
       </c>
       <c r="D35" t="n">
-        <v>89.67892573036215</v>
+        <v>89.67892573036204</v>
       </c>
       <c r="E35" t="n">
-        <v>123.385678149771</v>
+        <v>123.3856781497709</v>
       </c>
       <c r="F35" t="n">
-        <v>155.1060157281483</v>
+        <v>155.1060157281482</v>
       </c>
       <c r="G35" t="n">
-        <v>170.7342086265613</v>
+        <v>170.7342086265612</v>
       </c>
       <c r="H35" t="n">
-        <v>98.81827173962068</v>
+        <v>98.81827173962057</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>2.056449146846859</v>
+        <v>2.056449146846737</v>
       </c>
       <c r="V35" t="n">
-        <v>72.78654969728689</v>
+        <v>72.78654969728677</v>
       </c>
       <c r="W35" t="n">
-        <v>89.80322991390176</v>
+        <v>89.80322991390165</v>
       </c>
       <c r="X35" t="n">
-        <v>111.689480382841</v>
+        <v>111.6894803828409</v>
       </c>
       <c r="Y35" t="n">
-        <v>134.1923335065848</v>
+        <v>134.1923335065846</v>
       </c>
     </row>
     <row r="36">
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>187.5181515243659</v>
@@ -3351,13 +3351,13 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>148.7388631915159</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3387,10 +3387,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>6.13658612126563</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>134.3633376148752</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3405,13 +3405,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>18.61134966514646</v>
+        <v>56.92366979341769</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>202.3573269524881</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="37">
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>40.56306051312422</v>
+        <v>40.56306051312411</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>42.2174731774702</v>
+        <v>42.21747317747008</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>125.9940064659682</v>
+        <v>125.9940064659681</v>
       </c>
       <c r="C38" t="n">
-        <v>102.1122634693137</v>
+        <v>102.1122634693136</v>
       </c>
       <c r="D38" t="n">
-        <v>89.67892573036215</v>
+        <v>89.67892573036204</v>
       </c>
       <c r="E38" t="n">
-        <v>123.385678149771</v>
+        <v>123.3856781497709</v>
       </c>
       <c r="F38" t="n">
-        <v>155.1060157281483</v>
+        <v>155.1060157281482</v>
       </c>
       <c r="G38" t="n">
-        <v>170.7342086265613</v>
+        <v>170.7342086265612</v>
       </c>
       <c r="H38" t="n">
-        <v>98.81827173962068</v>
+        <v>98.81827173962057</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.056449146846859</v>
+        <v>2.056449146846737</v>
       </c>
       <c r="V38" t="n">
-        <v>72.78654969728689</v>
+        <v>72.78654969728677</v>
       </c>
       <c r="W38" t="n">
-        <v>89.80322991390176</v>
+        <v>89.80322991390165</v>
       </c>
       <c r="X38" t="n">
-        <v>111.689480382841</v>
+        <v>111.6894803828409</v>
       </c>
       <c r="Y38" t="n">
-        <v>134.1923335065848</v>
+        <v>134.1923335065846</v>
       </c>
     </row>
     <row r="39">
@@ -3582,19 +3582,19 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>148.7388631915159</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3624,16 +3624,16 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>6.13658612126563</v>
       </c>
       <c r="R39" t="n">
         <v>134.3633376148752</v>
       </c>
       <c r="S39" t="n">
-        <v>124.7003329482002</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>214.9477822055827</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -3642,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>18.61134966514646</v>
+        <v>214.0990369133766</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>40.56306051312422</v>
+        <v>40.56306051312411</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>42.2174731774702</v>
+        <v>42.21747317747008</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3794,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>9.553598523059058</v>
+        <v>9.553598523059065</v>
       </c>
       <c r="V41" t="n">
         <v>80.28369907349909</v>
@@ -3819,7 +3819,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3840,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>32.3984754475817</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3876,16 +3876,16 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0.05283637974932276</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>128.7967059018546</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X42" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -4031,7 +4031,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>9.553598523059058</v>
+        <v>9.553598523059065</v>
       </c>
       <c r="V44" t="n">
         <v>80.28369907349909</v>
@@ -4056,7 +4056,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4071,13 +4071,13 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>125.6800758778345</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>51.93274503525224</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4098,31 +4098,31 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.136586121265626</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>134.3633376148752</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>12.48369810615785</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>237.2276917808945</v>
       </c>
       <c r="V45" t="n">
-        <v>0.05283637974932276</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
-        <v>26.10849904135867</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X45" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>7.959748345294028</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>247.0427099711592</v>
+        <v>179.7264763208813</v>
       </c>
       <c r="C11" t="n">
-        <v>247.0427099711592</v>
+        <v>179.7264763208813</v>
       </c>
       <c r="D11" t="n">
-        <v>123.7605905028717</v>
+        <v>179.7264763208813</v>
       </c>
       <c r="E11" t="n">
-        <v>123.7605905028717</v>
+        <v>179.7264763208813</v>
       </c>
       <c r="F11" t="n">
-        <v>123.7605905028717</v>
+        <v>179.7264763208813</v>
       </c>
       <c r="G11" t="n">
-        <v>123.7605905028717</v>
+        <v>179.7264763208813</v>
       </c>
       <c r="H11" t="n">
-        <v>56.44435685259364</v>
+        <v>56.44435685259374</v>
       </c>
       <c r="I11" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="J11" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="K11" t="n">
-        <v>54.07607407315303</v>
+        <v>18.06556317397366</v>
       </c>
       <c r="L11" t="n">
-        <v>102.4733245601403</v>
+        <v>66.46281366096099</v>
       </c>
       <c r="M11" t="n">
-        <v>185.2005505632573</v>
+        <v>149.1900396640779</v>
       </c>
       <c r="N11" t="n">
-        <v>262.4239535547621</v>
+        <v>226.4134426555828</v>
       </c>
       <c r="O11" t="n">
-        <v>383.2527588456305</v>
+        <v>262.423953554763</v>
       </c>
       <c r="P11" t="n">
-        <v>383.2527588456305</v>
+        <v>383.2527588456316</v>
       </c>
       <c r="Q11" t="n">
-        <v>488.0239675444178</v>
+        <v>488.0239675444188</v>
       </c>
       <c r="R11" t="n">
-        <v>488.1971930944178</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="S11" t="n">
-        <v>454.9749715372137</v>
+        <v>454.9749715372146</v>
       </c>
       <c r="T11" t="n">
-        <v>426.6553419483932</v>
+        <v>426.655341948394</v>
       </c>
       <c r="U11" t="n">
-        <v>370.3248294394465</v>
+        <v>370.3248294394471</v>
       </c>
       <c r="V11" t="n">
-        <v>370.3248294394465</v>
+        <v>247.0427099711596</v>
       </c>
       <c r="W11" t="n">
-        <v>247.0427099711592</v>
+        <v>247.0427099711596</v>
       </c>
       <c r="X11" t="n">
-        <v>247.0427099711592</v>
+        <v>247.0427099711596</v>
       </c>
       <c r="Y11" t="n">
-        <v>247.0427099711592</v>
+        <v>179.7264763208813</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9.763943861888356</v>
+        <v>62.22126207931488</v>
       </c>
       <c r="C12" t="n">
-        <v>9.763943861888356</v>
+        <v>62.22126207931488</v>
       </c>
       <c r="D12" t="n">
-        <v>9.763943861888356</v>
+        <v>62.22126207931488</v>
       </c>
       <c r="E12" t="n">
-        <v>9.763943861888356</v>
+        <v>62.22126207931488</v>
       </c>
       <c r="F12" t="n">
-        <v>9.763943861888356</v>
+        <v>62.22126207931488</v>
       </c>
       <c r="G12" t="n">
-        <v>9.763943861888356</v>
+        <v>62.22126207931488</v>
       </c>
       <c r="H12" t="n">
-        <v>9.763943861888356</v>
+        <v>62.22126207931488</v>
       </c>
       <c r="I12" t="n">
-        <v>9.763943861888356</v>
+        <v>62.22126207931488</v>
       </c>
       <c r="J12" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="K12" t="n">
-        <v>48.64509028167976</v>
+        <v>43.26205739618889</v>
       </c>
       <c r="L12" t="n">
-        <v>167.2121322091851</v>
+        <v>161.8290993236943</v>
       </c>
       <c r="M12" t="n">
-        <v>167.2121322091851</v>
+        <v>282.6579046145629</v>
       </c>
       <c r="N12" t="n">
-        <v>282.6579046145622</v>
+        <v>403.4867099054315</v>
       </c>
       <c r="O12" t="n">
-        <v>403.4867099054306</v>
+        <v>403.4867099054315</v>
       </c>
       <c r="P12" t="n">
-        <v>488.1971930944178</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="Q12" t="n">
-        <v>488.1971930944178</v>
+        <v>481.9986212547565</v>
       </c>
       <c r="R12" t="n">
-        <v>364.9150736261305</v>
+        <v>358.7165017864689</v>
       </c>
       <c r="S12" t="n">
-        <v>246.058211541948</v>
+        <v>358.7165017864689</v>
       </c>
       <c r="T12" t="n">
-        <v>225.2851746422227</v>
+        <v>277.7424928596497</v>
       </c>
       <c r="U12" t="n">
-        <v>182.0071785755159</v>
+        <v>234.4644967929428</v>
       </c>
       <c r="V12" t="n">
-        <v>135.2733955042557</v>
+        <v>187.7307137216825</v>
       </c>
       <c r="W12" t="n">
-        <v>62.22076125965282</v>
+        <v>114.6780794770795</v>
       </c>
       <c r="X12" t="n">
-        <v>39.05870190145494</v>
+        <v>91.51602011888156</v>
       </c>
       <c r="Y12" t="n">
-        <v>9.763943861888356</v>
+        <v>62.22126207931488</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="C13" t="n">
-        <v>9.763943861888356</v>
+        <v>37.40998561774182</v>
       </c>
       <c r="D13" t="n">
-        <v>58.47177103179092</v>
+        <v>86.1178127876443</v>
       </c>
       <c r="E13" t="n">
-        <v>110.6510421497943</v>
+        <v>138.2970839056476</v>
       </c>
       <c r="F13" t="n">
-        <v>165.5520796716383</v>
+        <v>193.1981214274915</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5520796716383</v>
+        <v>218.6277703336256</v>
       </c>
       <c r="H13" t="n">
-        <v>193.8669435685247</v>
+        <v>246.9426342305119</v>
       </c>
       <c r="I13" t="n">
-        <v>193.8669435685247</v>
+        <v>276.3201482961237</v>
       </c>
       <c r="J13" t="n">
-        <v>196.1691865835811</v>
+        <v>276.3201482961237</v>
       </c>
       <c r="K13" t="n">
-        <v>316.9979918744495</v>
+        <v>276.3201482961237</v>
       </c>
       <c r="L13" t="n">
-        <v>316.9979918744495</v>
+        <v>276.3201482961237</v>
       </c>
       <c r="M13" t="n">
-        <v>316.9979918744495</v>
+        <v>316.9979918744503</v>
       </c>
       <c r="N13" t="n">
-        <v>316.9979918744495</v>
+        <v>316.9979918744503</v>
       </c>
       <c r="O13" t="n">
-        <v>316.9979918744495</v>
+        <v>316.9979918744503</v>
       </c>
       <c r="P13" t="n">
-        <v>316.9979918744495</v>
+        <v>316.9979918744503</v>
       </c>
       <c r="Q13" t="n">
-        <v>383.8908443538481</v>
+        <v>383.8908443538489</v>
       </c>
       <c r="R13" t="n">
-        <v>374.9705796473628</v>
+        <v>374.9705796473634</v>
       </c>
       <c r="S13" t="n">
-        <v>333.5850382143198</v>
+        <v>333.5850382143203</v>
       </c>
       <c r="T13" t="n">
-        <v>303.929970676951</v>
+        <v>303.9299706769514</v>
       </c>
       <c r="U13" t="n">
-        <v>208.7038911313605</v>
+        <v>208.7038911313608</v>
       </c>
       <c r="V13" t="n">
-        <v>157.4649623337895</v>
+        <v>157.4649623337898</v>
       </c>
       <c r="W13" t="n">
-        <v>60.56775888481921</v>
+        <v>60.5677588848194</v>
       </c>
       <c r="X13" t="n">
-        <v>32.75262784099312</v>
+        <v>32.75262784099323</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888375</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>133.0460633301757</v>
+        <v>303.0085957891688</v>
       </c>
       <c r="C14" t="n">
-        <v>133.0460633301757</v>
+        <v>303.0085957891688</v>
       </c>
       <c r="D14" t="n">
-        <v>133.0460633301757</v>
+        <v>303.0085957891688</v>
       </c>
       <c r="E14" t="n">
-        <v>133.0460633301757</v>
+        <v>179.7264763208813</v>
       </c>
       <c r="F14" t="n">
-        <v>133.0460633301757</v>
+        <v>179.7264763208813</v>
       </c>
       <c r="G14" t="n">
-        <v>133.0460633301757</v>
+        <v>179.7264763208813</v>
       </c>
       <c r="H14" t="n">
-        <v>9.763943861888356</v>
+        <v>56.4443568525937</v>
       </c>
       <c r="I14" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="J14" t="n">
-        <v>127.0904160344399</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="K14" t="n">
-        <v>127.0904160344399</v>
+        <v>18.06556317397366</v>
       </c>
       <c r="L14" t="n">
-        <v>247.9192213253083</v>
+        <v>66.46281366096099</v>
       </c>
       <c r="M14" t="n">
-        <v>368.7480266161767</v>
+        <v>149.1900396640779</v>
       </c>
       <c r="N14" t="n">
-        <v>445.9714296076816</v>
+        <v>226.4134426555828</v>
       </c>
       <c r="O14" t="n">
-        <v>481.9819405068618</v>
+        <v>262.423953554763</v>
       </c>
       <c r="P14" t="n">
-        <v>488.0239675444178</v>
+        <v>383.2527588456316</v>
       </c>
       <c r="Q14" t="n">
-        <v>488.0239675444178</v>
+        <v>488.0239675444188</v>
       </c>
       <c r="R14" t="n">
-        <v>488.1971930944178</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="S14" t="n">
-        <v>488.1971930944178</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="T14" t="n">
-        <v>488.1971930944178</v>
+        <v>459.8775635055982</v>
       </c>
       <c r="U14" t="n">
-        <v>488.1971930944178</v>
+        <v>403.5470509966514</v>
       </c>
       <c r="V14" t="n">
-        <v>364.9150736261305</v>
+        <v>303.0085957891688</v>
       </c>
       <c r="W14" t="n">
-        <v>364.9150736261305</v>
+        <v>303.0085957891688</v>
       </c>
       <c r="X14" t="n">
-        <v>256.328182798463</v>
+        <v>303.0085957891688</v>
       </c>
       <c r="Y14" t="n">
-        <v>133.0460633301757</v>
+        <v>303.0085957891688</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>118.0121650474652</v>
+        <v>62.22126207931488</v>
       </c>
       <c r="C15" t="n">
-        <v>118.0121650474652</v>
+        <v>62.22126207931488</v>
       </c>
       <c r="D15" t="n">
-        <v>118.0121650474652</v>
+        <v>62.22126207931488</v>
       </c>
       <c r="E15" t="n">
-        <v>118.0121650474652</v>
+        <v>62.22126207931488</v>
       </c>
       <c r="F15" t="n">
-        <v>118.0121650474652</v>
+        <v>62.22126207931488</v>
       </c>
       <c r="G15" t="n">
-        <v>118.0121650474652</v>
+        <v>62.22126207931488</v>
       </c>
       <c r="H15" t="n">
-        <v>118.0121650474652</v>
+        <v>62.22126207931488</v>
       </c>
       <c r="I15" t="n">
-        <v>9.763943861888356</v>
+        <v>62.22126207931488</v>
       </c>
       <c r="J15" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="K15" t="n">
-        <v>9.763943861888356</v>
+        <v>48.64509028167978</v>
       </c>
       <c r="L15" t="n">
-        <v>128.3309857893937</v>
+        <v>167.2121322091851</v>
       </c>
       <c r="M15" t="n">
-        <v>246.539582512681</v>
+        <v>282.6579046145629</v>
       </c>
       <c r="N15" t="n">
-        <v>367.3683878035494</v>
+        <v>282.6579046145629</v>
       </c>
       <c r="O15" t="n">
-        <v>488.1971930944178</v>
+        <v>403.4867099054315</v>
       </c>
       <c r="P15" t="n">
-        <v>488.1971930944178</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="Q15" t="n">
-        <v>488.1971930944178</v>
+        <v>481.9986212547565</v>
       </c>
       <c r="R15" t="n">
-        <v>364.9150736261305</v>
+        <v>481.9986212547565</v>
       </c>
       <c r="S15" t="n">
-        <v>364.9150736261305</v>
+        <v>481.9986212547565</v>
       </c>
       <c r="T15" t="n">
-        <v>344.1420367264053</v>
+        <v>358.7165017864689</v>
       </c>
       <c r="U15" t="n">
-        <v>290.2553997610929</v>
+        <v>235.4343823181814</v>
       </c>
       <c r="V15" t="n">
-        <v>243.5216166898327</v>
+        <v>188.7005992469211</v>
       </c>
       <c r="W15" t="n">
-        <v>170.4689824452298</v>
+        <v>114.6780794770795</v>
       </c>
       <c r="X15" t="n">
-        <v>147.3069230870318</v>
+        <v>91.51602011888156</v>
       </c>
       <c r="Y15" t="n">
-        <v>118.0121650474652</v>
+        <v>62.22126207931488</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>9.763943861888356</v>
+        <v>26.36184332167604</v>
       </c>
       <c r="C16" t="n">
-        <v>37.40998561774186</v>
+        <v>26.36184332167604</v>
       </c>
       <c r="D16" t="n">
-        <v>86.1178127876444</v>
+        <v>75.06967049157851</v>
       </c>
       <c r="E16" t="n">
-        <v>138.2970839056478</v>
+        <v>75.06967049157851</v>
       </c>
       <c r="F16" t="n">
-        <v>193.1981214274917</v>
+        <v>129.9707080134224</v>
       </c>
       <c r="G16" t="n">
-        <v>193.1981214274917</v>
+        <v>129.9707080134224</v>
       </c>
       <c r="H16" t="n">
-        <v>193.1981214274917</v>
+        <v>158.2855719103087</v>
       </c>
       <c r="I16" t="n">
-        <v>193.1981214274917</v>
+        <v>158.2855719103087</v>
       </c>
       <c r="J16" t="n">
-        <v>193.1981214274917</v>
+        <v>232.0239085511022</v>
       </c>
       <c r="K16" t="n">
-        <v>193.1981214274917</v>
+        <v>232.0239085511022</v>
       </c>
       <c r="L16" t="n">
-        <v>314.0269267183601</v>
+        <v>232.0239085511022</v>
       </c>
       <c r="M16" t="n">
-        <v>314.0269267183601</v>
+        <v>232.0239085511022</v>
       </c>
       <c r="N16" t="n">
-        <v>383.8908443538484</v>
+        <v>316.9979918744503</v>
       </c>
       <c r="O16" t="n">
-        <v>383.8908443538484</v>
+        <v>316.9979918744503</v>
       </c>
       <c r="P16" t="n">
-        <v>383.8908443538484</v>
+        <v>316.9979918744503</v>
       </c>
       <c r="Q16" t="n">
-        <v>383.8908443538484</v>
+        <v>383.8908443538489</v>
       </c>
       <c r="R16" t="n">
-        <v>374.970579647363</v>
+        <v>374.9705796473634</v>
       </c>
       <c r="S16" t="n">
-        <v>333.5850382143199</v>
+        <v>333.5850382143203</v>
       </c>
       <c r="T16" t="n">
-        <v>303.9299706769511</v>
+        <v>303.9299706769514</v>
       </c>
       <c r="U16" t="n">
-        <v>208.7038911313606</v>
+        <v>208.7038911313608</v>
       </c>
       <c r="V16" t="n">
-        <v>157.4649623337896</v>
+        <v>157.4649623337898</v>
       </c>
       <c r="W16" t="n">
-        <v>60.56775888481927</v>
+        <v>60.5677588848194</v>
       </c>
       <c r="X16" t="n">
-        <v>32.75262784099315</v>
+        <v>32.75262784099323</v>
       </c>
       <c r="Y16" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888375</v>
       </c>
     </row>
     <row r="17">
@@ -5489,37 +5489,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>315.9417875589139</v>
+        <v>315.9417875589152</v>
       </c>
       <c r="C17" t="n">
-        <v>286.3198544558564</v>
+        <v>286.3198544558578</v>
       </c>
       <c r="D17" t="n">
-        <v>269.2568483618411</v>
+        <v>269.2568483618422</v>
       </c>
       <c r="E17" t="n">
-        <v>218.1466176017562</v>
+        <v>218.1466176017572</v>
       </c>
       <c r="F17" t="n">
-        <v>134.9956418130073</v>
+        <v>134.9956418130081</v>
       </c>
       <c r="G17" t="n">
-        <v>36.0586125915184</v>
+        <v>36.05861259151859</v>
       </c>
       <c r="H17" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="I17" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="J17" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="K17" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="L17" t="n">
-        <v>58.16119434887567</v>
+        <v>58.1611943488757</v>
       </c>
       <c r="M17" t="n">
         <v>140.8884203519926</v>
@@ -5531,34 +5531,34 @@
         <v>254.1223342426777</v>
       </c>
       <c r="P17" t="n">
-        <v>254.1223342426777</v>
+        <v>367.3683878035502</v>
       </c>
       <c r="Q17" t="n">
-        <v>254.1223342426777</v>
+        <v>367.3683878035502</v>
       </c>
       <c r="R17" t="n">
-        <v>325.5031580427434</v>
+        <v>488.1971930944188</v>
       </c>
       <c r="S17" t="n">
-        <v>418.1743935494821</v>
+        <v>488.1971930944188</v>
       </c>
       <c r="T17" t="n">
-        <v>418.1743935494821</v>
+        <v>488.1971930944188</v>
       </c>
       <c r="U17" t="n">
-        <v>488.1971930944178</v>
+        <v>488.1971930944188</v>
       </c>
       <c r="V17" t="n">
-        <v>488.1971930944178</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="W17" t="n">
-        <v>471.0086272190493</v>
+        <v>471.0086272190501</v>
       </c>
       <c r="X17" t="n">
-        <v>431.7127376376807</v>
+        <v>431.7127376376823</v>
       </c>
       <c r="Y17" t="n">
-        <v>369.6866933858647</v>
+        <v>369.6866933858661</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>62.22126207931486</v>
+        <v>62.22126207931488</v>
       </c>
       <c r="C18" t="n">
-        <v>62.22126207931486</v>
+        <v>62.22126207931488</v>
       </c>
       <c r="D18" t="n">
-        <v>62.22126207931486</v>
+        <v>62.22126207931488</v>
       </c>
       <c r="E18" t="n">
-        <v>62.22126207931486</v>
+        <v>62.22126207931488</v>
       </c>
       <c r="F18" t="n">
-        <v>62.22126207931486</v>
+        <v>62.22126207931488</v>
       </c>
       <c r="G18" t="n">
-        <v>62.22126207931486</v>
+        <v>62.22126207931488</v>
       </c>
       <c r="H18" t="n">
-        <v>62.22126207931486</v>
+        <v>62.22126207931488</v>
       </c>
       <c r="I18" t="n">
-        <v>62.22126207931486</v>
+        <v>62.22126207931488</v>
       </c>
       <c r="J18" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="K18" t="n">
-        <v>48.64509028167976</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="L18" t="n">
-        <v>167.2121322091851</v>
+        <v>128.3309857893937</v>
       </c>
       <c r="M18" t="n">
-        <v>288.0409375000535</v>
+        <v>249.1597910802624</v>
       </c>
       <c r="N18" t="n">
-        <v>403.4867099054306</v>
+        <v>369.988596371131</v>
       </c>
       <c r="O18" t="n">
-        <v>403.4867099054306</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="P18" t="n">
-        <v>488.1971930944178</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="Q18" t="n">
-        <v>481.9986212547556</v>
+        <v>481.9986212547565</v>
       </c>
       <c r="R18" t="n">
-        <v>358.7165017864683</v>
+        <v>358.7165017864689</v>
       </c>
       <c r="S18" t="n">
-        <v>235.4343823181809</v>
+        <v>358.7165017864689</v>
       </c>
       <c r="T18" t="n">
-        <v>112.1522628498936</v>
+        <v>235.4343823181814</v>
       </c>
       <c r="U18" t="n">
-        <v>112.1522628498936</v>
+        <v>235.4343823181814</v>
       </c>
       <c r="V18" t="n">
-        <v>62.22126207931486</v>
+        <v>235.4343823181814</v>
       </c>
       <c r="W18" t="n">
-        <v>62.22126207931486</v>
+        <v>235.4343823181814</v>
       </c>
       <c r="X18" t="n">
-        <v>62.22126207931486</v>
+        <v>185.5033815476024</v>
       </c>
       <c r="Y18" t="n">
-        <v>62.22126207931486</v>
+        <v>62.22126207931488</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="C19" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="D19" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="E19" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="F19" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="G19" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="H19" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="I19" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="J19" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="K19" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="L19" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="M19" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="N19" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="O19" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="P19" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="Q19" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="R19" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="S19" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="T19" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="U19" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="V19" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="W19" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="X19" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="Y19" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888375</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>315.9417875589141</v>
+        <v>315.9417875589156</v>
       </c>
       <c r="C20" t="n">
-        <v>286.3198544558568</v>
+        <v>286.3198544558581</v>
       </c>
       <c r="D20" t="n">
-        <v>269.2568483618415</v>
+        <v>269.2568483618427</v>
       </c>
       <c r="E20" t="n">
-        <v>218.1466176017566</v>
+        <v>218.1466176017575</v>
       </c>
       <c r="F20" t="n">
-        <v>134.9956418130076</v>
+        <v>134.9956418130085</v>
       </c>
       <c r="G20" t="n">
-        <v>36.05861259151845</v>
+        <v>36.05861259151848</v>
       </c>
       <c r="H20" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="I20" t="n">
-        <v>89.24480594465244</v>
+        <v>89.24480594465247</v>
       </c>
       <c r="J20" t="n">
-        <v>89.24480594465244</v>
+        <v>123.0099974227608</v>
       </c>
       <c r="K20" t="n">
-        <v>89.24480594465244</v>
+        <v>123.0099974227608</v>
       </c>
       <c r="L20" t="n">
-        <v>137.6420564316398</v>
+        <v>171.4072479097481</v>
       </c>
       <c r="M20" t="n">
-        <v>220.3692824347567</v>
+        <v>254.134473912865</v>
       </c>
       <c r="N20" t="n">
-        <v>297.5926854262615</v>
+        <v>331.3578769043699</v>
       </c>
       <c r="O20" t="n">
-        <v>333.6031963254417</v>
+        <v>367.3683878035501</v>
       </c>
       <c r="P20" t="n">
-        <v>333.6031963254417</v>
+        <v>367.3683878035501</v>
       </c>
       <c r="Q20" t="n">
-        <v>333.6031963254417</v>
+        <v>367.3683878035501</v>
       </c>
       <c r="R20" t="n">
-        <v>333.6031963254417</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="S20" t="n">
-        <v>426.2744318321804</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="T20" t="n">
-        <v>488.1971930944178</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="U20" t="n">
-        <v>488.1971930944178</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="V20" t="n">
-        <v>488.1971930944178</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="W20" t="n">
-        <v>471.008627219049</v>
+        <v>471.0086272190501</v>
       </c>
       <c r="X20" t="n">
-        <v>431.7127376376811</v>
+        <v>431.7127376376825</v>
       </c>
       <c r="Y20" t="n">
-        <v>369.6866933858649</v>
+        <v>369.6866933858664</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>170.4694832648917</v>
+        <v>358.7165017864689</v>
       </c>
       <c r="C21" t="n">
-        <v>170.4694832648917</v>
+        <v>235.4343823181814</v>
       </c>
       <c r="D21" t="n">
-        <v>170.4694832648917</v>
+        <v>235.4343823181814</v>
       </c>
       <c r="E21" t="n">
-        <v>170.4694832648917</v>
+        <v>235.4343823181814</v>
       </c>
       <c r="F21" t="n">
-        <v>170.4694832648917</v>
+        <v>235.4343823181814</v>
       </c>
       <c r="G21" t="n">
-        <v>170.4694832648917</v>
+        <v>118.0121650474652</v>
       </c>
       <c r="H21" t="n">
-        <v>170.4694832648917</v>
+        <v>118.0121650474652</v>
       </c>
       <c r="I21" t="n">
-        <v>62.22126207931486</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="J21" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="K21" t="n">
-        <v>9.763943861888356</v>
+        <v>48.64509028167978</v>
       </c>
       <c r="L21" t="n">
-        <v>128.3309857893937</v>
+        <v>48.64509028167978</v>
       </c>
       <c r="M21" t="n">
-        <v>249.1597910802622</v>
+        <v>169.4738955725484</v>
       </c>
       <c r="N21" t="n">
-        <v>282.6579046145622</v>
+        <v>290.302700863417</v>
       </c>
       <c r="O21" t="n">
-        <v>403.4867099054306</v>
+        <v>411.1315061542857</v>
       </c>
       <c r="P21" t="n">
-        <v>488.1971930944178</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="Q21" t="n">
-        <v>488.1971930944178</v>
+        <v>481.9986212547565</v>
       </c>
       <c r="R21" t="n">
-        <v>488.1971930944178</v>
+        <v>481.9986212547565</v>
       </c>
       <c r="S21" t="n">
-        <v>488.1971930944178</v>
+        <v>481.9986212547565</v>
       </c>
       <c r="T21" t="n">
-        <v>488.1971930944178</v>
+        <v>358.7165017864689</v>
       </c>
       <c r="U21" t="n">
-        <v>417.0337222014664</v>
+        <v>358.7165017864689</v>
       </c>
       <c r="V21" t="n">
-        <v>293.7516027331791</v>
+        <v>358.7165017864689</v>
       </c>
       <c r="W21" t="n">
-        <v>170.4694832648917</v>
+        <v>358.7165017864689</v>
       </c>
       <c r="X21" t="n">
-        <v>170.4694832648917</v>
+        <v>358.7165017864689</v>
       </c>
       <c r="Y21" t="n">
-        <v>170.4694832648917</v>
+        <v>358.7165017864689</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="C22" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="D22" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="E22" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="F22" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="G22" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="H22" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="I22" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="J22" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="K22" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="L22" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="M22" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="N22" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="O22" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="P22" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="Q22" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="R22" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="S22" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="T22" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="U22" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="V22" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="W22" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="X22" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="Y22" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888375</v>
       </c>
     </row>
     <row r="23">
@@ -5963,13 +5963,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>315.9417875589146</v>
+        <v>315.941787558915</v>
       </c>
       <c r="C23" t="n">
-        <v>286.3198544558572</v>
+        <v>286.3198544558575</v>
       </c>
       <c r="D23" t="n">
-        <v>269.2568483618418</v>
+        <v>269.2568483618421</v>
       </c>
       <c r="E23" t="n">
         <v>218.1466176017569</v>
@@ -5978,61 +5978,61 @@
         <v>134.9956418130079</v>
       </c>
       <c r="G23" t="n">
-        <v>36.05861259151845</v>
+        <v>36.05861259151846</v>
       </c>
       <c r="H23" t="n">
-        <v>9.763943861888354</v>
+        <v>9.763943861888363</v>
       </c>
       <c r="I23" t="n">
-        <v>9.763943861888354</v>
+        <v>89.24480594465246</v>
       </c>
       <c r="J23" t="n">
-        <v>9.763943861888354</v>
+        <v>89.24480594465246</v>
       </c>
       <c r="K23" t="n">
-        <v>9.763943861888354</v>
+        <v>89.24480594465246</v>
       </c>
       <c r="L23" t="n">
-        <v>58.16119434887567</v>
+        <v>137.6420564316398</v>
       </c>
       <c r="M23" t="n">
-        <v>140.8884203519926</v>
+        <v>220.3692824347567</v>
       </c>
       <c r="N23" t="n">
-        <v>218.1118233434975</v>
+        <v>297.5926854262616</v>
       </c>
       <c r="O23" t="n">
-        <v>254.1223342426777</v>
+        <v>333.6031963254418</v>
       </c>
       <c r="P23" t="n">
-        <v>254.1223342426777</v>
+        <v>333.6031963254418</v>
       </c>
       <c r="Q23" t="n">
-        <v>254.1223342426777</v>
+        <v>333.6031963254418</v>
       </c>
       <c r="R23" t="n">
-        <v>320.6981276545306</v>
+        <v>333.6031963254418</v>
       </c>
       <c r="S23" t="n">
-        <v>320.6981276545306</v>
+        <v>333.6031963254418</v>
       </c>
       <c r="T23" t="n">
-        <v>418.174393549482</v>
+        <v>431.0794622203932</v>
       </c>
       <c r="U23" t="n">
-        <v>488.1971930944177</v>
+        <v>488.1971930944181</v>
       </c>
       <c r="V23" t="n">
-        <v>488.1971930944177</v>
+        <v>488.1971930944181</v>
       </c>
       <c r="W23" t="n">
-        <v>471.0086272190492</v>
+        <v>471.0086272190495</v>
       </c>
       <c r="X23" t="n">
-        <v>431.7127376376814</v>
+        <v>431.7127376376819</v>
       </c>
       <c r="Y23" t="n">
-        <v>369.6866933858654</v>
+        <v>369.6866933858658</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>293.751602733179</v>
+        <v>241.2942845157526</v>
       </c>
       <c r="C24" t="n">
-        <v>293.751602733179</v>
+        <v>241.2942845157526</v>
       </c>
       <c r="D24" t="n">
-        <v>293.751602733179</v>
+        <v>241.2942845157526</v>
       </c>
       <c r="E24" t="n">
-        <v>293.751602733179</v>
+        <v>241.2942845157526</v>
       </c>
       <c r="F24" t="n">
-        <v>293.751602733179</v>
+        <v>118.0121650474652</v>
       </c>
       <c r="G24" t="n">
-        <v>170.4694832648917</v>
+        <v>118.0121650474652</v>
       </c>
       <c r="H24" t="n">
-        <v>170.4694832648917</v>
+        <v>118.0121650474652</v>
       </c>
       <c r="I24" t="n">
-        <v>62.22126207931485</v>
+        <v>9.763943861888363</v>
       </c>
       <c r="J24" t="n">
-        <v>9.763943861888354</v>
+        <v>9.763943861888363</v>
       </c>
       <c r="K24" t="n">
-        <v>9.763943861888354</v>
+        <v>48.64509028167977</v>
       </c>
       <c r="L24" t="n">
-        <v>128.3309857893937</v>
+        <v>167.2121322091851</v>
       </c>
       <c r="M24" t="n">
-        <v>161.8290993236937</v>
+        <v>288.0409375000536</v>
       </c>
       <c r="N24" t="n">
-        <v>282.6579046145621</v>
+        <v>367.3683878035496</v>
       </c>
       <c r="O24" t="n">
-        <v>403.4867099054305</v>
+        <v>488.1971930944181</v>
       </c>
       <c r="P24" t="n">
-        <v>488.1971930944177</v>
+        <v>488.1971930944181</v>
       </c>
       <c r="Q24" t="n">
-        <v>481.9986212547554</v>
+        <v>481.9986212547558</v>
       </c>
       <c r="R24" t="n">
-        <v>358.7165017864681</v>
+        <v>358.7165017864684</v>
       </c>
       <c r="S24" t="n">
-        <v>358.7165017864681</v>
+        <v>241.2942845157526</v>
       </c>
       <c r="T24" t="n">
-        <v>358.7165017864681</v>
+        <v>241.2942845157526</v>
       </c>
       <c r="U24" t="n">
-        <v>293.751602733179</v>
+        <v>241.2942845157526</v>
       </c>
       <c r="V24" t="n">
-        <v>293.751602733179</v>
+        <v>241.2942845157526</v>
       </c>
       <c r="W24" t="n">
-        <v>293.751602733179</v>
+        <v>241.2942845157526</v>
       </c>
       <c r="X24" t="n">
-        <v>293.751602733179</v>
+        <v>241.2942845157526</v>
       </c>
       <c r="Y24" t="n">
-        <v>293.751602733179</v>
+        <v>241.2942845157526</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>9.763943861888354</v>
+        <v>9.763943861888363</v>
       </c>
       <c r="C25" t="n">
-        <v>9.763943861888354</v>
+        <v>9.763943861888363</v>
       </c>
       <c r="D25" t="n">
-        <v>9.763943861888354</v>
+        <v>9.763943861888363</v>
       </c>
       <c r="E25" t="n">
-        <v>9.763943861888354</v>
+        <v>9.763943861888363</v>
       </c>
       <c r="F25" t="n">
-        <v>9.763943861888354</v>
+        <v>9.763943861888363</v>
       </c>
       <c r="G25" t="n">
-        <v>9.763943861888354</v>
+        <v>9.763943861888363</v>
       </c>
       <c r="H25" t="n">
-        <v>9.763943861888354</v>
+        <v>9.763943861888363</v>
       </c>
       <c r="I25" t="n">
-        <v>9.763943861888354</v>
+        <v>9.763943861888363</v>
       </c>
       <c r="J25" t="n">
-        <v>9.763943861888354</v>
+        <v>9.763943861888363</v>
       </c>
       <c r="K25" t="n">
-        <v>9.763943861888354</v>
+        <v>9.763943861888363</v>
       </c>
       <c r="L25" t="n">
-        <v>9.763943861888354</v>
+        <v>9.763943861888363</v>
       </c>
       <c r="M25" t="n">
-        <v>9.763943861888354</v>
+        <v>9.763943861888363</v>
       </c>
       <c r="N25" t="n">
-        <v>9.763943861888354</v>
+        <v>9.763943861888363</v>
       </c>
       <c r="O25" t="n">
-        <v>9.763943861888354</v>
+        <v>9.763943861888363</v>
       </c>
       <c r="P25" t="n">
-        <v>9.763943861888354</v>
+        <v>9.763943861888363</v>
       </c>
       <c r="Q25" t="n">
-        <v>9.763943861888354</v>
+        <v>9.763943861888363</v>
       </c>
       <c r="R25" t="n">
-        <v>9.763943861888354</v>
+        <v>9.763943861888363</v>
       </c>
       <c r="S25" t="n">
-        <v>9.763943861888354</v>
+        <v>9.763943861888363</v>
       </c>
       <c r="T25" t="n">
-        <v>9.763943861888354</v>
+        <v>9.763943861888363</v>
       </c>
       <c r="U25" t="n">
-        <v>9.763943861888354</v>
+        <v>9.763943861888363</v>
       </c>
       <c r="V25" t="n">
-        <v>9.763943861888354</v>
+        <v>9.763943861888363</v>
       </c>
       <c r="W25" t="n">
-        <v>9.763943861888354</v>
+        <v>9.763943861888363</v>
       </c>
       <c r="X25" t="n">
-        <v>9.763943861888354</v>
+        <v>9.763943861888363</v>
       </c>
       <c r="Y25" t="n">
-        <v>9.763943861888354</v>
+        <v>9.763943861888363</v>
       </c>
     </row>
     <row r="26">
@@ -6203,52 +6203,52 @@
         <v>1024.530470300262</v>
       </c>
       <c r="C26" t="n">
-        <v>885.8553792567884</v>
+        <v>885.8553792567885</v>
       </c>
       <c r="D26" t="n">
-        <v>759.7392152223571</v>
+        <v>759.7392152223572</v>
       </c>
       <c r="E26" t="n">
         <v>599.5758265218562</v>
       </c>
       <c r="F26" t="n">
-        <v>407.3716927926914</v>
+        <v>407.3716927926913</v>
       </c>
       <c r="G26" t="n">
-        <v>199.3815056307863</v>
+        <v>199.381505630786</v>
       </c>
       <c r="H26" t="n">
-        <v>64.03367896074067</v>
+        <v>64.03367896074072</v>
       </c>
       <c r="I26" t="n">
-        <v>36.07516654911174</v>
+        <v>36.07516654911176</v>
       </c>
       <c r="J26" t="n">
-        <v>171.7509734792163</v>
+        <v>171.7509734792161</v>
       </c>
       <c r="K26" t="n">
-        <v>377.2303396281798</v>
+        <v>377.2303396281795</v>
       </c>
       <c r="L26" t="n">
-        <v>636.415575790826</v>
+        <v>636.4155757908258</v>
       </c>
       <c r="M26" t="n">
-        <v>929.9307874696018</v>
+        <v>929.9307874696015</v>
       </c>
       <c r="N26" t="n">
-        <v>1217.942176136766</v>
+        <v>1217.942176136765</v>
       </c>
       <c r="O26" t="n">
         <v>1464.740672711605</v>
       </c>
       <c r="P26" t="n">
-        <v>1662.115223691694</v>
+        <v>1662.115223691695</v>
       </c>
       <c r="Q26" t="n">
-        <v>1785.235767148034</v>
+        <v>1785.235767148035</v>
       </c>
       <c r="R26" t="n">
-        <v>1803.758327455587</v>
+        <v>1803.758327455588</v>
       </c>
       <c r="S26" t="n">
         <v>1789.25800647746</v>
@@ -6257,7 +6257,7 @@
         <v>1779.660277467715</v>
       </c>
       <c r="U26" t="n">
-        <v>1742.051665537844</v>
+        <v>1742.051665537845</v>
       </c>
       <c r="V26" t="n">
         <v>1632.998507597428</v>
@@ -6279,34 +6279,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>399.5538769565327</v>
+        <v>36.07516654911176</v>
       </c>
       <c r="C27" t="n">
-        <v>399.5538769565327</v>
+        <v>36.07516654911176</v>
       </c>
       <c r="D27" t="n">
-        <v>238.7737607175644</v>
+        <v>36.07516654911176</v>
       </c>
       <c r="E27" t="n">
-        <v>238.7737607175644</v>
+        <v>36.07516654911176</v>
       </c>
       <c r="F27" t="n">
-        <v>238.7737607175644</v>
+        <v>36.07516654911176</v>
       </c>
       <c r="G27" t="n">
-        <v>88.53248476653825</v>
+        <v>36.07516654911176</v>
       </c>
       <c r="H27" t="n">
-        <v>88.53248476653825</v>
+        <v>36.07516654911176</v>
       </c>
       <c r="I27" t="n">
-        <v>88.53248476653825</v>
+        <v>36.07516654911176</v>
       </c>
       <c r="J27" t="n">
-        <v>36.07516654911174</v>
+        <v>36.07516654911176</v>
       </c>
       <c r="K27" t="n">
-        <v>74.95631296890315</v>
+        <v>74.95631296890318</v>
       </c>
       <c r="L27" t="n">
         <v>193.5233548964085</v>
@@ -6336,19 +6336,19 @@
         <v>798.7360447531761</v>
       </c>
       <c r="U27" t="n">
-        <v>711.9773449580367</v>
+        <v>774.1799492655456</v>
       </c>
       <c r="V27" t="n">
-        <v>683.965462465853</v>
+        <v>535.5545876626143</v>
       </c>
       <c r="W27" t="n">
-        <v>629.6347288003265</v>
+        <v>266.1560183929057</v>
       </c>
       <c r="X27" t="n">
-        <v>625.194570021205</v>
+        <v>46.64802400960203</v>
       </c>
       <c r="Y27" t="n">
-        <v>399.5538769565327</v>
+        <v>36.07516654911176</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>36.07516654911174</v>
+        <v>37.75440289169586</v>
       </c>
       <c r="C28" t="n">
-        <v>36.07516654911174</v>
+        <v>83.74977940510209</v>
       </c>
       <c r="D28" t="n">
-        <v>36.07516654911174</v>
+        <v>83.74977940510209</v>
       </c>
       <c r="E28" t="n">
-        <v>36.07516654911174</v>
+        <v>83.74977940510209</v>
       </c>
       <c r="F28" t="n">
-        <v>36.07516654911174</v>
+        <v>83.74977940510209</v>
       </c>
       <c r="G28" t="n">
-        <v>36.07516654911174</v>
+        <v>83.74977940510209</v>
       </c>
       <c r="H28" t="n">
-        <v>36.07516654911174</v>
+        <v>130.4139780595412</v>
       </c>
       <c r="I28" t="n">
-        <v>36.07516654911174</v>
+        <v>178.1408268827057</v>
       </c>
       <c r="J28" t="n">
-        <v>36.07516654911174</v>
+        <v>270.228498281052</v>
       </c>
       <c r="K28" t="n">
-        <v>36.07516654911174</v>
+        <v>270.228498281052</v>
       </c>
       <c r="L28" t="n">
-        <v>36.07516654911174</v>
+        <v>270.228498281052</v>
       </c>
       <c r="M28" t="n">
-        <v>36.07516654911174</v>
+        <v>270.228498281052</v>
       </c>
       <c r="N28" t="n">
-        <v>184.9863110441002</v>
+        <v>270.228498281052</v>
       </c>
       <c r="O28" t="n">
-        <v>184.9863110441002</v>
+        <v>270.228498281052</v>
       </c>
       <c r="P28" t="n">
-        <v>184.9863110441002</v>
+        <v>270.228498281052</v>
       </c>
       <c r="Q28" t="n">
-        <v>270.2284982810516</v>
+        <v>270.228498281052</v>
       </c>
       <c r="R28" t="n">
-        <v>270.2284982810516</v>
+        <v>270.228498281052</v>
       </c>
       <c r="S28" t="n">
-        <v>247.5648574270849</v>
+        <v>247.5648574270853</v>
       </c>
       <c r="T28" t="n">
-        <v>236.6316904687925</v>
+        <v>236.6316904687928</v>
       </c>
       <c r="U28" t="n">
-        <v>160.1275115022783</v>
+        <v>160.1275115022786</v>
       </c>
       <c r="V28" t="n">
-        <v>127.6104832837838</v>
+        <v>127.610483283784</v>
       </c>
       <c r="W28" t="n">
-        <v>49.43518041388984</v>
+        <v>49.43518041388998</v>
       </c>
       <c r="X28" t="n">
-        <v>40.34194994914013</v>
+        <v>40.34194994914021</v>
       </c>
       <c r="Y28" t="n">
-        <v>36.07516654911174</v>
+        <v>36.07516654911176</v>
       </c>
     </row>
     <row r="29">
@@ -6440,46 +6440,46 @@
         <v>1024.530470300263</v>
       </c>
       <c r="C29" t="n">
-        <v>885.8553792567894</v>
+        <v>885.8553792567892</v>
       </c>
       <c r="D29" t="n">
-        <v>759.7392152223582</v>
+        <v>759.7392152223579</v>
       </c>
       <c r="E29" t="n">
-        <v>599.5758265218574</v>
+        <v>599.5758265218569</v>
       </c>
       <c r="F29" t="n">
-        <v>407.3716927926926</v>
+        <v>407.371692792692</v>
       </c>
       <c r="G29" t="n">
-        <v>199.3815056307874</v>
+        <v>199.3815056307868</v>
       </c>
       <c r="H29" t="n">
-        <v>64.033678960741</v>
+        <v>64.0336789607407</v>
       </c>
       <c r="I29" t="n">
         <v>36.07516654911174</v>
       </c>
       <c r="J29" t="n">
-        <v>171.7509734792162</v>
+        <v>171.750973479216</v>
       </c>
       <c r="K29" t="n">
-        <v>377.2303396281798</v>
+        <v>377.2303396281794</v>
       </c>
       <c r="L29" t="n">
-        <v>636.4155757908261</v>
+        <v>636.415575790826</v>
       </c>
       <c r="M29" t="n">
-        <v>929.9307874696019</v>
+        <v>929.9307874696017</v>
       </c>
       <c r="N29" t="n">
         <v>1217.942176136766</v>
       </c>
       <c r="O29" t="n">
-        <v>1464.740672711605</v>
+        <v>1464.740672711604</v>
       </c>
       <c r="P29" t="n">
-        <v>1662.115223691695</v>
+        <v>1662.115223691694</v>
       </c>
       <c r="Q29" t="n">
         <v>1785.235767148034</v>
@@ -6494,10 +6494,10 @@
         <v>1779.660277467715</v>
       </c>
       <c r="U29" t="n">
-        <v>1742.051665537845</v>
+        <v>1742.051665537846</v>
       </c>
       <c r="V29" t="n">
-        <v>1632.998507597429</v>
+        <v>1632.99850759743</v>
       </c>
       <c r="W29" t="n">
         <v>1506.756783781645</v>
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>246.6886456598594</v>
+        <v>238.7737607175644</v>
       </c>
       <c r="C30" t="n">
-        <v>57.27637139282317</v>
+        <v>238.7737607175644</v>
       </c>
       <c r="D30" t="n">
-        <v>57.27637139282317</v>
+        <v>238.7737607175644</v>
       </c>
       <c r="E30" t="n">
-        <v>57.27637139282317</v>
+        <v>238.7737607175644</v>
       </c>
       <c r="F30" t="n">
-        <v>57.27637139282317</v>
+        <v>238.7737607175644</v>
       </c>
       <c r="G30" t="n">
-        <v>57.27637139282317</v>
+        <v>88.53248476653825</v>
       </c>
       <c r="H30" t="n">
-        <v>36.07516654911174</v>
+        <v>88.53248476653825</v>
       </c>
       <c r="I30" t="n">
-        <v>36.07516654911174</v>
+        <v>88.53248476653825</v>
       </c>
       <c r="J30" t="n">
         <v>36.07516654911174</v>
@@ -6570,22 +6570,22 @@
         <v>800.787181073825</v>
       </c>
       <c r="T30" t="n">
-        <v>798.7360447531762</v>
+        <v>798.7360447531761</v>
       </c>
       <c r="U30" t="n">
-        <v>559.1121136613635</v>
+        <v>774.1799492655456</v>
       </c>
       <c r="V30" t="n">
-        <v>531.1002311691798</v>
+        <v>738.253181831067</v>
       </c>
       <c r="W30" t="n">
-        <v>476.7694975036533</v>
+        <v>468.8546125613584</v>
       </c>
       <c r="X30" t="n">
-        <v>472.3293387245318</v>
+        <v>464.4144537822368</v>
       </c>
       <c r="Y30" t="n">
-        <v>246.6886456598594</v>
+        <v>238.7737607175644</v>
       </c>
     </row>
     <row r="31">
@@ -6598,70 +6598,70 @@
         <v>36.07516654911174</v>
       </c>
       <c r="C31" t="n">
-        <v>36.07516654911174</v>
+        <v>82.07054306251797</v>
       </c>
       <c r="D31" t="n">
-        <v>36.07516654911174</v>
+        <v>149.1277049899732</v>
       </c>
       <c r="E31" t="n">
-        <v>36.07516654911174</v>
+        <v>149.1277049899732</v>
       </c>
       <c r="F31" t="n">
-        <v>95.87107322179716</v>
+        <v>222.3780772693699</v>
       </c>
       <c r="G31" t="n">
-        <v>95.87107322179716</v>
+        <v>222.3780772693699</v>
       </c>
       <c r="H31" t="n">
-        <v>95.87107322179716</v>
+        <v>269.042275923809</v>
       </c>
       <c r="I31" t="n">
-        <v>95.87107322179716</v>
+        <v>270.228498281052</v>
       </c>
       <c r="J31" t="n">
-        <v>95.87107322179716</v>
+        <v>270.228498281052</v>
       </c>
       <c r="K31" t="n">
-        <v>95.87107322179716</v>
+        <v>270.228498281052</v>
       </c>
       <c r="L31" t="n">
-        <v>95.87107322179716</v>
+        <v>270.228498281052</v>
       </c>
       <c r="M31" t="n">
-        <v>95.87107322179716</v>
+        <v>270.228498281052</v>
       </c>
       <c r="N31" t="n">
-        <v>95.87107322179716</v>
+        <v>270.228498281052</v>
       </c>
       <c r="O31" t="n">
-        <v>270.2284982810512</v>
+        <v>270.228498281052</v>
       </c>
       <c r="P31" t="n">
-        <v>270.2284982810512</v>
+        <v>270.228498281052</v>
       </c>
       <c r="Q31" t="n">
-        <v>270.2284982810512</v>
+        <v>270.228498281052</v>
       </c>
       <c r="R31" t="n">
-        <v>270.2284982810512</v>
+        <v>270.228498281052</v>
       </c>
       <c r="S31" t="n">
-        <v>247.5648574270845</v>
+        <v>247.5648574270852</v>
       </c>
       <c r="T31" t="n">
-        <v>236.6316904687922</v>
+        <v>236.6316904687928</v>
       </c>
       <c r="U31" t="n">
-        <v>160.1275115022781</v>
+        <v>160.1275115022786</v>
       </c>
       <c r="V31" t="n">
-        <v>127.6104832837836</v>
+        <v>127.610483283784</v>
       </c>
       <c r="W31" t="n">
-        <v>49.43518041388973</v>
+        <v>49.43518041388995</v>
       </c>
       <c r="X31" t="n">
-        <v>40.34194994914007</v>
+        <v>40.34194994914019</v>
       </c>
       <c r="Y31" t="n">
         <v>36.07516654911174</v>
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1024.530470300263</v>
+        <v>1024.530470300262</v>
       </c>
       <c r="C32" t="n">
-        <v>885.8553792567892</v>
+        <v>885.8553792567889</v>
       </c>
       <c r="D32" t="n">
-        <v>759.7392152223579</v>
+        <v>759.7392152223575</v>
       </c>
       <c r="E32" t="n">
-        <v>599.5758265218569</v>
+        <v>599.5758265218567</v>
       </c>
       <c r="F32" t="n">
-        <v>407.371692792692</v>
+        <v>407.3716927926919</v>
       </c>
       <c r="G32" t="n">
-        <v>199.3815056307868</v>
+        <v>199.3815056307866</v>
       </c>
       <c r="H32" t="n">
-        <v>64.0336789607407</v>
+        <v>64.03367896074064</v>
       </c>
       <c r="I32" t="n">
         <v>36.07516654911174</v>
@@ -6701,10 +6701,10 @@
         <v>171.7509734792161</v>
       </c>
       <c r="K32" t="n">
-        <v>377.2303396281795</v>
+        <v>377.2303396281794</v>
       </c>
       <c r="L32" t="n">
-        <v>636.4155757908258</v>
+        <v>636.4155757908256</v>
       </c>
       <c r="M32" t="n">
         <v>929.9307874696015</v>
@@ -6725,16 +6725,16 @@
         <v>1803.758327455587</v>
       </c>
       <c r="S32" t="n">
-        <v>1789.25800647746</v>
+        <v>1789.258006477459</v>
       </c>
       <c r="T32" t="n">
         <v>1779.660277467715</v>
       </c>
       <c r="U32" t="n">
-        <v>1742.051665537846</v>
+        <v>1742.051665537845</v>
       </c>
       <c r="V32" t="n">
-        <v>1632.99850759743</v>
+        <v>1632.998507597429</v>
       </c>
       <c r="W32" t="n">
         <v>1506.756783781645</v>
@@ -6743,7 +6743,7 @@
         <v>1358.407736259861</v>
       </c>
       <c r="Y32" t="n">
-        <v>1187.32853406763</v>
+        <v>1187.328534067629</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>196.85528278808</v>
+        <v>536.4342561701776</v>
       </c>
       <c r="C33" t="n">
-        <v>196.85528278808</v>
+        <v>347.0219819031413</v>
       </c>
       <c r="D33" t="n">
-        <v>36.07516654911174</v>
+        <v>347.0219819031413</v>
       </c>
       <c r="E33" t="n">
-        <v>36.07516654911174</v>
+        <v>347.0219819031413</v>
       </c>
       <c r="F33" t="n">
-        <v>36.07516654911174</v>
+        <v>347.0219819031413</v>
       </c>
       <c r="G33" t="n">
-        <v>36.07516654911174</v>
+        <v>196.7807059521151</v>
       </c>
       <c r="H33" t="n">
-        <v>36.07516654911174</v>
+        <v>196.7807059521151</v>
       </c>
       <c r="I33" t="n">
-        <v>36.07516654911174</v>
+        <v>88.53248476653825</v>
       </c>
       <c r="J33" t="n">
         <v>36.07516654911174</v>
@@ -6798,31 +6798,31 @@
         <v>800.787181073825</v>
       </c>
       <c r="Q33" t="n">
-        <v>800.787181073825</v>
+        <v>794.5886092341627</v>
       </c>
       <c r="R33" t="n">
-        <v>800.787181073825</v>
+        <v>794.5886092341627</v>
       </c>
       <c r="S33" t="n">
-        <v>800.787181073825</v>
+        <v>794.5886092341627</v>
       </c>
       <c r="T33" t="n">
-        <v>798.7360447531761</v>
+        <v>792.5374729135139</v>
       </c>
       <c r="U33" t="n">
-        <v>774.1799492655456</v>
+        <v>767.9813774258834</v>
       </c>
       <c r="V33" t="n">
-        <v>659.8027212243355</v>
+        <v>739.9694949336996</v>
       </c>
       <c r="W33" t="n">
-        <v>390.4041519546269</v>
+        <v>685.6387612681731</v>
       </c>
       <c r="X33" t="n">
-        <v>385.9639931755053</v>
+        <v>681.1986024890516</v>
       </c>
       <c r="Y33" t="n">
-        <v>375.3911357150151</v>
+        <v>536.4342561701776</v>
       </c>
     </row>
     <row r="34">
@@ -6835,70 +6835,70 @@
         <v>36.07516654911174</v>
       </c>
       <c r="C34" t="n">
-        <v>36.07516654911174</v>
+        <v>60.48721838662325</v>
       </c>
       <c r="D34" t="n">
-        <v>36.07516654911174</v>
+        <v>60.48721838662325</v>
       </c>
       <c r="E34" t="n">
-        <v>36.07516654911174</v>
+        <v>60.48721838662325</v>
       </c>
       <c r="F34" t="n">
-        <v>36.07516654911174</v>
+        <v>60.48721838662325</v>
       </c>
       <c r="G34" t="n">
-        <v>36.07516654911174</v>
+        <v>60.48721838662325</v>
       </c>
       <c r="H34" t="n">
-        <v>36.07516654911174</v>
+        <v>107.1514170410624</v>
       </c>
       <c r="I34" t="n">
-        <v>36.07516654911174</v>
+        <v>107.1514170410624</v>
       </c>
       <c r="J34" t="n">
-        <v>128.1628379474581</v>
+        <v>107.1514170410624</v>
       </c>
       <c r="K34" t="n">
-        <v>270.2284982810518</v>
+        <v>107.1514170410624</v>
       </c>
       <c r="L34" t="n">
-        <v>270.2284982810518</v>
+        <v>107.1514170410624</v>
       </c>
       <c r="M34" t="n">
-        <v>270.2284982810518</v>
+        <v>107.1514170410624</v>
       </c>
       <c r="N34" t="n">
-        <v>270.2284982810518</v>
+        <v>107.1514170410624</v>
       </c>
       <c r="O34" t="n">
-        <v>270.2284982810518</v>
+        <v>107.1514170410624</v>
       </c>
       <c r="P34" t="n">
-        <v>270.2284982810518</v>
+        <v>260.6219149623251</v>
       </c>
       <c r="Q34" t="n">
-        <v>270.2284982810518</v>
+        <v>260.6219149623251</v>
       </c>
       <c r="R34" t="n">
-        <v>270.2284982810518</v>
+        <v>270.2284982810516</v>
       </c>
       <c r="S34" t="n">
-        <v>247.5648574270851</v>
+        <v>247.5648574270849</v>
       </c>
       <c r="T34" t="n">
-        <v>236.6316904687927</v>
+        <v>236.6316904687925</v>
       </c>
       <c r="U34" t="n">
-        <v>160.1275115022785</v>
+        <v>160.1275115022783</v>
       </c>
       <c r="V34" t="n">
-        <v>127.6104832837839</v>
+        <v>127.6104832837838</v>
       </c>
       <c r="W34" t="n">
-        <v>49.4351804138899</v>
+        <v>49.43518041388984</v>
       </c>
       <c r="X34" t="n">
-        <v>40.34194994914016</v>
+        <v>40.34194994914013</v>
       </c>
       <c r="Y34" t="n">
         <v>36.07516654911174</v>
@@ -6911,67 +6911,67 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>773.6196706102301</v>
+        <v>773.6196706102303</v>
       </c>
       <c r="C35" t="n">
-        <v>670.4759701361758</v>
+        <v>670.4759701361759</v>
       </c>
       <c r="D35" t="n">
-        <v>579.8911966711635</v>
+        <v>579.8911966711637</v>
       </c>
       <c r="E35" t="n">
-        <v>455.2591985400816</v>
+        <v>455.2591985400819</v>
       </c>
       <c r="F35" t="n">
-        <v>298.5864553803358</v>
+        <v>298.5864553803362</v>
       </c>
       <c r="G35" t="n">
-        <v>126.1276587878504</v>
+        <v>126.1276587878502</v>
       </c>
       <c r="H35" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="I35" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="J35" t="n">
-        <v>93.19555222005388</v>
+        <v>196.8113455144154</v>
       </c>
       <c r="K35" t="n">
-        <v>93.19555222005388</v>
+        <v>336.069706971324</v>
       </c>
       <c r="L35" t="n">
-        <v>141.5928027070412</v>
+        <v>384.4669574583114</v>
       </c>
       <c r="M35" t="n">
-        <v>467.1941834614306</v>
+        <v>467.1941834614283</v>
       </c>
       <c r="N35" t="n">
-        <v>544.4175864529354</v>
+        <v>544.4175864529332</v>
       </c>
       <c r="O35" t="n">
-        <v>826.0403989248621</v>
+        <v>826.04039892486</v>
       </c>
       <c r="P35" t="n">
-        <v>1058.239265802039</v>
+        <v>1058.239265802038</v>
       </c>
       <c r="Q35" t="n">
-        <v>1216.184125155467</v>
+        <v>1216.184125155465</v>
       </c>
       <c r="R35" t="n">
-        <v>1269.531001360107</v>
+        <v>1269.531001360106</v>
       </c>
       <c r="S35" t="n">
-        <v>1290.143552666532</v>
+        <v>1290.143552666531</v>
       </c>
       <c r="T35" t="n">
-        <v>1315.561134361169</v>
+        <v>1315.561134361168</v>
       </c>
       <c r="U35" t="n">
-        <v>1313.483913000718</v>
+        <v>1313.483913000717</v>
       </c>
       <c r="V35" t="n">
-        <v>1239.962145629721</v>
+        <v>1239.96214562972</v>
       </c>
       <c r="W35" t="n">
         <v>1149.251812383355</v>
@@ -6980,7 +6980,7 @@
         <v>1036.434155430991</v>
       </c>
       <c r="Y35" t="n">
-        <v>900.8863438081778</v>
+        <v>900.8863438081779</v>
       </c>
     </row>
     <row r="36">
@@ -6990,34 +6990,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>389.2867008328452</v>
+        <v>365.9647729052858</v>
       </c>
       <c r="C36" t="n">
-        <v>199.8744265658089</v>
+        <v>176.5524986382495</v>
       </c>
       <c r="D36" t="n">
-        <v>199.8744265658089</v>
+        <v>176.5524986382495</v>
       </c>
       <c r="E36" t="n">
-        <v>26.31122268722338</v>
+        <v>176.5524986382495</v>
       </c>
       <c r="F36" t="n">
-        <v>26.31122268722338</v>
+        <v>176.5524986382495</v>
       </c>
       <c r="G36" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="H36" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="I36" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="J36" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="K36" t="n">
-        <v>65.19236910701478</v>
+        <v>65.19236910701477</v>
       </c>
       <c r="L36" t="n">
         <v>183.7594110345202</v>
@@ -7032,34 +7032,34 @@
         <v>706.3127540229493</v>
       </c>
       <c r="P36" t="n">
-        <v>791.0232372119365</v>
+        <v>791.0232372119366</v>
       </c>
       <c r="Q36" t="n">
-        <v>791.0232372119365</v>
+        <v>784.8246653722744</v>
       </c>
       <c r="R36" t="n">
-        <v>791.0232372119365</v>
+        <v>649.1041223269458</v>
       </c>
       <c r="S36" t="n">
-        <v>791.0232372119365</v>
+        <v>649.1041223269458</v>
       </c>
       <c r="T36" t="n">
-        <v>791.0232372119365</v>
+        <v>649.1041223269458</v>
       </c>
       <c r="U36" t="n">
-        <v>791.0232372119365</v>
+        <v>649.1041223269458</v>
       </c>
       <c r="V36" t="n">
-        <v>791.0232372119365</v>
+        <v>649.1041223269458</v>
       </c>
       <c r="W36" t="n">
-        <v>772.2238941158289</v>
+        <v>591.6054659699582</v>
       </c>
       <c r="X36" t="n">
-        <v>772.2238941158289</v>
+        <v>591.6054659699582</v>
       </c>
       <c r="Y36" t="n">
-        <v>567.8225537597802</v>
+        <v>365.9647729052858</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="C37" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="D37" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="E37" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="F37" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="G37" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="H37" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="I37" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="J37" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="K37" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="L37" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="M37" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="N37" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="O37" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="P37" t="n">
-        <v>109.9279233847935</v>
+        <v>109.9279233847932</v>
       </c>
       <c r="Q37" t="n">
-        <v>109.9279233847935</v>
+        <v>109.9279233847932</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9279233847935</v>
+        <v>109.9279233847932</v>
       </c>
       <c r="S37" t="n">
-        <v>109.9279233847935</v>
+        <v>109.9279233847932</v>
       </c>
       <c r="T37" t="n">
-        <v>109.9279233847935</v>
+        <v>109.9279233847932</v>
       </c>
       <c r="U37" t="n">
-        <v>68.95513498769833</v>
+        <v>68.95513498769819</v>
       </c>
       <c r="V37" t="n">
-        <v>68.95513498769833</v>
+        <v>68.95513498769819</v>
       </c>
       <c r="W37" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="X37" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="Y37" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722336</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>773.6196706102305</v>
+        <v>773.6196706102298</v>
       </c>
       <c r="C38" t="n">
-        <v>670.4759701361763</v>
+        <v>670.4759701361758</v>
       </c>
       <c r="D38" t="n">
-        <v>579.8911966711639</v>
+        <v>579.8911966711635</v>
       </c>
       <c r="E38" t="n">
-        <v>455.2591985400821</v>
+        <v>455.2591985400818</v>
       </c>
       <c r="F38" t="n">
-        <v>298.5864553803362</v>
+        <v>298.586455380336</v>
       </c>
       <c r="G38" t="n">
-        <v>126.1276587878504</v>
+        <v>126.1276587878502</v>
       </c>
       <c r="H38" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="I38" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="J38" t="n">
-        <v>196.8113455144153</v>
+        <v>95.76602492527289</v>
       </c>
       <c r="K38" t="n">
-        <v>196.8113455144153</v>
+        <v>336.069706971324</v>
       </c>
       <c r="L38" t="n">
-        <v>490.8208975741491</v>
+        <v>384.4669574583114</v>
       </c>
       <c r="M38" t="n">
-        <v>712.8064850341769</v>
+        <v>467.1941834614283</v>
       </c>
       <c r="N38" t="n">
-        <v>790.0298880256819</v>
+        <v>544.4175864529332</v>
       </c>
       <c r="O38" t="n">
-        <v>826.0403989248621</v>
+        <v>826.04039892486</v>
       </c>
       <c r="P38" t="n">
-        <v>1058.239265802039</v>
+        <v>1058.239265802038</v>
       </c>
       <c r="Q38" t="n">
-        <v>1216.184125155467</v>
+        <v>1216.184125155465</v>
       </c>
       <c r="R38" t="n">
-        <v>1269.531001360107</v>
+        <v>1269.531001360106</v>
       </c>
       <c r="S38" t="n">
-        <v>1290.143552666532</v>
+        <v>1290.14355266653</v>
       </c>
       <c r="T38" t="n">
-        <v>1315.561134361169</v>
+        <v>1315.561134361168</v>
       </c>
       <c r="U38" t="n">
-        <v>1313.483913000718</v>
+        <v>1313.483913000717</v>
       </c>
       <c r="V38" t="n">
-        <v>1239.962145629721</v>
+        <v>1239.96214562972</v>
       </c>
       <c r="W38" t="n">
-        <v>1149.251812383356</v>
+        <v>1149.251812383355</v>
       </c>
       <c r="X38" t="n">
-        <v>1036.434155430991</v>
+        <v>1036.43415543099</v>
       </c>
       <c r="Y38" t="n">
-        <v>900.8863438081781</v>
+        <v>900.8863438081775</v>
       </c>
     </row>
     <row r="39">
@@ -7227,34 +7227,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>510.543418799591</v>
+        <v>215.7234969542596</v>
       </c>
       <c r="C39" t="n">
-        <v>510.543418799591</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="D39" t="n">
-        <v>510.543418799591</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="E39" t="n">
-        <v>336.9802149210055</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="F39" t="n">
-        <v>176.5524986382496</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="G39" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="H39" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="I39" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="J39" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="K39" t="n">
-        <v>65.19236910701478</v>
+        <v>65.19236910701477</v>
       </c>
       <c r="L39" t="n">
         <v>183.7594110345202</v>
@@ -7269,34 +7269,34 @@
         <v>706.3127540229493</v>
       </c>
       <c r="P39" t="n">
-        <v>791.0232372119365</v>
+        <v>791.0232372119366</v>
       </c>
       <c r="Q39" t="n">
-        <v>791.0232372119365</v>
+        <v>784.8246653722744</v>
       </c>
       <c r="R39" t="n">
-        <v>655.3026941666079</v>
+        <v>649.1041223269458</v>
       </c>
       <c r="S39" t="n">
-        <v>529.3427618956986</v>
+        <v>649.1041223269458</v>
       </c>
       <c r="T39" t="n">
-        <v>529.3427618956986</v>
+        <v>431.9851504021148</v>
       </c>
       <c r="U39" t="n">
-        <v>529.3427618956986</v>
+        <v>431.9851504021148</v>
       </c>
       <c r="V39" t="n">
-        <v>529.3427618956986</v>
+        <v>431.9851504021148</v>
       </c>
       <c r="W39" t="n">
-        <v>510.543418799591</v>
+        <v>215.7234969542596</v>
       </c>
       <c r="X39" t="n">
-        <v>510.543418799591</v>
+        <v>215.7234969542596</v>
       </c>
       <c r="Y39" t="n">
-        <v>510.543418799591</v>
+        <v>215.7234969542596</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="C40" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="D40" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="E40" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="F40" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="G40" t="n">
-        <v>26.31122268722338</v>
+        <v>104.914522247998</v>
       </c>
       <c r="H40" t="n">
-        <v>26.31122268722338</v>
+        <v>104.914522247998</v>
       </c>
       <c r="I40" t="n">
-        <v>26.31122268722338</v>
+        <v>104.914522247998</v>
       </c>
       <c r="J40" t="n">
-        <v>109.9279233847935</v>
+        <v>104.914522247998</v>
       </c>
       <c r="K40" t="n">
-        <v>109.9279233847935</v>
+        <v>104.914522247998</v>
       </c>
       <c r="L40" t="n">
-        <v>109.9279233847935</v>
+        <v>104.914522247998</v>
       </c>
       <c r="M40" t="n">
-        <v>109.9279233847935</v>
+        <v>104.914522247998</v>
       </c>
       <c r="N40" t="n">
-        <v>109.9279233847935</v>
+        <v>104.914522247998</v>
       </c>
       <c r="O40" t="n">
-        <v>109.9279233847935</v>
+        <v>104.914522247998</v>
       </c>
       <c r="P40" t="n">
-        <v>109.9279233847935</v>
+        <v>104.914522247998</v>
       </c>
       <c r="Q40" t="n">
-        <v>109.9279233847935</v>
+        <v>109.9279233847932</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9279233847935</v>
+        <v>109.9279233847932</v>
       </c>
       <c r="S40" t="n">
-        <v>109.9279233847935</v>
+        <v>109.9279233847932</v>
       </c>
       <c r="T40" t="n">
-        <v>109.9279233847935</v>
+        <v>109.9279233847932</v>
       </c>
       <c r="U40" t="n">
-        <v>68.95513498769833</v>
+        <v>68.95513498769819</v>
       </c>
       <c r="V40" t="n">
-        <v>68.95513498769833</v>
+        <v>68.95513498769819</v>
       </c>
       <c r="W40" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="X40" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="Y40" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722336</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>820.9115219629601</v>
+        <v>820.9115219629606</v>
       </c>
       <c r="C41" t="n">
-        <v>710.1949433311156</v>
+        <v>710.1949433311161</v>
       </c>
       <c r="D41" t="n">
-        <v>612.0372917083134</v>
+        <v>612.0372917083139</v>
       </c>
       <c r="E41" t="n">
-        <v>479.8324154194415</v>
+        <v>479.832415419442</v>
       </c>
       <c r="F41" t="n">
-        <v>315.5867941019055</v>
+        <v>315.586794101906</v>
       </c>
       <c r="G41" t="n">
         <v>135.5551193516299</v>
@@ -7409,19 +7409,19 @@
         <v>28.1658050932128</v>
       </c>
       <c r="J41" t="n">
-        <v>191.2437500379546</v>
+        <v>191.2437500379547</v>
       </c>
       <c r="K41" t="n">
-        <v>424.1252542015555</v>
+        <v>424.1252542015556</v>
       </c>
       <c r="L41" t="n">
         <v>521.7291450524847</v>
       </c>
       <c r="M41" t="n">
-        <v>842.6464947458981</v>
+        <v>604.4563710556016</v>
       </c>
       <c r="N41" t="n">
-        <v>919.869897737403</v>
+        <v>681.6797740471065</v>
       </c>
       <c r="O41" t="n">
         <v>955.8804086365832</v>
@@ -7445,7 +7445,7 @@
         <v>1398.640155142399</v>
       </c>
       <c r="V41" t="n">
-        <v>1317.545509613611</v>
+        <v>1317.545509613612</v>
       </c>
       <c r="W41" t="n">
         <v>1219.262298209456</v>
@@ -7454,7 +7454,7 @@
         <v>1098.871763099301</v>
       </c>
       <c r="Y41" t="n">
-        <v>955.751073318698</v>
+        <v>955.7510733186984</v>
       </c>
     </row>
     <row r="42">
@@ -7464,40 +7464,40 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>217.5780793602491</v>
+        <v>60.89153786854786</v>
       </c>
       <c r="C42" t="n">
-        <v>28.1658050932128</v>
+        <v>60.89153786854786</v>
       </c>
       <c r="D42" t="n">
-        <v>28.1658050932128</v>
+        <v>60.89153786854786</v>
       </c>
       <c r="E42" t="n">
-        <v>28.1658050932128</v>
+        <v>60.89153786854786</v>
       </c>
       <c r="F42" t="n">
-        <v>28.1658050932128</v>
+        <v>60.89153786854786</v>
       </c>
       <c r="G42" t="n">
-        <v>28.1658050932128</v>
+        <v>60.89153786854786</v>
       </c>
       <c r="H42" t="n">
-        <v>28.1658050932128</v>
+        <v>60.89153786854786</v>
       </c>
       <c r="I42" t="n">
-        <v>28.1658050932128</v>
+        <v>60.89153786854786</v>
       </c>
       <c r="J42" t="n">
         <v>28.1658050932128</v>
       </c>
       <c r="K42" t="n">
-        <v>67.0469515130042</v>
+        <v>67.04695151300422</v>
       </c>
       <c r="L42" t="n">
         <v>185.6139934405096</v>
       </c>
       <c r="M42" t="n">
-        <v>368.7308031412893</v>
+        <v>368.7308031412894</v>
       </c>
       <c r="N42" t="n">
         <v>575.1140594806554</v>
@@ -7506,34 +7506,34 @@
         <v>708.1673364289388</v>
       </c>
       <c r="P42" t="n">
-        <v>792.877819617926</v>
+        <v>792.8778196179261</v>
       </c>
       <c r="Q42" t="n">
-        <v>792.877819617926</v>
+        <v>792.8778196179261</v>
       </c>
       <c r="R42" t="n">
-        <v>792.877819617926</v>
+        <v>792.8778196179261</v>
       </c>
       <c r="S42" t="n">
-        <v>792.877819617926</v>
+        <v>792.8778196179261</v>
       </c>
       <c r="T42" t="n">
-        <v>792.877819617926</v>
+        <v>792.8778196179261</v>
       </c>
       <c r="U42" t="n">
-        <v>792.877819617926</v>
+        <v>792.8778196179261</v>
       </c>
       <c r="V42" t="n">
-        <v>792.8244495373712</v>
+        <v>549.7981015215602</v>
       </c>
       <c r="W42" t="n">
-        <v>662.7267668082251</v>
+        <v>280.3995322518515</v>
       </c>
       <c r="X42" t="n">
-        <v>443.2187724249214</v>
+        <v>60.89153786854786</v>
       </c>
       <c r="Y42" t="n">
-        <v>217.5780793602491</v>
+        <v>60.89153786854786</v>
       </c>
     </row>
     <row r="43">
@@ -7585,7 +7585,7 @@
         <v>28.1658050932128</v>
       </c>
       <c r="P43" t="n">
-        <v>131.4867779132288</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="Q43" t="n">
         <v>131.4867779132288</v>
@@ -7649,28 +7649,28 @@
         <v>191.2437500379547</v>
       </c>
       <c r="K44" t="n">
-        <v>424.1252542015556</v>
+        <v>235.141770875201</v>
       </c>
       <c r="L44" t="n">
-        <v>710.7126283788393</v>
+        <v>283.5390213621883</v>
       </c>
       <c r="M44" t="n">
-        <v>1031.629978072253</v>
+        <v>604.4563710556016</v>
       </c>
       <c r="N44" t="n">
-        <v>1108.853381063758</v>
+        <v>681.6797740471065</v>
       </c>
       <c r="O44" t="n">
-        <v>1383.054015653234</v>
+        <v>955.8804086365832</v>
       </c>
       <c r="P44" t="n">
-        <v>1383.054015653234</v>
+        <v>1180.657097631311</v>
       </c>
       <c r="Q44" t="n">
-        <v>1390.294850848453</v>
+        <v>1331.179779102288</v>
       </c>
       <c r="R44" t="n">
-        <v>1390.294850848453</v>
+        <v>1377.104477424478</v>
       </c>
       <c r="S44" t="n">
         <v>1390.294850848453</v>
@@ -7701,28 +7701,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>396.9849691714478</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="C45" t="n">
-        <v>207.5726949044115</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="D45" t="n">
-        <v>207.5726949044115</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="E45" t="n">
-        <v>207.5726949044115</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="F45" t="n">
-        <v>207.5726949044115</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="G45" t="n">
-        <v>207.5726949044115</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="H45" t="n">
-        <v>80.6231233106393</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="I45" t="n">
-        <v>80.6231233106393</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="J45" t="n">
         <v>28.1658050932128</v>
@@ -7746,31 +7746,31 @@
         <v>792.8778196179261</v>
       </c>
       <c r="Q45" t="n">
-        <v>786.6792477782639</v>
+        <v>792.8778196179261</v>
       </c>
       <c r="R45" t="n">
-        <v>650.9587047329353</v>
+        <v>792.8778196179261</v>
       </c>
       <c r="S45" t="n">
-        <v>650.9587047329353</v>
+        <v>792.8778196179261</v>
       </c>
       <c r="T45" t="n">
-        <v>650.9587047329353</v>
+        <v>780.2680235511</v>
       </c>
       <c r="U45" t="n">
-        <v>650.9587047329353</v>
+        <v>540.6440924592873</v>
       </c>
       <c r="V45" t="n">
-        <v>650.9053346523805</v>
+        <v>297.5643743629215</v>
       </c>
       <c r="W45" t="n">
-        <v>624.5331133984828</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="X45" t="n">
-        <v>405.0251190151791</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="Y45" t="n">
-        <v>396.9849691714478</v>
+        <v>28.1658050932128</v>
       </c>
     </row>
     <row r="46">
@@ -7780,55 +7780,55 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>51.38606869748246</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="C46" t="n">
-        <v>51.38606869748246</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="D46" t="n">
-        <v>51.38606869748246</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="E46" t="n">
-        <v>51.38606869748246</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="F46" t="n">
-        <v>51.38606869748246</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="G46" t="n">
-        <v>51.38606869748246</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="H46" t="n">
-        <v>114.8002368344137</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="I46" t="n">
-        <v>114.8002368344137</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="J46" t="n">
-        <v>114.8002368344137</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="K46" t="n">
-        <v>114.8002368344137</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="L46" t="n">
-        <v>114.8002368344137</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="M46" t="n">
-        <v>114.8002368344137</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="N46" t="n">
-        <v>114.8002368344137</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="O46" t="n">
-        <v>114.8002368344137</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="P46" t="n">
-        <v>114.8002368344137</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="Q46" t="n">
-        <v>114.8002368344137</v>
+        <v>72.60201188738502</v>
       </c>
       <c r="R46" t="n">
-        <v>114.8002368344137</v>
+        <v>109.6107332207489</v>
       </c>
       <c r="S46" t="n">
         <v>114.8002368344137</v>
@@ -7849,7 +7849,7 @@
         <v>28.1658050932128</v>
       </c>
       <c r="Y46" t="n">
-        <v>51.38606869748246</v>
+        <v>28.1658050932128</v>
       </c>
     </row>
   </sheetData>
@@ -8769,19 +8769,19 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>171.373473584151</v>
+        <v>165.9360666291097</v>
       </c>
       <c r="L12" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M12" t="n">
-        <v>116.8104068647679</v>
+        <v>238.8597051383726</v>
       </c>
       <c r="N12" t="n">
-        <v>218.757814196856</v>
+        <v>224.195221151898</v>
       </c>
       <c r="O12" t="n">
-        <v>242.8748317222147</v>
+        <v>120.8255334486102</v>
       </c>
       <c r="P12" t="n">
         <v>206.3638740786793</v>
@@ -9006,22 +9006,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>132.0995883116344</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L15" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M15" t="n">
-        <v>236.2130298175833</v>
+        <v>233.4222981833313</v>
       </c>
       <c r="N15" t="n">
-        <v>224.1952211518978</v>
+        <v>102.1459228782933</v>
       </c>
       <c r="O15" t="n">
-        <v>242.8748317222147</v>
+        <v>242.8748317222149</v>
       </c>
       <c r="P15" t="n">
-        <v>120.7977294433387</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q15" t="n">
         <v>136.1300824528302</v>
@@ -9243,22 +9243,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>171.373473584151</v>
+        <v>132.0995883116344</v>
       </c>
       <c r="L18" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M18" t="n">
-        <v>238.8597051383724</v>
+        <v>238.8597051383726</v>
       </c>
       <c r="N18" t="n">
-        <v>218.757814196856</v>
+        <v>224.195221151898</v>
       </c>
       <c r="O18" t="n">
-        <v>120.8255334486102</v>
+        <v>240.2281564014261</v>
       </c>
       <c r="P18" t="n">
-        <v>206.3638740786793</v>
+        <v>120.7977294433387</v>
       </c>
       <c r="Q18" t="n">
         <v>136.1300824528302</v>
@@ -9480,22 +9480,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K21" t="n">
-        <v>132.0995883116344</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L21" t="n">
-        <v>240.3045437566416</v>
+        <v>120.5398549409796</v>
       </c>
       <c r="M21" t="n">
-        <v>238.8597051383724</v>
+        <v>238.8597051383726</v>
       </c>
       <c r="N21" t="n">
-        <v>135.9824011957681</v>
+        <v>224.195221151898</v>
       </c>
       <c r="O21" t="n">
-        <v>242.8748317222147</v>
+        <v>242.8748317222149</v>
       </c>
       <c r="P21" t="n">
-        <v>206.3638740786793</v>
+        <v>198.6418576656953</v>
       </c>
       <c r="Q21" t="n">
         <v>136.1300824528302</v>
@@ -9717,22 +9717,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
-        <v>132.0995883116344</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L24" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M24" t="n">
-        <v>150.6468851822426</v>
+        <v>238.8597051383724</v>
       </c>
       <c r="N24" t="n">
-        <v>224.1952211518977</v>
+        <v>182.2746605585922</v>
       </c>
       <c r="O24" t="n">
-        <v>242.8748317222146</v>
+        <v>242.8748317222147</v>
       </c>
       <c r="P24" t="n">
-        <v>206.3638740786793</v>
+        <v>120.7977294433387</v>
       </c>
       <c r="Q24" t="n">
         <v>136.1300824528302</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>179.7047647029786</v>
+        <v>179.7047647029787</v>
       </c>
       <c r="C11" t="n">
-        <v>155.8230217063241</v>
+        <v>155.8230217063242</v>
       </c>
       <c r="D11" t="n">
-        <v>21.34038569376813</v>
+        <v>143.3896839673727</v>
       </c>
       <c r="E11" t="n">
-        <v>177.0964363867814</v>
+        <v>177.0964363867815</v>
       </c>
       <c r="F11" t="n">
-        <v>208.8167739651588</v>
+        <v>208.8167739651589</v>
       </c>
       <c r="G11" t="n">
-        <v>224.4449668635717</v>
+        <v>224.4449668635718</v>
       </c>
       <c r="H11" t="n">
-        <v>85.88595866285588</v>
+        <v>30.47973170302654</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23315,16 +23315,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>126.4973079342973</v>
+        <v>4.448009660692719</v>
       </c>
       <c r="W11" t="n">
-        <v>21.46468987730773</v>
+        <v>143.5139881509123</v>
       </c>
       <c r="X11" t="n">
-        <v>165.4002386198514</v>
+        <v>165.4002386198515</v>
       </c>
       <c r="Y11" t="n">
-        <v>187.9030917435952</v>
+        <v>121.2600204298198</v>
       </c>
     </row>
     <row r="12">
@@ -23495,25 +23495,25 @@
         <v>179.7047647029787</v>
       </c>
       <c r="C14" t="n">
-        <v>155.8230217063241</v>
+        <v>155.8230217063242</v>
       </c>
       <c r="D14" t="n">
-        <v>143.3896839673726</v>
+        <v>143.3896839673727</v>
       </c>
       <c r="E14" t="n">
-        <v>177.0964363867815</v>
+        <v>55.04713811317686</v>
       </c>
       <c r="F14" t="n">
-        <v>208.8167739651588</v>
+        <v>208.8167739651589</v>
       </c>
       <c r="G14" t="n">
         <v>224.4449668635718</v>
       </c>
       <c r="H14" t="n">
-        <v>30.47973170302671</v>
+        <v>30.47973170302652</v>
       </c>
       <c r="I14" t="n">
-        <v>46.21360886079827</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>32.88999934163205</v>
+        <v>32.88999934163209</v>
       </c>
       <c r="T14" t="n">
-        <v>28.03643329293227</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>55.7672073838573</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>4.44800966069289</v>
+        <v>26.96423727888964</v>
       </c>
       <c r="W14" t="n">
-        <v>143.5139881509122</v>
+        <v>143.5139881509123</v>
       </c>
       <c r="X14" t="n">
-        <v>57.89921670046071</v>
+        <v>165.4002386198515</v>
       </c>
       <c r="Y14" t="n">
-        <v>65.85379346999076</v>
+        <v>187.9030917435953</v>
       </c>
     </row>
     <row r="15">
@@ -26314,25 +26314,25 @@
         <v>418917.6977088184</v>
       </c>
       <c r="C2" t="n">
-        <v>418917.6977088184</v>
+        <v>418917.6977088182</v>
       </c>
       <c r="D2" t="n">
         <v>418917.6977088182</v>
       </c>
       <c r="E2" t="n">
-        <v>360995.2922847275</v>
+        <v>360995.2922847276</v>
       </c>
       <c r="F2" t="n">
-        <v>360995.2922847276</v>
+        <v>360995.2922847277</v>
       </c>
       <c r="G2" t="n">
+        <v>419766.3107078044</v>
+      </c>
+      <c r="H2" t="n">
+        <v>419766.3107078046</v>
+      </c>
+      <c r="I2" t="n">
         <v>419766.3107078045</v>
-      </c>
-      <c r="H2" t="n">
-        <v>419766.3107078045</v>
-      </c>
-      <c r="I2" t="n">
-        <v>419766.3107078043</v>
       </c>
       <c r="J2" t="n">
         <v>419766.3107078042</v>
@@ -26341,19 +26341,19 @@
         <v>419766.3107078042</v>
       </c>
       <c r="L2" t="n">
-        <v>419766.3107078042</v>
+        <v>419766.3107078041</v>
       </c>
       <c r="M2" t="n">
         <v>419766.3107078046</v>
       </c>
       <c r="N2" t="n">
-        <v>419766.3107078049</v>
+        <v>419766.3107078046</v>
       </c>
       <c r="O2" t="n">
-        <v>419766.3107078045</v>
+        <v>419766.3107078047</v>
       </c>
       <c r="P2" t="n">
-        <v>419766.3107078044</v>
+        <v>419766.3107078046</v>
       </c>
     </row>
     <row r="3">
@@ -26372,22 +26372,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>275373.0470845676</v>
+        <v>275373.0470845677</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>101197.8463474379</v>
+        <v>101197.8463474378</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>155188.0488107729</v>
+        <v>155188.0488107728</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>101197.8463474379</v>
       </c>
       <c r="M3" t="n">
-        <v>28140.86133097987</v>
+        <v>28140.86133098003</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>68716.99883240163</v>
+        <v>68716.9988324015</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26430,7 +26430,7 @@
         <v>355249.966602852</v>
       </c>
       <c r="G4" t="n">
-        <v>425753.4766314354</v>
+        <v>425753.4766314353</v>
       </c>
       <c r="H4" t="n">
         <v>425753.4766314353</v>
@@ -26442,13 +26442,13 @@
         <v>424916.7517290888</v>
       </c>
       <c r="K4" t="n">
-        <v>424916.751729089</v>
+        <v>424916.7517290887</v>
       </c>
       <c r="L4" t="n">
         <v>424916.7517290888</v>
       </c>
       <c r="M4" t="n">
-        <v>424375.1958291386</v>
+        <v>424375.1958291387</v>
       </c>
       <c r="N4" t="n">
         <v>424375.1958291387</v>
@@ -26476,22 +26476,22 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>26025.86226334829</v>
+        <v>26025.8622633483</v>
       </c>
       <c r="F5" t="n">
-        <v>26025.86226334829</v>
+        <v>26025.8622633483</v>
       </c>
       <c r="G5" t="n">
         <v>36660.36444407673</v>
       </c>
       <c r="H5" t="n">
+        <v>36660.36444407675</v>
+      </c>
+      <c r="I5" t="n">
         <v>36660.36444407673</v>
       </c>
-      <c r="I5" t="n">
-        <v>36660.36444407672</v>
-      </c>
       <c r="J5" t="n">
-        <v>47580.58365082261</v>
+        <v>47580.58365082262</v>
       </c>
       <c r="K5" t="n">
         <v>47580.58365082261</v>
@@ -26500,16 +26500,16 @@
         <v>47580.58365082261</v>
       </c>
       <c r="M5" t="n">
-        <v>43117.20390483014</v>
+        <v>43117.20390483013</v>
       </c>
       <c r="N5" t="n">
-        <v>43117.20390483014</v>
+        <v>43117.20390483012</v>
       </c>
       <c r="O5" t="n">
         <v>43896.40868247331</v>
       </c>
       <c r="P5" t="n">
-        <v>43896.40868247332</v>
+        <v>43896.40868247331</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-76675.05648059692</v>
+        <v>-76679.52286480211</v>
       </c>
       <c r="C6" t="n">
-        <v>-76675.05648059692</v>
+        <v>-76679.52286480229</v>
       </c>
       <c r="D6" t="n">
-        <v>-76675.05648059709</v>
+        <v>-76679.52286480223</v>
       </c>
       <c r="E6" t="n">
-        <v>-295653.5836660404</v>
+        <v>-295962.9048156355</v>
       </c>
       <c r="F6" t="n">
-        <v>-20280.5365814726</v>
+        <v>-20589.85773106774</v>
       </c>
       <c r="G6" t="n">
         <v>-143845.3767151455</v>
       </c>
       <c r="H6" t="n">
+        <v>-42647.53036770762</v>
+      </c>
+      <c r="I6" t="n">
         <v>-42647.53036770761</v>
       </c>
-      <c r="I6" t="n">
-        <v>-42647.53036770772</v>
-      </c>
       <c r="J6" t="n">
-        <v>-207919.0734828801</v>
+        <v>-207919.07348288</v>
       </c>
       <c r="K6" t="n">
-        <v>-52731.0246721074</v>
+        <v>-52731.0246721071</v>
       </c>
       <c r="L6" t="n">
-        <v>-153928.8710195451</v>
+        <v>-153928.8710195452</v>
       </c>
       <c r="M6" t="n">
-        <v>-75866.95035714404</v>
+        <v>-75866.9503571442</v>
       </c>
       <c r="N6" t="n">
-        <v>-47726.08902616396</v>
+        <v>-47726.08902616418</v>
       </c>
       <c r="O6" t="n">
-        <v>-117322.3859899393</v>
+        <v>-117322.3859899391</v>
       </c>
       <c r="P6" t="n">
-        <v>-48605.38715753782</v>
+        <v>-48605.38715753764</v>
       </c>
     </row>
   </sheetData>
@@ -26692,13 +26692,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="F2" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="G2" t="n">
-        <v>320.8797836091521</v>
+        <v>320.8797836091519</v>
       </c>
       <c r="H2" t="n">
         <v>320.879783609152</v>
@@ -26710,16 +26710,16 @@
         <v>212.9171572481403</v>
       </c>
       <c r="K2" t="n">
-        <v>212.9171572481404</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="L2" t="n">
         <v>212.9171572481403</v>
       </c>
       <c r="M2" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="N2" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="O2" t="n">
         <v>240.5960845356529</v>
@@ -26777,7 +26777,7 @@
         <v>103.8405771010907</v>
       </c>
       <c r="P3" t="n">
-        <v>103.8405771010908</v>
+        <v>103.8405771010907</v>
       </c>
     </row>
     <row r="4">
@@ -26796,22 +26796,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>122.0492982736044</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="F4" t="n">
-        <v>122.0492982736044</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="G4" t="n">
-        <v>122.0492982736044</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="H4" t="n">
-        <v>122.0492982736044</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="I4" t="n">
-        <v>122.0492982736044</v>
+        <v>122.0492982736045</v>
       </c>
       <c r="J4" t="n">
-        <v>450.9395818638968</v>
+        <v>450.939581863897</v>
       </c>
       <c r="K4" t="n">
         <v>450.9395818638968</v>
@@ -26820,10 +26820,10 @@
         <v>450.9395818638968</v>
       </c>
       <c r="M4" t="n">
-        <v>328.8902835902923</v>
+        <v>328.890283590292</v>
       </c>
       <c r="N4" t="n">
-        <v>328.8902835902923</v>
+        <v>328.890283590292</v>
       </c>
       <c r="O4" t="n">
         <v>352.07256366516</v>
@@ -26914,22 +26914,22 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>126.4973079342974</v>
+        <v>126.4973079342973</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>86.419849313843</v>
+        <v>86.41984931384286</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>126.4973079342973</v>
       </c>
       <c r="M2" t="n">
-        <v>35.17607666372484</v>
+        <v>35.17607666372504</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>78.9226999376308</v>
+        <v>78.92269993763054</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>122.0492982736044</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>328.8902835902924</v>
+        <v>328.8902835902925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>23.18228007486772</v>
+        <v>23.18228007486806</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>126.4973079342974</v>
+        <v>126.4973079342973</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>86.419849313843</v>
+        <v>86.41984931384286</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>122.0492982736044</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,34 +28087,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="C11" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="D11" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="E11" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="F11" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="G11" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="H11" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="I11" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="J11" t="n">
         <v>75.87088762177225</v>
       </c>
       <c r="K11" t="n">
-        <v>50.12196943228295</v>
+        <v>13.74771599876842</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -28126,37 +28126,37 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>85.6750448400891</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>13.54892393491825</v>
+        <v>135.5982222085229</v>
       </c>
       <c r="Q11" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="R11" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="S11" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="T11" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="U11" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="V11" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="W11" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="X11" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="Y11" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
     </row>
     <row r="12">
@@ -28190,7 +28190,7 @@
         <v>107.1657389737211</v>
       </c>
       <c r="J12" t="n">
-        <v>51.93274503525224</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28211,31 +28211,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.136586121265633</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>12.31403934127079</v>
+        <v>12.31403934127053</v>
       </c>
       <c r="S12" t="n">
-        <v>73.81585604098495</v>
+        <v>191.4841495043256</v>
       </c>
       <c r="T12" t="n">
-        <v>194.3824756748547</v>
+        <v>134.7835133680317</v>
       </c>
       <c r="U12" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="V12" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="W12" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="X12" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="Y12" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
     </row>
     <row r="13">
@@ -28248,37 +28248,37 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C13" t="n">
-        <v>166.4571809719723</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="D13" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="E13" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="F13" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="G13" t="n">
-        <v>168.6959616282545</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="H13" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="I13" t="n">
-        <v>164.7082190429235</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="J13" t="n">
-        <v>122.2248053458273</v>
+        <v>119.8993073508208</v>
       </c>
       <c r="K13" t="n">
-        <v>188.5200605953729</v>
+        <v>66.47076232176848</v>
       </c>
       <c r="L13" t="n">
-        <v>31.43620997383529</v>
+        <v>31.43620997383528</v>
       </c>
       <c r="M13" t="n">
-        <v>24.46235891800152</v>
+        <v>65.55108980520015</v>
       </c>
       <c r="N13" t="n">
         <v>15.78359136610012</v>
@@ -28290,31 +28290,31 @@
         <v>57.89645227716784</v>
       </c>
       <c r="Q13" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="R13" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="S13" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="T13" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="U13" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="V13" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="W13" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="X13" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="Y13" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
     </row>
     <row r="14">
@@ -28324,40 +28324,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="C14" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="D14" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="E14" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="F14" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="G14" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="H14" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="I14" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="J14" t="n">
-        <v>194.3824756748547</v>
+        <v>75.87088762177225</v>
       </c>
       <c r="K14" t="n">
-        <v>5.36224194615702</v>
+        <v>13.74771599876842</v>
       </c>
       <c r="L14" t="n">
-        <v>73.16318667058697</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>38.48644372500151</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -28366,34 +28366,34 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>19.65198154861119</v>
+        <v>135.5982222085229</v>
       </c>
       <c r="Q14" t="n">
-        <v>88.55297193870598</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="R14" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="S14" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="T14" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="U14" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="V14" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="W14" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="X14" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="Y14" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
     </row>
     <row r="15">
@@ -28424,10 +28424,10 @@
         <v>125.6800758778345</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>107.1657389737211</v>
       </c>
       <c r="J15" t="n">
-        <v>51.93274503525224</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28448,31 +28448,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.136586121265633</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>12.31403934127079</v>
+        <v>134.3633376148752</v>
       </c>
       <c r="S15" t="n">
         <v>191.4841495043256</v>
       </c>
       <c r="T15" t="n">
-        <v>194.3824756748547</v>
+        <v>92.89848393197801</v>
       </c>
       <c r="U15" t="n">
-        <v>183.8799211852352</v>
+        <v>115.1783935072898</v>
       </c>
       <c r="V15" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="W15" t="n">
-        <v>194.3824756748547</v>
+        <v>193.4222890048684</v>
       </c>
       <c r="X15" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="Y15" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
     </row>
     <row r="16">
@@ -28482,43 +28482,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>177.6169206649681</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="C16" t="n">
-        <v>194.3824756748547</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D16" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="E16" t="n">
-        <v>194.3824756748547</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F16" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="G16" t="n">
         <v>168.6959616282545</v>
       </c>
       <c r="H16" t="n">
-        <v>165.7816030517371</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="I16" t="n">
         <v>164.7082190429235</v>
       </c>
       <c r="J16" t="n">
-        <v>119.8993073508208</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="K16" t="n">
-        <v>66.47076232176849</v>
+        <v>66.47076232176848</v>
       </c>
       <c r="L16" t="n">
-        <v>153.4855082474397</v>
+        <v>31.43620997383528</v>
       </c>
       <c r="M16" t="n">
         <v>24.46235891800152</v>
       </c>
       <c r="N16" t="n">
-        <v>86.35320513932062</v>
+        <v>101.6159987634215</v>
       </c>
       <c r="O16" t="n">
         <v>36.79854607717668</v>
@@ -28527,31 +28527,31 @@
         <v>57.89645227716784</v>
       </c>
       <c r="Q16" t="n">
-        <v>126.8139378168763</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="R16" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="S16" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="T16" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="U16" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="V16" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="W16" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="X16" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="Y16" t="n">
-        <v>194.3824756748547</v>
+        <v>194.3824756748546</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>320.8797836091521</v>
+        <v>320.8797836091519</v>
       </c>
       <c r="C17" t="n">
-        <v>320.8797836091521</v>
+        <v>320.8797836091519</v>
       </c>
       <c r="D17" t="n">
-        <v>320.8797836091521</v>
+        <v>320.8797836091519</v>
       </c>
       <c r="E17" t="n">
-        <v>320.8797836091521</v>
+        <v>320.8797836091519</v>
       </c>
       <c r="F17" t="n">
-        <v>320.8797836091521</v>
+        <v>320.8797836091519</v>
       </c>
       <c r="G17" t="n">
-        <v>320.8797836091521</v>
+        <v>320.8797836091519</v>
       </c>
       <c r="H17" t="n">
-        <v>320.8797836091521</v>
+        <v>320.8797836091519</v>
       </c>
       <c r="I17" t="n">
         <v>240.5960845356529</v>
@@ -28588,7 +28588,7 @@
         <v>75.87088762177225</v>
       </c>
       <c r="K17" t="n">
-        <v>5.36224194615702</v>
+        <v>5.362241946157013</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -28603,34 +28603,34 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>13.54892393491825</v>
+        <v>127.9388770267086</v>
       </c>
       <c r="Q17" t="n">
-        <v>88.55297193870598</v>
+        <v>88.55297193870597</v>
       </c>
       <c r="R17" t="n">
-        <v>266.309342594113</v>
+        <v>316.256798645429</v>
       </c>
       <c r="S17" t="n">
-        <v>320.8797836091521</v>
+        <v>227.2724750164867</v>
       </c>
       <c r="T17" t="n">
         <v>222.4189089677869</v>
       </c>
       <c r="U17" t="n">
-        <v>320.8797836091521</v>
+        <v>250.149683058712</v>
       </c>
       <c r="V17" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091519</v>
       </c>
       <c r="W17" t="n">
-        <v>320.8797836091521</v>
+        <v>320.8797836091519</v>
       </c>
       <c r="X17" t="n">
-        <v>320.8797836091521</v>
+        <v>320.8797836091519</v>
       </c>
       <c r="Y17" t="n">
-        <v>320.8797836091521</v>
+        <v>320.8797836091519</v>
       </c>
     </row>
     <row r="18">
@@ -28688,28 +28688,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>12.31403934127079</v>
+        <v>12.31403934127053</v>
       </c>
       <c r="S18" t="n">
-        <v>69.43485123072119</v>
+        <v>191.4841495043256</v>
       </c>
       <c r="T18" t="n">
-        <v>92.89848393197823</v>
+        <v>92.89848393197801</v>
       </c>
       <c r="U18" t="n">
         <v>237.2276917808945</v>
       </c>
       <c r="V18" t="n">
-        <v>191.2172301525293</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
-        <v>217.3129144394706</v>
+        <v>167.8812236765974</v>
       </c>
       <c r="Y18" t="n">
-        <v>223.3842861340256</v>
+        <v>101.3349878604209</v>
       </c>
     </row>
     <row r="19">
@@ -28746,10 +28746,10 @@
         <v>119.8993073508208</v>
       </c>
       <c r="K19" t="n">
-        <v>66.47076232176849</v>
+        <v>66.47076232176848</v>
       </c>
       <c r="L19" t="n">
-        <v>31.43620997383529</v>
+        <v>31.43620997383528</v>
       </c>
       <c r="M19" t="n">
         <v>24.46235891800152</v>
@@ -28822,10 +28822,10 @@
         <v>320.879783609152</v>
       </c>
       <c r="J20" t="n">
-        <v>75.87088762177225</v>
+        <v>109.9771416400635</v>
       </c>
       <c r="K20" t="n">
-        <v>5.36224194615702</v>
+        <v>5.362241946157013</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -28840,19 +28840,19 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>13.54892393491825</v>
+        <v>13.54892393491824</v>
       </c>
       <c r="Q20" t="n">
-        <v>88.55297193870598</v>
+        <v>88.55297193870597</v>
       </c>
       <c r="R20" t="n">
-        <v>194.2075003718244</v>
+        <v>316.256798645429</v>
       </c>
       <c r="S20" t="n">
-        <v>320.879783609152</v>
+        <v>227.2724750164867</v>
       </c>
       <c r="T20" t="n">
-        <v>284.9671526670166</v>
+        <v>222.4189089677869</v>
       </c>
       <c r="U20" t="n">
         <v>250.149683058712</v>
@@ -28880,7 +28880,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
-        <v>187.5181515243659</v>
+        <v>65.46885325076124</v>
       </c>
       <c r="D21" t="n">
         <v>159.1723150765785</v>
@@ -28892,7 +28892,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>148.7388631915159</v>
+        <v>32.49086809350696</v>
       </c>
       <c r="H21" t="n">
         <v>125.6800758778345</v>
@@ -28901,7 +28901,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>51.93274503525224</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28922,7 +28922,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.136586121265633</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>134.3633376148752</v>
@@ -28931,16 +28931,16 @@
         <v>191.4841495043256</v>
       </c>
       <c r="T21" t="n">
-        <v>214.9477822055827</v>
+        <v>92.89848393197799</v>
       </c>
       <c r="U21" t="n">
-        <v>166.7758555968726</v>
+        <v>237.2276917808945</v>
       </c>
       <c r="V21" t="n">
-        <v>118.5996226417978</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
-        <v>144.6552853034071</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
         <v>217.3129144394706</v>
@@ -28983,10 +28983,10 @@
         <v>119.8993073508208</v>
       </c>
       <c r="K22" t="n">
-        <v>66.47076232176849</v>
+        <v>66.47076232176848</v>
       </c>
       <c r="L22" t="n">
-        <v>31.43620997383529</v>
+        <v>31.43620997383528</v>
       </c>
       <c r="M22" t="n">
         <v>24.46235891800152</v>
@@ -29056,13 +29056,13 @@
         <v>320.879783609152</v>
       </c>
       <c r="I23" t="n">
-        <v>240.5960845356529</v>
+        <v>320.879783609152</v>
       </c>
       <c r="J23" t="n">
         <v>75.87088762177225</v>
       </c>
       <c r="K23" t="n">
-        <v>5.36224194615702</v>
+        <v>5.362241946157013</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -29077,13 +29077,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>13.54892393491825</v>
+        <v>13.54892393491824</v>
       </c>
       <c r="Q23" t="n">
-        <v>88.55297193870598</v>
+        <v>88.55297193870597</v>
       </c>
       <c r="R23" t="n">
-        <v>261.4557765454132</v>
+        <v>194.2075003718244</v>
       </c>
       <c r="S23" t="n">
         <v>227.2724750164867</v>
@@ -29092,7 +29092,7 @@
         <v>320.879783609152</v>
       </c>
       <c r="U23" t="n">
-        <v>320.879783609152</v>
+        <v>307.8443607092422</v>
       </c>
       <c r="V23" t="n">
         <v>320.879783609152</v>
@@ -29126,10 +29126,10 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
-        <v>158.8234391199283</v>
+        <v>36.77414084632382</v>
       </c>
       <c r="G24" t="n">
-        <v>26.6895649179115</v>
+        <v>148.7388631915159</v>
       </c>
       <c r="H24" t="n">
         <v>125.6800758778345</v>
@@ -29138,7 +29138,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>51.93274503525224</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29162,16 +29162,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>12.31403934127081</v>
+        <v>12.31403934127069</v>
       </c>
       <c r="S24" t="n">
-        <v>191.4841495043256</v>
+        <v>75.236154406317</v>
       </c>
       <c r="T24" t="n">
         <v>214.9477822055827</v>
       </c>
       <c r="U24" t="n">
-        <v>172.9124417181383</v>
+        <v>237.2276917808945</v>
       </c>
       <c r="V24" t="n">
         <v>240.6489209154022</v>
@@ -29220,10 +29220,10 @@
         <v>119.8993073508208</v>
       </c>
       <c r="K25" t="n">
-        <v>66.47076232176849</v>
+        <v>66.47076232176848</v>
       </c>
       <c r="L25" t="n">
-        <v>31.43620997383529</v>
+        <v>31.43620997383528</v>
       </c>
       <c r="M25" t="n">
         <v>24.46235891800152</v>
@@ -29311,7 +29311,7 @@
         <v>212.9171572481403</v>
       </c>
       <c r="O26" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481413</v>
       </c>
       <c r="P26" t="n">
         <v>212.9171572481403</v>
@@ -29357,7 +29357,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
         <v>171.8275718397997</v>
@@ -29366,7 +29366,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>148.7388631915159</v>
       </c>
       <c r="H27" t="n">
         <v>125.6800758778345</v>
@@ -29375,7 +29375,7 @@
         <v>107.1657389737211</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>51.93274503525224</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29396,7 +29396,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.136586121265633</v>
+        <v>6.13658612126563</v>
       </c>
       <c r="R27" t="n">
         <v>134.3633376148752</v>
@@ -29408,19 +29408,19 @@
         <v>212.9171572481403</v>
       </c>
       <c r="U27" t="n">
-        <v>151.3365789837065</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="V27" t="n">
+        <v>4.409812928500259</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
         <v>212.9171572481403</v>
-      </c>
-      <c r="W27" t="n">
-        <v>212.9171572481403</v>
-      </c>
-      <c r="X27" t="n">
-        <v>212.9171572481403</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -29430,10 +29430,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>177.6169206649681</v>
+        <v>179.3131189908106</v>
       </c>
       <c r="C28" t="n">
-        <v>166.4571809719723</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="D28" t="n">
         <v>145.1826502507107</v>
@@ -29448,25 +29448,25 @@
         <v>168.6959616282545</v>
       </c>
       <c r="H28" t="n">
-        <v>165.7816030517371</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="I28" t="n">
-        <v>164.7082190429235</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="J28" t="n">
-        <v>119.8993073508208</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="K28" t="n">
-        <v>66.47076232176849</v>
+        <v>66.47076232176848</v>
       </c>
       <c r="L28" t="n">
-        <v>31.43620997383529</v>
+        <v>31.43620997383528</v>
       </c>
       <c r="M28" t="n">
         <v>24.46235891800152</v>
       </c>
       <c r="N28" t="n">
-        <v>166.1988888357855</v>
+        <v>15.78359136610012</v>
       </c>
       <c r="O28" t="n">
         <v>36.79854607717668</v>
@@ -29475,7 +29475,7 @@
         <v>57.89645227716784</v>
       </c>
       <c r="Q28" t="n">
-        <v>212.9171572481403</v>
+        <v>126.8139378168763</v>
       </c>
       <c r="R28" t="n">
         <v>203.2135377342752</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>212.9171572481404</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="C29" t="n">
-        <v>212.9171572481404</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="D29" t="n">
-        <v>212.9171572481404</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="E29" t="n">
-        <v>212.9171572481404</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="F29" t="n">
-        <v>212.9171572481404</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="G29" t="n">
-        <v>212.9171572481404</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="H29" t="n">
-        <v>212.9171572481404</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="I29" t="n">
-        <v>212.9171572481404</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="J29" t="n">
-        <v>212.9171572481404</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="K29" t="n">
-        <v>212.9171572481404</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="L29" t="n">
-        <v>212.9171572481404</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="M29" t="n">
-        <v>212.9171572481404</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="N29" t="n">
-        <v>212.9171572481404</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="O29" t="n">
-        <v>212.9171572481404</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="P29" t="n">
-        <v>212.9171572481404</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.9171572481404</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="R29" t="n">
-        <v>212.9171572481404</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="S29" t="n">
-        <v>212.9171572481404</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="T29" t="n">
-        <v>212.9171572481404</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="U29" t="n">
-        <v>212.9171572481404</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="V29" t="n">
-        <v>212.9171572481404</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="W29" t="n">
-        <v>212.9171572481404</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="X29" t="n">
-        <v>212.9171572481404</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="Y29" t="n">
-        <v>212.9171572481404</v>
+        <v>212.9171572481403</v>
       </c>
     </row>
     <row r="30">
@@ -29591,7 +29591,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
         <v>159.1723150765785</v>
@@ -29603,16 +29603,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>148.7388631915159</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>104.6908830825602</v>
+        <v>125.6800758778345</v>
       </c>
       <c r="I30" t="n">
         <v>107.1657389737211</v>
       </c>
       <c r="J30" t="n">
-        <v>51.93274503525224</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29633,7 +29633,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.136586121265633</v>
+        <v>6.13658612126563</v>
       </c>
       <c r="R30" t="n">
         <v>134.3633376148752</v>
@@ -29642,19 +29642,19 @@
         <v>191.4841495043256</v>
       </c>
       <c r="T30" t="n">
-        <v>212.9171572481404</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="V30" t="n">
-        <v>212.9171572481404</v>
+        <v>205.0814211552684</v>
       </c>
       <c r="W30" t="n">
-        <v>212.9171572481404</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>212.9171572481404</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -29670,34 +29670,34 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C31" t="n">
-        <v>166.4571809719723</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="D31" t="n">
-        <v>145.1826502507107</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="E31" t="n">
         <v>141.676141212225</v>
       </c>
       <c r="F31" t="n">
-        <v>199.3267879484319</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="G31" t="n">
         <v>168.6959616282545</v>
       </c>
       <c r="H31" t="n">
-        <v>165.7816030517371</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="I31" t="n">
-        <v>164.7082190429235</v>
+        <v>165.9064234441791</v>
       </c>
       <c r="J31" t="n">
         <v>119.8993073508208</v>
       </c>
       <c r="K31" t="n">
-        <v>66.47076232176849</v>
+        <v>66.47076232176848</v>
       </c>
       <c r="L31" t="n">
-        <v>31.43620997383529</v>
+        <v>31.43620997383528</v>
       </c>
       <c r="M31" t="n">
         <v>24.46235891800152</v>
@@ -29706,7 +29706,7 @@
         <v>15.78359136610012</v>
       </c>
       <c r="O31" t="n">
-        <v>212.9171572481404</v>
+        <v>36.79854607717668</v>
       </c>
       <c r="P31" t="n">
         <v>57.89645227716784</v>
@@ -29718,25 +29718,25 @@
         <v>203.2135377342752</v>
       </c>
       <c r="S31" t="n">
-        <v>212.9171572481404</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="T31" t="n">
-        <v>212.9171572481404</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="U31" t="n">
-        <v>212.9171572481404</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="V31" t="n">
-        <v>212.9171572481404</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="W31" t="n">
-        <v>212.9171572481404</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="X31" t="n">
-        <v>212.9171572481404</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="Y31" t="n">
-        <v>212.9171572481404</v>
+        <v>212.9171572481403</v>
       </c>
     </row>
     <row r="32">
@@ -29788,7 +29788,7 @@
         <v>212.9171572481403</v>
       </c>
       <c r="P32" t="n">
-        <v>212.9171572481404</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="Q32" t="n">
         <v>212.9171572481403</v>
@@ -29825,13 +29825,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
         <v>171.8275718397997</v>
@@ -29840,16 +29840,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
-        <v>148.7388631915159</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>125.6800758778345</v>
       </c>
       <c r="I33" t="n">
-        <v>107.1657389737211</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>51.93274503525224</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -29870,7 +29870,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.136586121265633</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>134.3633376148752</v>
@@ -29885,16 +29885,16 @@
         <v>212.9171572481403</v>
       </c>
       <c r="V33" t="n">
-        <v>127.4154651546043</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="X33" t="n">
         <v>212.9171572481403</v>
       </c>
       <c r="Y33" t="n">
-        <v>212.9171572481403</v>
+        <v>80.06758327834035</v>
       </c>
     </row>
     <row r="34">
@@ -29907,7 +29907,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C34" t="n">
-        <v>166.4571809719723</v>
+        <v>191.1158191916809</v>
       </c>
       <c r="D34" t="n">
         <v>145.1826502507107</v>
@@ -29922,19 +29922,19 @@
         <v>168.6959616282545</v>
       </c>
       <c r="H34" t="n">
-        <v>165.7816030517371</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="I34" t="n">
         <v>164.7082190429235</v>
       </c>
       <c r="J34" t="n">
-        <v>212.9171572481403</v>
+        <v>119.8993073508208</v>
       </c>
       <c r="K34" t="n">
-        <v>209.9714293253985</v>
+        <v>66.47076232176848</v>
       </c>
       <c r="L34" t="n">
-        <v>31.43620997383529</v>
+        <v>31.43620997383528</v>
       </c>
       <c r="M34" t="n">
         <v>24.46235891800152</v>
@@ -29946,13 +29946,13 @@
         <v>36.79854607717668</v>
       </c>
       <c r="P34" t="n">
-        <v>57.89645227716784</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="Q34" t="n">
         <v>126.8139378168763</v>
       </c>
       <c r="R34" t="n">
-        <v>203.2135377342752</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="S34" t="n">
         <v>212.9171572481403</v>
@@ -29983,76 +29983,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="C35" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="D35" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="E35" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="F35" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="G35" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="H35" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="I35" t="n">
         <v>240.5960845356529</v>
       </c>
       <c r="J35" t="n">
-        <v>143.4308164428132</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="K35" t="n">
-        <v>5.36224194615702</v>
+        <v>146.027253518792</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>245.3274290416894</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="P35" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="Q35" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="R35" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="S35" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="T35" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="U35" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="V35" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="W35" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="X35" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="Y35" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
     </row>
     <row r="36">
@@ -30062,7 +30062,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -30071,13 +30071,13 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>148.7388631915159</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>125.6800758778345</v>
@@ -30107,10 +30107,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.136586121265633</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>134.3633376148752</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>191.4841495043256</v>
@@ -30125,13 +30125,13 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>248.0932339118651</v>
+        <v>209.7809137835939</v>
       </c>
       <c r="X36" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
-        <v>21.02695918153748</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -30168,10 +30168,10 @@
         <v>119.8993073508208</v>
       </c>
       <c r="K37" t="n">
-        <v>66.47076232176849</v>
+        <v>66.47076232176848</v>
       </c>
       <c r="L37" t="n">
-        <v>31.43620997383529</v>
+        <v>31.43620997383528</v>
       </c>
       <c r="M37" t="n">
         <v>24.46235891800152</v>
@@ -30183,7 +30183,7 @@
         <v>36.79854607717668</v>
       </c>
       <c r="P37" t="n">
-        <v>142.3577661130972</v>
+        <v>142.357766113097</v>
       </c>
       <c r="Q37" t="n">
         <v>126.8139378168763</v>
@@ -30198,13 +30198,13 @@
         <v>223.7409925368498</v>
       </c>
       <c r="U37" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="V37" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W37" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="X37" t="n">
         <v>221.9194554082425</v>
@@ -30220,76 +30220,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="C38" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="D38" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="E38" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="F38" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="G38" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="H38" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="I38" t="n">
         <v>240.5960845356529</v>
       </c>
       <c r="J38" t="n">
-        <v>248.0932339118651</v>
+        <v>146.027253518792</v>
       </c>
       <c r="K38" t="n">
-        <v>5.36224194615702</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="L38" t="n">
-        <v>248.0932339118651</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>140.6650115726373</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="P38" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="Q38" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="R38" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="S38" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="T38" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="U38" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="V38" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="W38" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="X38" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="Y38" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
     </row>
     <row r="39">
@@ -30302,19 +30302,19 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>148.7388631915159</v>
       </c>
       <c r="H39" t="n">
         <v>125.6800758778345</v>
@@ -30344,16 +30344,16 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.136586121265633</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>66.7838165561254</v>
+        <v>191.4841495043256</v>
       </c>
       <c r="T39" t="n">
-        <v>214.9477822055827</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>237.2276917808945</v>
@@ -30362,7 +30362,7 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>248.0932339118651</v>
+        <v>52.60554666363504</v>
       </c>
       <c r="X39" t="n">
         <v>217.3129144394706</v>
@@ -30393,7 +30393,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G40" t="n">
-        <v>168.6959616282545</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="H40" t="n">
         <v>165.7816030517371</v>
@@ -30402,13 +30402,13 @@
         <v>164.7082190429235</v>
       </c>
       <c r="J40" t="n">
-        <v>204.3606211867502</v>
+        <v>119.8993073508208</v>
       </c>
       <c r="K40" t="n">
-        <v>66.47076232176849</v>
+        <v>66.47076232176848</v>
       </c>
       <c r="L40" t="n">
-        <v>31.43620997383529</v>
+        <v>31.43620997383528</v>
       </c>
       <c r="M40" t="n">
         <v>24.46235891800152</v>
@@ -30423,7 +30423,7 @@
         <v>57.89645227716784</v>
       </c>
       <c r="Q40" t="n">
-        <v>126.8139378168763</v>
+        <v>131.8779793691947</v>
       </c>
       <c r="R40" t="n">
         <v>203.2135377342752</v>
@@ -30435,13 +30435,13 @@
         <v>223.7409925368498</v>
       </c>
       <c r="U40" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="V40" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W40" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="X40" t="n">
         <v>221.9194554082425</v>
@@ -30487,16 +30487,16 @@
         <v>240.5960845356529</v>
       </c>
       <c r="L41" t="n">
-        <v>49.70367713529477</v>
+        <v>49.7036771352947</v>
       </c>
       <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
         <v>240.5960845356529</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>240.5960845356529</v>
@@ -30539,7 +30539,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
         <v>159.1723150765785</v>
@@ -30560,7 +30560,7 @@
         <v>107.1657389737211</v>
       </c>
       <c r="J42" t="n">
-        <v>51.93274503525224</v>
+        <v>19.53426958767054</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30581,7 +30581,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.136586121265633</v>
+        <v>6.13658612126563</v>
       </c>
       <c r="R42" t="n">
         <v>134.3633376148752</v>
@@ -30596,16 +30596,16 @@
         <v>237.2276917808945</v>
       </c>
       <c r="V42" t="n">
-        <v>240.5960845356529</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>137.907877675157</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -30642,10 +30642,10 @@
         <v>119.8993073508208</v>
       </c>
       <c r="K43" t="n">
-        <v>66.47076232176849</v>
+        <v>66.47076232176848</v>
       </c>
       <c r="L43" t="n">
-        <v>31.43620997383529</v>
+        <v>31.43620997383528</v>
       </c>
       <c r="M43" t="n">
         <v>24.46235891800152</v>
@@ -30657,10 +30657,10 @@
         <v>36.79854607717668</v>
       </c>
       <c r="P43" t="n">
-        <v>162.261071287285</v>
+        <v>57.89645227716784</v>
       </c>
       <c r="Q43" t="n">
-        <v>126.8139378168763</v>
+        <v>231.1785568269934</v>
       </c>
       <c r="R43" t="n">
         <v>203.2135377342752</v>
@@ -30721,10 +30721,10 @@
         <v>240.5960845356529</v>
       </c>
       <c r="K44" t="n">
-        <v>240.5960845356529</v>
+        <v>49.70367713529468</v>
       </c>
       <c r="L44" t="n">
-        <v>240.5960845356529</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>240.5960845356529</v>
@@ -30736,16 +30736,16 @@
         <v>240.5960845356529</v>
       </c>
       <c r="P44" t="n">
-        <v>13.54892393491824</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="Q44" t="n">
-        <v>95.8669468833714</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="R44" t="n">
-        <v>194.2075003718244</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="S44" t="n">
-        <v>227.2724750164867</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="T44" t="n">
         <v>240.5960845356529</v>
@@ -30776,7 +30776,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
         <v>159.1723150765785</v>
@@ -30791,13 +30791,13 @@
         <v>148.7388631915159</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>125.6800758778345</v>
       </c>
       <c r="I45" t="n">
         <v>107.1657389737211</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>51.93274503525224</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30818,31 +30818,31 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>6.13658612126563</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>134.3633376148752</v>
       </c>
       <c r="S45" t="n">
         <v>191.4841495043256</v>
       </c>
       <c r="T45" t="n">
-        <v>214.9477822055827</v>
+        <v>202.4640840994248</v>
       </c>
       <c r="U45" t="n">
-        <v>237.2276917808945</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>240.5960845356529</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>240.5960845356529</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
-        <v>215.4245377887316</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="46">
@@ -30870,7 +30870,7 @@
         <v>168.6959616282545</v>
       </c>
       <c r="H46" t="n">
-        <v>229.8363183415667</v>
+        <v>165.7816030517371</v>
       </c>
       <c r="I46" t="n">
         <v>164.7082190429235</v>
@@ -30885,10 +30885,10 @@
         <v>31.43620997383528</v>
       </c>
       <c r="M46" t="n">
-        <v>24.46235891800151</v>
+        <v>24.46235891800152</v>
       </c>
       <c r="N46" t="n">
-        <v>15.78359136610011</v>
+        <v>15.78359136610012</v>
       </c>
       <c r="O46" t="n">
         <v>36.79854607717668</v>
@@ -30897,13 +30897,13 @@
         <v>57.89645227716784</v>
       </c>
       <c r="Q46" t="n">
-        <v>126.8139378168763</v>
+        <v>171.698995184727</v>
       </c>
       <c r="R46" t="n">
-        <v>203.2135377342752</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="S46" t="n">
-        <v>235.3541616935673</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="T46" t="n">
         <v>240.5960845356529</v>
@@ -30921,7 +30921,7 @@
         <v>221.9194554082425</v>
       </c>
       <c r="Y46" t="n">
-        <v>240.5960845356529</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
   </sheetData>
@@ -31753,22 +31753,22 @@
         <v>0.4174495561852891</v>
       </c>
       <c r="H11" t="n">
-        <v>4.275205267282592</v>
+        <v>4.275205267282593</v>
       </c>
       <c r="I11" t="n">
         <v>16.09372401483337</v>
       </c>
       <c r="J11" t="n">
-        <v>35.43050926928121</v>
+        <v>35.43050926928122</v>
       </c>
       <c r="K11" t="n">
         <v>53.10114898260451</v>
       </c>
       <c r="L11" t="n">
-        <v>65.87667083771005</v>
+        <v>65.87667083771007</v>
       </c>
       <c r="M11" t="n">
-        <v>73.30048938252018</v>
+        <v>73.3004893825202</v>
       </c>
       <c r="N11" t="n">
         <v>74.48656793403165</v>
@@ -31786,7 +31786,7 @@
         <v>26.22261568372419</v>
       </c>
       <c r="S11" t="n">
-        <v>9.512631761572283</v>
+        <v>9.512631761572285</v>
       </c>
       <c r="T11" t="n">
         <v>1.827385432201104</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.223355203575931</v>
+        <v>0.2233552035759311</v>
       </c>
       <c r="H12" t="n">
-        <v>2.157141045062281</v>
+        <v>2.157141045062282</v>
       </c>
       <c r="I12" t="n">
-        <v>7.690080473995871</v>
+        <v>7.690080473995872</v>
       </c>
       <c r="J12" t="n">
         <v>21.10216859749619</v>
       </c>
       <c r="K12" t="n">
-        <v>36.06696723708356</v>
+        <v>36.06696723708357</v>
       </c>
       <c r="L12" t="n">
         <v>48.49648839046696</v>
       </c>
       <c r="M12" t="n">
-        <v>56.59311452009444</v>
+        <v>56.59311452009445</v>
       </c>
       <c r="N12" t="n">
-        <v>58.09096586337339</v>
+        <v>58.0909658633734</v>
       </c>
       <c r="O12" t="n">
-        <v>53.14188477361197</v>
+        <v>53.14188477361198</v>
       </c>
       <c r="P12" t="n">
-        <v>42.65104760214423</v>
+        <v>42.65104760214424</v>
       </c>
       <c r="Q12" t="n">
-        <v>28.51109581085042</v>
+        <v>28.51109581085043</v>
       </c>
       <c r="R12" t="n">
         <v>13.86761518342492</v>
       </c>
       <c r="S12" t="n">
-        <v>4.148724943614329</v>
+        <v>4.14872494361433</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9002782109047391</v>
+        <v>0.9002782109047393</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0146944212878902</v>
+        <v>0.01469442128789021</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>0.1872534996904915</v>
       </c>
       <c r="H13" t="n">
-        <v>1.664853842702734</v>
+        <v>1.664853842702735</v>
       </c>
       <c r="I13" t="n">
-        <v>5.631223427055872</v>
+        <v>5.631223427055873</v>
       </c>
       <c r="J13" t="n">
-        <v>13.23882242811774</v>
+        <v>13.23882242811775</v>
       </c>
       <c r="K13" t="n">
         <v>21.75545205494982</v>
       </c>
       <c r="L13" t="n">
-        <v>27.83948849034816</v>
+        <v>27.83948849034817</v>
       </c>
       <c r="M13" t="n">
-        <v>29.35283722875585</v>
+        <v>29.35283722875586</v>
       </c>
       <c r="N13" t="n">
-        <v>28.65489236627313</v>
+        <v>28.65489236627314</v>
       </c>
       <c r="O13" t="n">
         <v>26.46743102897966</v>
@@ -31941,13 +31941,13 @@
         <v>15.6799271422647</v>
       </c>
       <c r="R13" t="n">
-        <v>8.41959826790155</v>
+        <v>8.419598267901552</v>
       </c>
       <c r="S13" t="n">
         <v>3.263317808242473</v>
       </c>
       <c r="T13" t="n">
-        <v>0.8000831350411906</v>
+        <v>0.8000831350411907</v>
       </c>
       <c r="U13" t="n">
         <v>0.010213827255845</v>
@@ -31990,22 +31990,22 @@
         <v>0.4174495561852891</v>
       </c>
       <c r="H14" t="n">
-        <v>4.275205267282592</v>
+        <v>4.275205267282593</v>
       </c>
       <c r="I14" t="n">
         <v>16.09372401483337</v>
       </c>
       <c r="J14" t="n">
-        <v>35.43050926928121</v>
+        <v>35.43050926928122</v>
       </c>
       <c r="K14" t="n">
         <v>53.10114898260451</v>
       </c>
       <c r="L14" t="n">
-        <v>65.87667083771005</v>
+        <v>65.87667083771007</v>
       </c>
       <c r="M14" t="n">
-        <v>73.30048938252018</v>
+        <v>73.3004893825202</v>
       </c>
       <c r="N14" t="n">
         <v>74.48656793403165</v>
@@ -32023,7 +32023,7 @@
         <v>26.22261568372419</v>
       </c>
       <c r="S14" t="n">
-        <v>9.512631761572283</v>
+        <v>9.512631761572285</v>
       </c>
       <c r="T14" t="n">
         <v>1.827385432201104</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.223355203575931</v>
+        <v>0.2233552035759311</v>
       </c>
       <c r="H15" t="n">
-        <v>2.157141045062281</v>
+        <v>2.157141045062282</v>
       </c>
       <c r="I15" t="n">
-        <v>7.690080473995871</v>
+        <v>7.690080473995872</v>
       </c>
       <c r="J15" t="n">
         <v>21.10216859749619</v>
       </c>
       <c r="K15" t="n">
-        <v>36.06696723708356</v>
+        <v>36.06696723708357</v>
       </c>
       <c r="L15" t="n">
         <v>48.49648839046696</v>
       </c>
       <c r="M15" t="n">
-        <v>56.59311452009444</v>
+        <v>56.59311452009445</v>
       </c>
       <c r="N15" t="n">
-        <v>58.09096586337339</v>
+        <v>58.0909658633734</v>
       </c>
       <c r="O15" t="n">
-        <v>53.14188477361197</v>
+        <v>53.14188477361198</v>
       </c>
       <c r="P15" t="n">
-        <v>42.65104760214423</v>
+        <v>42.65104760214424</v>
       </c>
       <c r="Q15" t="n">
-        <v>28.51109581085042</v>
+        <v>28.51109581085043</v>
       </c>
       <c r="R15" t="n">
         <v>13.86761518342492</v>
       </c>
       <c r="S15" t="n">
-        <v>4.148724943614329</v>
+        <v>4.14872494361433</v>
       </c>
       <c r="T15" t="n">
-        <v>0.9002782109047391</v>
+        <v>0.9002782109047393</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0146944212878902</v>
+        <v>0.01469442128789021</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>0.1872534996904915</v>
       </c>
       <c r="H16" t="n">
-        <v>1.664853842702734</v>
+        <v>1.664853842702735</v>
       </c>
       <c r="I16" t="n">
-        <v>5.631223427055872</v>
+        <v>5.631223427055873</v>
       </c>
       <c r="J16" t="n">
-        <v>13.23882242811774</v>
+        <v>13.23882242811775</v>
       </c>
       <c r="K16" t="n">
         <v>21.75545205494982</v>
       </c>
       <c r="L16" t="n">
-        <v>27.83948849034816</v>
+        <v>27.83948849034817</v>
       </c>
       <c r="M16" t="n">
-        <v>29.35283722875585</v>
+        <v>29.35283722875586</v>
       </c>
       <c r="N16" t="n">
-        <v>28.65489236627313</v>
+        <v>28.65489236627314</v>
       </c>
       <c r="O16" t="n">
         <v>26.46743102897966</v>
@@ -32178,13 +32178,13 @@
         <v>15.6799271422647</v>
       </c>
       <c r="R16" t="n">
-        <v>8.41959826790155</v>
+        <v>8.419598267901552</v>
       </c>
       <c r="S16" t="n">
         <v>3.263317808242473</v>
       </c>
       <c r="T16" t="n">
-        <v>0.8000831350411906</v>
+        <v>0.8000831350411907</v>
       </c>
       <c r="U16" t="n">
         <v>0.010213827255845</v>
@@ -32227,22 +32227,22 @@
         <v>0.4174495561852891</v>
       </c>
       <c r="H17" t="n">
-        <v>4.275205267282592</v>
+        <v>4.275205267282593</v>
       </c>
       <c r="I17" t="n">
         <v>16.09372401483337</v>
       </c>
       <c r="J17" t="n">
-        <v>35.43050926928121</v>
+        <v>35.43050926928122</v>
       </c>
       <c r="K17" t="n">
         <v>53.10114898260451</v>
       </c>
       <c r="L17" t="n">
-        <v>65.87667083771005</v>
+        <v>65.87667083771007</v>
       </c>
       <c r="M17" t="n">
-        <v>73.30048938252018</v>
+        <v>73.3004893825202</v>
       </c>
       <c r="N17" t="n">
         <v>74.48656793403165</v>
@@ -32260,7 +32260,7 @@
         <v>26.22261568372419</v>
       </c>
       <c r="S17" t="n">
-        <v>9.512631761572283</v>
+        <v>9.512631761572285</v>
       </c>
       <c r="T17" t="n">
         <v>1.827385432201104</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.223355203575931</v>
+        <v>0.2233552035759311</v>
       </c>
       <c r="H18" t="n">
-        <v>2.157141045062281</v>
+        <v>2.157141045062282</v>
       </c>
       <c r="I18" t="n">
-        <v>7.690080473995871</v>
+        <v>7.690080473995872</v>
       </c>
       <c r="J18" t="n">
         <v>21.10216859749619</v>
       </c>
       <c r="K18" t="n">
-        <v>36.06696723708356</v>
+        <v>36.06696723708357</v>
       </c>
       <c r="L18" t="n">
         <v>48.49648839046696</v>
       </c>
       <c r="M18" t="n">
-        <v>56.59311452009444</v>
+        <v>56.59311452009445</v>
       </c>
       <c r="N18" t="n">
-        <v>58.09096586337339</v>
+        <v>58.0909658633734</v>
       </c>
       <c r="O18" t="n">
-        <v>53.14188477361197</v>
+        <v>53.14188477361198</v>
       </c>
       <c r="P18" t="n">
-        <v>42.65104760214423</v>
+        <v>42.65104760214424</v>
       </c>
       <c r="Q18" t="n">
-        <v>28.51109581085042</v>
+        <v>28.51109581085043</v>
       </c>
       <c r="R18" t="n">
         <v>13.86761518342492</v>
       </c>
       <c r="S18" t="n">
-        <v>4.148724943614329</v>
+        <v>4.14872494361433</v>
       </c>
       <c r="T18" t="n">
-        <v>0.9002782109047391</v>
+        <v>0.9002782109047393</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0146944212878902</v>
+        <v>0.01469442128789021</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>0.1872534996904915</v>
       </c>
       <c r="H19" t="n">
-        <v>1.664853842702734</v>
+        <v>1.664853842702735</v>
       </c>
       <c r="I19" t="n">
-        <v>5.631223427055872</v>
+        <v>5.631223427055873</v>
       </c>
       <c r="J19" t="n">
-        <v>13.23882242811774</v>
+        <v>13.23882242811775</v>
       </c>
       <c r="K19" t="n">
         <v>21.75545205494982</v>
       </c>
       <c r="L19" t="n">
-        <v>27.83948849034816</v>
+        <v>27.83948849034817</v>
       </c>
       <c r="M19" t="n">
-        <v>29.35283722875585</v>
+        <v>29.35283722875586</v>
       </c>
       <c r="N19" t="n">
-        <v>28.65489236627313</v>
+        <v>28.65489236627314</v>
       </c>
       <c r="O19" t="n">
         <v>26.46743102897966</v>
@@ -32415,13 +32415,13 @@
         <v>15.6799271422647</v>
       </c>
       <c r="R19" t="n">
-        <v>8.41959826790155</v>
+        <v>8.419598267901552</v>
       </c>
       <c r="S19" t="n">
         <v>3.263317808242473</v>
       </c>
       <c r="T19" t="n">
-        <v>0.8000831350411906</v>
+        <v>0.8000831350411907</v>
       </c>
       <c r="U19" t="n">
         <v>0.010213827255845</v>
@@ -32464,22 +32464,22 @@
         <v>0.4174495561852891</v>
       </c>
       <c r="H20" t="n">
-        <v>4.275205267282592</v>
+        <v>4.275205267282593</v>
       </c>
       <c r="I20" t="n">
         <v>16.09372401483337</v>
       </c>
       <c r="J20" t="n">
-        <v>35.43050926928121</v>
+        <v>35.43050926928122</v>
       </c>
       <c r="K20" t="n">
         <v>53.10114898260451</v>
       </c>
       <c r="L20" t="n">
-        <v>65.87667083771005</v>
+        <v>65.87667083771007</v>
       </c>
       <c r="M20" t="n">
-        <v>73.30048938252018</v>
+        <v>73.3004893825202</v>
       </c>
       <c r="N20" t="n">
         <v>74.48656793403165</v>
@@ -32497,7 +32497,7 @@
         <v>26.22261568372419</v>
       </c>
       <c r="S20" t="n">
-        <v>9.512631761572283</v>
+        <v>9.512631761572285</v>
       </c>
       <c r="T20" t="n">
         <v>1.827385432201104</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.223355203575931</v>
+        <v>0.2233552035759311</v>
       </c>
       <c r="H21" t="n">
-        <v>2.157141045062281</v>
+        <v>2.157141045062282</v>
       </c>
       <c r="I21" t="n">
-        <v>7.690080473995871</v>
+        <v>7.690080473995872</v>
       </c>
       <c r="J21" t="n">
         <v>21.10216859749619</v>
       </c>
       <c r="K21" t="n">
-        <v>36.06696723708356</v>
+        <v>36.06696723708357</v>
       </c>
       <c r="L21" t="n">
         <v>48.49648839046696</v>
       </c>
       <c r="M21" t="n">
-        <v>56.59311452009444</v>
+        <v>56.59311452009445</v>
       </c>
       <c r="N21" t="n">
-        <v>58.09096586337339</v>
+        <v>58.0909658633734</v>
       </c>
       <c r="O21" t="n">
-        <v>53.14188477361197</v>
+        <v>53.14188477361198</v>
       </c>
       <c r="P21" t="n">
-        <v>42.65104760214423</v>
+        <v>42.65104760214424</v>
       </c>
       <c r="Q21" t="n">
-        <v>28.51109581085042</v>
+        <v>28.51109581085043</v>
       </c>
       <c r="R21" t="n">
         <v>13.86761518342492</v>
       </c>
       <c r="S21" t="n">
-        <v>4.148724943614329</v>
+        <v>4.14872494361433</v>
       </c>
       <c r="T21" t="n">
-        <v>0.9002782109047391</v>
+        <v>0.9002782109047393</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0146944212878902</v>
+        <v>0.01469442128789021</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>0.1872534996904915</v>
       </c>
       <c r="H22" t="n">
-        <v>1.664853842702734</v>
+        <v>1.664853842702735</v>
       </c>
       <c r="I22" t="n">
-        <v>5.631223427055872</v>
+        <v>5.631223427055873</v>
       </c>
       <c r="J22" t="n">
-        <v>13.23882242811774</v>
+        <v>13.23882242811775</v>
       </c>
       <c r="K22" t="n">
         <v>21.75545205494982</v>
       </c>
       <c r="L22" t="n">
-        <v>27.83948849034816</v>
+        <v>27.83948849034817</v>
       </c>
       <c r="M22" t="n">
-        <v>29.35283722875585</v>
+        <v>29.35283722875586</v>
       </c>
       <c r="N22" t="n">
-        <v>28.65489236627313</v>
+        <v>28.65489236627314</v>
       </c>
       <c r="O22" t="n">
         <v>26.46743102897966</v>
@@ -32652,13 +32652,13 @@
         <v>15.6799271422647</v>
       </c>
       <c r="R22" t="n">
-        <v>8.41959826790155</v>
+        <v>8.419598267901552</v>
       </c>
       <c r="S22" t="n">
         <v>3.263317808242473</v>
       </c>
       <c r="T22" t="n">
-        <v>0.8000831350411906</v>
+        <v>0.8000831350411907</v>
       </c>
       <c r="U22" t="n">
         <v>0.010213827255845</v>
@@ -32701,22 +32701,22 @@
         <v>0.4174495561852891</v>
       </c>
       <c r="H23" t="n">
-        <v>4.275205267282592</v>
+        <v>4.275205267282593</v>
       </c>
       <c r="I23" t="n">
         <v>16.09372401483337</v>
       </c>
       <c r="J23" t="n">
-        <v>35.43050926928121</v>
+        <v>35.43050926928122</v>
       </c>
       <c r="K23" t="n">
         <v>53.10114898260451</v>
       </c>
       <c r="L23" t="n">
-        <v>65.87667083771005</v>
+        <v>65.87667083771007</v>
       </c>
       <c r="M23" t="n">
-        <v>73.30048938252018</v>
+        <v>73.3004893825202</v>
       </c>
       <c r="N23" t="n">
         <v>74.48656793403165</v>
@@ -32734,7 +32734,7 @@
         <v>26.22261568372419</v>
       </c>
       <c r="S23" t="n">
-        <v>9.512631761572283</v>
+        <v>9.512631761572285</v>
       </c>
       <c r="T23" t="n">
         <v>1.827385432201104</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.223355203575931</v>
+        <v>0.2233552035759311</v>
       </c>
       <c r="H24" t="n">
-        <v>2.157141045062281</v>
+        <v>2.157141045062282</v>
       </c>
       <c r="I24" t="n">
-        <v>7.690080473995871</v>
+        <v>7.690080473995872</v>
       </c>
       <c r="J24" t="n">
         <v>21.10216859749619</v>
       </c>
       <c r="K24" t="n">
-        <v>36.06696723708356</v>
+        <v>36.06696723708357</v>
       </c>
       <c r="L24" t="n">
         <v>48.49648839046696</v>
       </c>
       <c r="M24" t="n">
-        <v>56.59311452009444</v>
+        <v>56.59311452009445</v>
       </c>
       <c r="N24" t="n">
-        <v>58.09096586337339</v>
+        <v>58.0909658633734</v>
       </c>
       <c r="O24" t="n">
-        <v>53.14188477361197</v>
+        <v>53.14188477361198</v>
       </c>
       <c r="P24" t="n">
-        <v>42.65104760214423</v>
+        <v>42.65104760214424</v>
       </c>
       <c r="Q24" t="n">
-        <v>28.51109581085042</v>
+        <v>28.51109581085043</v>
       </c>
       <c r="R24" t="n">
         <v>13.86761518342492</v>
       </c>
       <c r="S24" t="n">
-        <v>4.148724943614329</v>
+        <v>4.14872494361433</v>
       </c>
       <c r="T24" t="n">
-        <v>0.9002782109047391</v>
+        <v>0.9002782109047393</v>
       </c>
       <c r="U24" t="n">
-        <v>0.0146944212878902</v>
+        <v>0.01469442128789021</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>0.1872534996904915</v>
       </c>
       <c r="H25" t="n">
-        <v>1.664853842702734</v>
+        <v>1.664853842702735</v>
       </c>
       <c r="I25" t="n">
-        <v>5.631223427055872</v>
+        <v>5.631223427055873</v>
       </c>
       <c r="J25" t="n">
-        <v>13.23882242811774</v>
+        <v>13.23882242811775</v>
       </c>
       <c r="K25" t="n">
         <v>21.75545205494982</v>
       </c>
       <c r="L25" t="n">
-        <v>27.83948849034816</v>
+        <v>27.83948849034817</v>
       </c>
       <c r="M25" t="n">
-        <v>29.35283722875585</v>
+        <v>29.35283722875586</v>
       </c>
       <c r="N25" t="n">
-        <v>28.65489236627313</v>
+        <v>28.65489236627314</v>
       </c>
       <c r="O25" t="n">
         <v>26.46743102897966</v>
@@ -32889,13 +32889,13 @@
         <v>15.6799271422647</v>
       </c>
       <c r="R25" t="n">
-        <v>8.41959826790155</v>
+        <v>8.419598267901552</v>
       </c>
       <c r="S25" t="n">
         <v>3.263317808242473</v>
       </c>
       <c r="T25" t="n">
-        <v>0.8000831350411906</v>
+        <v>0.8000831350411907</v>
       </c>
       <c r="U25" t="n">
         <v>0.010213827255845</v>
@@ -32938,22 +32938,22 @@
         <v>0.4174495561852891</v>
       </c>
       <c r="H26" t="n">
-        <v>4.275205267282592</v>
+        <v>4.275205267282593</v>
       </c>
       <c r="I26" t="n">
         <v>16.09372401483337</v>
       </c>
       <c r="J26" t="n">
-        <v>35.43050926928121</v>
+        <v>35.43050926928122</v>
       </c>
       <c r="K26" t="n">
         <v>53.10114898260451</v>
       </c>
       <c r="L26" t="n">
-        <v>65.87667083771005</v>
+        <v>65.87667083771007</v>
       </c>
       <c r="M26" t="n">
-        <v>73.30048938252018</v>
+        <v>73.3004893825202</v>
       </c>
       <c r="N26" t="n">
         <v>74.48656793403165</v>
@@ -32971,7 +32971,7 @@
         <v>26.22261568372419</v>
       </c>
       <c r="S26" t="n">
-        <v>9.512631761572283</v>
+        <v>9.512631761572285</v>
       </c>
       <c r="T26" t="n">
         <v>1.827385432201104</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.223355203575931</v>
+        <v>0.2233552035759311</v>
       </c>
       <c r="H27" t="n">
-        <v>2.157141045062281</v>
+        <v>2.157141045062282</v>
       </c>
       <c r="I27" t="n">
-        <v>7.690080473995871</v>
+        <v>7.690080473995872</v>
       </c>
       <c r="J27" t="n">
         <v>21.10216859749619</v>
       </c>
       <c r="K27" t="n">
-        <v>36.06696723708356</v>
+        <v>36.06696723708357</v>
       </c>
       <c r="L27" t="n">
         <v>48.49648839046696</v>
       </c>
       <c r="M27" t="n">
-        <v>56.59311452009444</v>
+        <v>56.59311452009445</v>
       </c>
       <c r="N27" t="n">
-        <v>58.09096586337339</v>
+        <v>58.0909658633734</v>
       </c>
       <c r="O27" t="n">
-        <v>53.14188477361197</v>
+        <v>53.14188477361198</v>
       </c>
       <c r="P27" t="n">
-        <v>42.65104760214423</v>
+        <v>42.65104760214424</v>
       </c>
       <c r="Q27" t="n">
-        <v>28.51109581085042</v>
+        <v>28.51109581085043</v>
       </c>
       <c r="R27" t="n">
         <v>13.86761518342492</v>
       </c>
       <c r="S27" t="n">
-        <v>4.148724943614329</v>
+        <v>4.14872494361433</v>
       </c>
       <c r="T27" t="n">
-        <v>0.9002782109047391</v>
+        <v>0.9002782109047393</v>
       </c>
       <c r="U27" t="n">
-        <v>0.0146944212878902</v>
+        <v>0.01469442128789021</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>0.1872534996904915</v>
       </c>
       <c r="H28" t="n">
-        <v>1.664853842702734</v>
+        <v>1.664853842702735</v>
       </c>
       <c r="I28" t="n">
-        <v>5.631223427055872</v>
+        <v>5.631223427055873</v>
       </c>
       <c r="J28" t="n">
-        <v>13.23882242811774</v>
+        <v>13.23882242811775</v>
       </c>
       <c r="K28" t="n">
         <v>21.75545205494982</v>
       </c>
       <c r="L28" t="n">
-        <v>27.83948849034816</v>
+        <v>27.83948849034817</v>
       </c>
       <c r="M28" t="n">
-        <v>29.35283722875585</v>
+        <v>29.35283722875586</v>
       </c>
       <c r="N28" t="n">
-        <v>28.65489236627313</v>
+        <v>28.65489236627314</v>
       </c>
       <c r="O28" t="n">
         <v>26.46743102897966</v>
@@ -33126,13 +33126,13 @@
         <v>15.6799271422647</v>
       </c>
       <c r="R28" t="n">
-        <v>8.41959826790155</v>
+        <v>8.419598267901552</v>
       </c>
       <c r="S28" t="n">
         <v>3.263317808242473</v>
       </c>
       <c r="T28" t="n">
-        <v>0.8000831350411906</v>
+        <v>0.8000831350411907</v>
       </c>
       <c r="U28" t="n">
         <v>0.010213827255845</v>
@@ -33175,22 +33175,22 @@
         <v>0.4174495561852891</v>
       </c>
       <c r="H29" t="n">
-        <v>4.275205267282592</v>
+        <v>4.275205267282593</v>
       </c>
       <c r="I29" t="n">
         <v>16.09372401483337</v>
       </c>
       <c r="J29" t="n">
-        <v>35.43050926928121</v>
+        <v>35.43050926928122</v>
       </c>
       <c r="K29" t="n">
         <v>53.10114898260451</v>
       </c>
       <c r="L29" t="n">
-        <v>65.87667083771005</v>
+        <v>65.87667083771007</v>
       </c>
       <c r="M29" t="n">
-        <v>73.30048938252018</v>
+        <v>73.3004893825202</v>
       </c>
       <c r="N29" t="n">
         <v>74.48656793403165</v>
@@ -33208,7 +33208,7 @@
         <v>26.22261568372419</v>
       </c>
       <c r="S29" t="n">
-        <v>9.512631761572283</v>
+        <v>9.512631761572285</v>
       </c>
       <c r="T29" t="n">
         <v>1.827385432201104</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.223355203575931</v>
+        <v>0.2233552035759311</v>
       </c>
       <c r="H30" t="n">
-        <v>2.157141045062281</v>
+        <v>2.157141045062282</v>
       </c>
       <c r="I30" t="n">
-        <v>7.690080473995871</v>
+        <v>7.690080473995872</v>
       </c>
       <c r="J30" t="n">
         <v>21.10216859749619</v>
       </c>
       <c r="K30" t="n">
-        <v>36.06696723708356</v>
+        <v>36.06696723708357</v>
       </c>
       <c r="L30" t="n">
         <v>48.49648839046696</v>
       </c>
       <c r="M30" t="n">
-        <v>56.59311452009444</v>
+        <v>56.59311452009445</v>
       </c>
       <c r="N30" t="n">
-        <v>58.09096586337339</v>
+        <v>58.0909658633734</v>
       </c>
       <c r="O30" t="n">
-        <v>53.14188477361197</v>
+        <v>53.14188477361198</v>
       </c>
       <c r="P30" t="n">
-        <v>42.65104760214423</v>
+        <v>42.65104760214424</v>
       </c>
       <c r="Q30" t="n">
-        <v>28.51109581085042</v>
+        <v>28.51109581085043</v>
       </c>
       <c r="R30" t="n">
         <v>13.86761518342492</v>
       </c>
       <c r="S30" t="n">
-        <v>4.148724943614329</v>
+        <v>4.14872494361433</v>
       </c>
       <c r="T30" t="n">
-        <v>0.9002782109047391</v>
+        <v>0.9002782109047393</v>
       </c>
       <c r="U30" t="n">
-        <v>0.0146944212878902</v>
+        <v>0.01469442128789021</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>0.1872534996904915</v>
       </c>
       <c r="H31" t="n">
-        <v>1.664853842702734</v>
+        <v>1.664853842702735</v>
       </c>
       <c r="I31" t="n">
-        <v>5.631223427055872</v>
+        <v>5.631223427055873</v>
       </c>
       <c r="J31" t="n">
-        <v>13.23882242811774</v>
+        <v>13.23882242811775</v>
       </c>
       <c r="K31" t="n">
         <v>21.75545205494982</v>
       </c>
       <c r="L31" t="n">
-        <v>27.83948849034816</v>
+        <v>27.83948849034817</v>
       </c>
       <c r="M31" t="n">
-        <v>29.35283722875585</v>
+        <v>29.35283722875586</v>
       </c>
       <c r="N31" t="n">
-        <v>28.65489236627313</v>
+        <v>28.65489236627314</v>
       </c>
       <c r="O31" t="n">
         <v>26.46743102897966</v>
@@ -33363,13 +33363,13 @@
         <v>15.6799271422647</v>
       </c>
       <c r="R31" t="n">
-        <v>8.41959826790155</v>
+        <v>8.419598267901552</v>
       </c>
       <c r="S31" t="n">
         <v>3.263317808242473</v>
       </c>
       <c r="T31" t="n">
-        <v>0.8000831350411906</v>
+        <v>0.8000831350411907</v>
       </c>
       <c r="U31" t="n">
         <v>0.010213827255845</v>
@@ -33412,22 +33412,22 @@
         <v>0.4174495561852891</v>
       </c>
       <c r="H32" t="n">
-        <v>4.275205267282592</v>
+        <v>4.275205267282593</v>
       </c>
       <c r="I32" t="n">
         <v>16.09372401483337</v>
       </c>
       <c r="J32" t="n">
-        <v>35.43050926928121</v>
+        <v>35.43050926928122</v>
       </c>
       <c r="K32" t="n">
         <v>53.10114898260451</v>
       </c>
       <c r="L32" t="n">
-        <v>65.87667083771005</v>
+        <v>65.87667083771007</v>
       </c>
       <c r="M32" t="n">
-        <v>73.30048938252018</v>
+        <v>73.3004893825202</v>
       </c>
       <c r="N32" t="n">
         <v>74.48656793403165</v>
@@ -33445,7 +33445,7 @@
         <v>26.22261568372419</v>
       </c>
       <c r="S32" t="n">
-        <v>9.512631761572283</v>
+        <v>9.512631761572285</v>
       </c>
       <c r="T32" t="n">
         <v>1.827385432201104</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.223355203575931</v>
+        <v>0.2233552035759311</v>
       </c>
       <c r="H33" t="n">
-        <v>2.157141045062281</v>
+        <v>2.157141045062282</v>
       </c>
       <c r="I33" t="n">
-        <v>7.690080473995871</v>
+        <v>7.690080473995872</v>
       </c>
       <c r="J33" t="n">
         <v>21.10216859749619</v>
       </c>
       <c r="K33" t="n">
-        <v>36.06696723708356</v>
+        <v>36.06696723708357</v>
       </c>
       <c r="L33" t="n">
         <v>48.49648839046696</v>
       </c>
       <c r="M33" t="n">
-        <v>56.59311452009444</v>
+        <v>56.59311452009445</v>
       </c>
       <c r="N33" t="n">
-        <v>58.09096586337339</v>
+        <v>58.0909658633734</v>
       </c>
       <c r="O33" t="n">
-        <v>53.14188477361197</v>
+        <v>53.14188477361198</v>
       </c>
       <c r="P33" t="n">
-        <v>42.65104760214423</v>
+        <v>42.65104760214424</v>
       </c>
       <c r="Q33" t="n">
-        <v>28.51109581085042</v>
+        <v>28.51109581085043</v>
       </c>
       <c r="R33" t="n">
         <v>13.86761518342492</v>
       </c>
       <c r="S33" t="n">
-        <v>4.148724943614329</v>
+        <v>4.14872494361433</v>
       </c>
       <c r="T33" t="n">
-        <v>0.9002782109047391</v>
+        <v>0.9002782109047393</v>
       </c>
       <c r="U33" t="n">
-        <v>0.0146944212878902</v>
+        <v>0.01469442128789021</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>0.1872534996904915</v>
       </c>
       <c r="H34" t="n">
-        <v>1.664853842702734</v>
+        <v>1.664853842702735</v>
       </c>
       <c r="I34" t="n">
-        <v>5.631223427055872</v>
+        <v>5.631223427055873</v>
       </c>
       <c r="J34" t="n">
-        <v>13.23882242811774</v>
+        <v>13.23882242811775</v>
       </c>
       <c r="K34" t="n">
         <v>21.75545205494982</v>
       </c>
       <c r="L34" t="n">
-        <v>27.83948849034816</v>
+        <v>27.83948849034817</v>
       </c>
       <c r="M34" t="n">
-        <v>29.35283722875585</v>
+        <v>29.35283722875586</v>
       </c>
       <c r="N34" t="n">
-        <v>28.65489236627313</v>
+        <v>28.65489236627314</v>
       </c>
       <c r="O34" t="n">
         <v>26.46743102897966</v>
@@ -33600,13 +33600,13 @@
         <v>15.6799271422647</v>
       </c>
       <c r="R34" t="n">
-        <v>8.41959826790155</v>
+        <v>8.419598267901552</v>
       </c>
       <c r="S34" t="n">
         <v>3.263317808242473</v>
       </c>
       <c r="T34" t="n">
-        <v>0.8000831350411906</v>
+        <v>0.8000831350411907</v>
       </c>
       <c r="U34" t="n">
         <v>0.010213827255845</v>
@@ -33649,22 +33649,22 @@
         <v>0.4174495561852891</v>
       </c>
       <c r="H35" t="n">
-        <v>4.275205267282592</v>
+        <v>4.275205267282593</v>
       </c>
       <c r="I35" t="n">
         <v>16.09372401483337</v>
       </c>
       <c r="J35" t="n">
-        <v>35.43050926928121</v>
+        <v>35.43050926928122</v>
       </c>
       <c r="K35" t="n">
         <v>53.10114898260451</v>
       </c>
       <c r="L35" t="n">
-        <v>65.87667083771005</v>
+        <v>65.87667083771007</v>
       </c>
       <c r="M35" t="n">
-        <v>73.30048938252018</v>
+        <v>73.3004893825202</v>
       </c>
       <c r="N35" t="n">
         <v>74.48656793403165</v>
@@ -33682,7 +33682,7 @@
         <v>26.22261568372419</v>
       </c>
       <c r="S35" t="n">
-        <v>9.512631761572283</v>
+        <v>9.512631761572285</v>
       </c>
       <c r="T35" t="n">
         <v>1.827385432201104</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.223355203575931</v>
+        <v>0.2233552035759311</v>
       </c>
       <c r="H36" t="n">
-        <v>2.157141045062281</v>
+        <v>2.157141045062282</v>
       </c>
       <c r="I36" t="n">
-        <v>7.690080473995871</v>
+        <v>7.690080473995872</v>
       </c>
       <c r="J36" t="n">
         <v>21.10216859749619</v>
       </c>
       <c r="K36" t="n">
-        <v>36.06696723708356</v>
+        <v>36.06696723708357</v>
       </c>
       <c r="L36" t="n">
         <v>48.49648839046696</v>
       </c>
       <c r="M36" t="n">
-        <v>56.59311452009444</v>
+        <v>56.59311452009445</v>
       </c>
       <c r="N36" t="n">
-        <v>58.09096586337339</v>
+        <v>58.0909658633734</v>
       </c>
       <c r="O36" t="n">
-        <v>53.14188477361197</v>
+        <v>53.14188477361198</v>
       </c>
       <c r="P36" t="n">
-        <v>42.65104760214423</v>
+        <v>42.65104760214424</v>
       </c>
       <c r="Q36" t="n">
-        <v>28.51109581085042</v>
+        <v>28.51109581085043</v>
       </c>
       <c r="R36" t="n">
         <v>13.86761518342492</v>
       </c>
       <c r="S36" t="n">
-        <v>4.148724943614329</v>
+        <v>4.14872494361433</v>
       </c>
       <c r="T36" t="n">
-        <v>0.9002782109047391</v>
+        <v>0.9002782109047393</v>
       </c>
       <c r="U36" t="n">
-        <v>0.0146944212878902</v>
+        <v>0.01469442128789021</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>0.1872534996904915</v>
       </c>
       <c r="H37" t="n">
-        <v>1.664853842702734</v>
+        <v>1.664853842702735</v>
       </c>
       <c r="I37" t="n">
-        <v>5.631223427055872</v>
+        <v>5.631223427055873</v>
       </c>
       <c r="J37" t="n">
-        <v>13.23882242811774</v>
+        <v>13.23882242811775</v>
       </c>
       <c r="K37" t="n">
         <v>21.75545205494982</v>
       </c>
       <c r="L37" t="n">
-        <v>27.83948849034816</v>
+        <v>27.83948849034817</v>
       </c>
       <c r="M37" t="n">
-        <v>29.35283722875585</v>
+        <v>29.35283722875586</v>
       </c>
       <c r="N37" t="n">
-        <v>28.65489236627313</v>
+        <v>28.65489236627314</v>
       </c>
       <c r="O37" t="n">
         <v>26.46743102897966</v>
@@ -33837,13 +33837,13 @@
         <v>15.6799271422647</v>
       </c>
       <c r="R37" t="n">
-        <v>8.41959826790155</v>
+        <v>8.419598267901552</v>
       </c>
       <c r="S37" t="n">
         <v>3.263317808242473</v>
       </c>
       <c r="T37" t="n">
-        <v>0.8000831350411906</v>
+        <v>0.8000831350411907</v>
       </c>
       <c r="U37" t="n">
         <v>0.010213827255845</v>
@@ -33886,22 +33886,22 @@
         <v>0.4174495561852891</v>
       </c>
       <c r="H38" t="n">
-        <v>4.275205267282592</v>
+        <v>4.275205267282593</v>
       </c>
       <c r="I38" t="n">
         <v>16.09372401483337</v>
       </c>
       <c r="J38" t="n">
-        <v>35.43050926928121</v>
+        <v>35.43050926928122</v>
       </c>
       <c r="K38" t="n">
         <v>53.10114898260451</v>
       </c>
       <c r="L38" t="n">
-        <v>65.87667083771005</v>
+        <v>65.87667083771007</v>
       </c>
       <c r="M38" t="n">
-        <v>73.30048938252018</v>
+        <v>73.3004893825202</v>
       </c>
       <c r="N38" t="n">
         <v>74.48656793403165</v>
@@ -33919,7 +33919,7 @@
         <v>26.22261568372419</v>
       </c>
       <c r="S38" t="n">
-        <v>9.512631761572283</v>
+        <v>9.512631761572285</v>
       </c>
       <c r="T38" t="n">
         <v>1.827385432201104</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.223355203575931</v>
+        <v>0.2233552035759311</v>
       </c>
       <c r="H39" t="n">
-        <v>2.157141045062281</v>
+        <v>2.157141045062282</v>
       </c>
       <c r="I39" t="n">
-        <v>7.690080473995871</v>
+        <v>7.690080473995872</v>
       </c>
       <c r="J39" t="n">
         <v>21.10216859749619</v>
       </c>
       <c r="K39" t="n">
-        <v>36.06696723708356</v>
+        <v>36.06696723708357</v>
       </c>
       <c r="L39" t="n">
         <v>48.49648839046696</v>
       </c>
       <c r="M39" t="n">
-        <v>56.59311452009444</v>
+        <v>56.59311452009445</v>
       </c>
       <c r="N39" t="n">
-        <v>58.09096586337339</v>
+        <v>58.0909658633734</v>
       </c>
       <c r="O39" t="n">
-        <v>53.14188477361197</v>
+        <v>53.14188477361198</v>
       </c>
       <c r="P39" t="n">
-        <v>42.65104760214423</v>
+        <v>42.65104760214424</v>
       </c>
       <c r="Q39" t="n">
-        <v>28.51109581085042</v>
+        <v>28.51109581085043</v>
       </c>
       <c r="R39" t="n">
         <v>13.86761518342492</v>
       </c>
       <c r="S39" t="n">
-        <v>4.148724943614329</v>
+        <v>4.14872494361433</v>
       </c>
       <c r="T39" t="n">
-        <v>0.9002782109047391</v>
+        <v>0.9002782109047393</v>
       </c>
       <c r="U39" t="n">
-        <v>0.0146944212878902</v>
+        <v>0.01469442128789021</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>0.1872534996904915</v>
       </c>
       <c r="H40" t="n">
-        <v>1.664853842702734</v>
+        <v>1.664853842702735</v>
       </c>
       <c r="I40" t="n">
-        <v>5.631223427055872</v>
+        <v>5.631223427055873</v>
       </c>
       <c r="J40" t="n">
-        <v>13.23882242811774</v>
+        <v>13.23882242811775</v>
       </c>
       <c r="K40" t="n">
         <v>21.75545205494982</v>
       </c>
       <c r="L40" t="n">
-        <v>27.83948849034816</v>
+        <v>27.83948849034817</v>
       </c>
       <c r="M40" t="n">
-        <v>29.35283722875585</v>
+        <v>29.35283722875586</v>
       </c>
       <c r="N40" t="n">
-        <v>28.65489236627313</v>
+        <v>28.65489236627314</v>
       </c>
       <c r="O40" t="n">
         <v>26.46743102897966</v>
@@ -34074,13 +34074,13 @@
         <v>15.6799271422647</v>
       </c>
       <c r="R40" t="n">
-        <v>8.41959826790155</v>
+        <v>8.419598267901552</v>
       </c>
       <c r="S40" t="n">
         <v>3.263317808242473</v>
       </c>
       <c r="T40" t="n">
-        <v>0.8000831350411906</v>
+        <v>0.8000831350411907</v>
       </c>
       <c r="U40" t="n">
         <v>0.010213827255845</v>
@@ -34123,22 +34123,22 @@
         <v>0.4174495561852891</v>
       </c>
       <c r="H41" t="n">
-        <v>4.275205267282592</v>
+        <v>4.275205267282593</v>
       </c>
       <c r="I41" t="n">
         <v>16.09372401483337</v>
       </c>
       <c r="J41" t="n">
-        <v>35.43050926928121</v>
+        <v>35.43050926928122</v>
       </c>
       <c r="K41" t="n">
         <v>53.10114898260451</v>
       </c>
       <c r="L41" t="n">
-        <v>65.87667083771005</v>
+        <v>65.87667083771007</v>
       </c>
       <c r="M41" t="n">
-        <v>73.30048938252018</v>
+        <v>73.3004893825202</v>
       </c>
       <c r="N41" t="n">
         <v>74.48656793403165</v>
@@ -34156,7 +34156,7 @@
         <v>26.22261568372419</v>
       </c>
       <c r="S41" t="n">
-        <v>9.512631761572283</v>
+        <v>9.512631761572285</v>
       </c>
       <c r="T41" t="n">
         <v>1.827385432201104</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.223355203575931</v>
+        <v>0.2233552035759311</v>
       </c>
       <c r="H42" t="n">
-        <v>2.157141045062281</v>
+        <v>2.157141045062282</v>
       </c>
       <c r="I42" t="n">
-        <v>7.690080473995871</v>
+        <v>7.690080473995872</v>
       </c>
       <c r="J42" t="n">
         <v>21.10216859749619</v>
       </c>
       <c r="K42" t="n">
-        <v>36.06696723708356</v>
+        <v>36.06696723708357</v>
       </c>
       <c r="L42" t="n">
         <v>48.49648839046696</v>
       </c>
       <c r="M42" t="n">
-        <v>56.59311452009444</v>
+        <v>56.59311452009445</v>
       </c>
       <c r="N42" t="n">
-        <v>58.09096586337339</v>
+        <v>58.0909658633734</v>
       </c>
       <c r="O42" t="n">
-        <v>53.14188477361197</v>
+        <v>53.14188477361198</v>
       </c>
       <c r="P42" t="n">
-        <v>42.65104760214423</v>
+        <v>42.65104760214424</v>
       </c>
       <c r="Q42" t="n">
-        <v>28.51109581085042</v>
+        <v>28.51109581085043</v>
       </c>
       <c r="R42" t="n">
         <v>13.86761518342492</v>
       </c>
       <c r="S42" t="n">
-        <v>4.148724943614329</v>
+        <v>4.14872494361433</v>
       </c>
       <c r="T42" t="n">
-        <v>0.9002782109047391</v>
+        <v>0.9002782109047393</v>
       </c>
       <c r="U42" t="n">
-        <v>0.0146944212878902</v>
+        <v>0.01469442128789021</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>0.1872534996904915</v>
       </c>
       <c r="H43" t="n">
-        <v>1.664853842702734</v>
+        <v>1.664853842702735</v>
       </c>
       <c r="I43" t="n">
-        <v>5.631223427055872</v>
+        <v>5.631223427055873</v>
       </c>
       <c r="J43" t="n">
-        <v>13.23882242811774</v>
+        <v>13.23882242811775</v>
       </c>
       <c r="K43" t="n">
         <v>21.75545205494982</v>
       </c>
       <c r="L43" t="n">
-        <v>27.83948849034816</v>
+        <v>27.83948849034817</v>
       </c>
       <c r="M43" t="n">
-        <v>29.35283722875585</v>
+        <v>29.35283722875586</v>
       </c>
       <c r="N43" t="n">
-        <v>28.65489236627313</v>
+        <v>28.65489236627314</v>
       </c>
       <c r="O43" t="n">
         <v>26.46743102897966</v>
@@ -34311,13 +34311,13 @@
         <v>15.6799271422647</v>
       </c>
       <c r="R43" t="n">
-        <v>8.41959826790155</v>
+        <v>8.419598267901552</v>
       </c>
       <c r="S43" t="n">
         <v>3.263317808242473</v>
       </c>
       <c r="T43" t="n">
-        <v>0.8000831350411906</v>
+        <v>0.8000831350411907</v>
       </c>
       <c r="U43" t="n">
         <v>0.010213827255845</v>
@@ -34357,34 +34357,34 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4174495561852892</v>
+        <v>0.4174495561852891</v>
       </c>
       <c r="H44" t="n">
-        <v>4.275205267282594</v>
+        <v>4.275205267282593</v>
       </c>
       <c r="I44" t="n">
-        <v>16.09372401483338</v>
+        <v>16.09372401483337</v>
       </c>
       <c r="J44" t="n">
         <v>35.43050926928122</v>
       </c>
       <c r="K44" t="n">
-        <v>53.10114898260452</v>
+        <v>53.10114898260451</v>
       </c>
       <c r="L44" t="n">
-        <v>65.87667083771008</v>
+        <v>65.87667083771007</v>
       </c>
       <c r="M44" t="n">
-        <v>73.30048938252021</v>
+        <v>73.3004893825202</v>
       </c>
       <c r="N44" t="n">
-        <v>74.48656793403167</v>
+        <v>74.48656793403165</v>
       </c>
       <c r="O44" t="n">
-        <v>70.33555390971419</v>
+        <v>70.33555390971418</v>
       </c>
       <c r="P44" t="n">
-        <v>60.02976799138986</v>
+        <v>60.02976799138985</v>
       </c>
       <c r="Q44" t="n">
         <v>45.07985576050417</v>
@@ -34393,13 +34393,13 @@
         <v>26.22261568372419</v>
       </c>
       <c r="S44" t="n">
-        <v>9.512631761572287</v>
+        <v>9.512631761572285</v>
       </c>
       <c r="T44" t="n">
         <v>1.827385432201104</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03339596449482313</v>
+        <v>0.03339596449482312</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,7 +34442,7 @@
         <v>2.157141045062282</v>
       </c>
       <c r="I45" t="n">
-        <v>7.690080473995874</v>
+        <v>7.690080473995872</v>
       </c>
       <c r="J45" t="n">
         <v>21.10216859749619</v>
@@ -34457,13 +34457,13 @@
         <v>56.59311452009445</v>
       </c>
       <c r="N45" t="n">
-        <v>58.09096586337341</v>
+        <v>58.0909658633734</v>
       </c>
       <c r="O45" t="n">
         <v>53.14188477361198</v>
       </c>
       <c r="P45" t="n">
-        <v>42.65104760214425</v>
+        <v>42.65104760214424</v>
       </c>
       <c r="Q45" t="n">
         <v>28.51109581085043</v>
@@ -34472,10 +34472,10 @@
         <v>13.86761518342492</v>
       </c>
       <c r="S45" t="n">
-        <v>4.148724943614331</v>
+        <v>4.14872494361433</v>
       </c>
       <c r="T45" t="n">
-        <v>0.9002782109047394</v>
+        <v>0.9002782109047393</v>
       </c>
       <c r="U45" t="n">
         <v>0.01469442128789021</v>
@@ -34521,13 +34521,13 @@
         <v>1.664853842702735</v>
       </c>
       <c r="I46" t="n">
-        <v>5.631223427055874</v>
+        <v>5.631223427055873</v>
       </c>
       <c r="J46" t="n">
         <v>13.23882242811775</v>
       </c>
       <c r="K46" t="n">
-        <v>21.75545205494983</v>
+        <v>21.75545205494982</v>
       </c>
       <c r="L46" t="n">
         <v>27.83948849034817</v>
@@ -34536,13 +34536,13 @@
         <v>29.35283722875586</v>
       </c>
       <c r="N46" t="n">
-        <v>28.65489236627315</v>
+        <v>28.65489236627314</v>
       </c>
       <c r="O46" t="n">
         <v>26.46743102897966</v>
       </c>
       <c r="P46" t="n">
-        <v>22.64745963529362</v>
+        <v>22.64745963529361</v>
       </c>
       <c r="Q46" t="n">
         <v>15.6799271422647</v>
@@ -34551,10 +34551,10 @@
         <v>8.419598267901552</v>
       </c>
       <c r="S46" t="n">
-        <v>3.263317808242474</v>
+        <v>3.263317808242473</v>
       </c>
       <c r="T46" t="n">
-        <v>0.8000831350411908</v>
+        <v>0.8000831350411907</v>
       </c>
       <c r="U46" t="n">
         <v>0.010213827255845</v>
@@ -35410,28 +35410,28 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>44.75972748612593</v>
+        <v>8.385474052611404</v>
       </c>
       <c r="L11" t="n">
-        <v>48.88611160301748</v>
+        <v>48.8861116030175</v>
       </c>
       <c r="M11" t="n">
-        <v>83.56285454860294</v>
+        <v>83.56285454860296</v>
       </c>
       <c r="N11" t="n">
         <v>78.00343736515646</v>
       </c>
       <c r="O11" t="n">
-        <v>122.0492982736044</v>
+        <v>36.37425343351535</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="Q11" t="n">
         <v>105.8295037361487</v>
       </c>
       <c r="R11" t="n">
-        <v>0.1749753030303367</v>
+        <v>0.174975303030255</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>39.27388527251657</v>
+        <v>33.83647831747527</v>
       </c>
       <c r="L12" t="n">
         <v>119.764688815662</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="N12" t="n">
-        <v>116.6118913185627</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="O12" t="n">
-        <v>122.0492982736044</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>85.56614463534062</v>
+        <v>85.56614463534063</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35544,37 +35544,37 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>27.92529470288227</v>
       </c>
       <c r="D13" t="n">
-        <v>49.199825424144</v>
+        <v>49.19982542414391</v>
       </c>
       <c r="E13" t="n">
-        <v>52.70633446262971</v>
+        <v>52.70633446262963</v>
       </c>
       <c r="F13" t="n">
-        <v>55.45559345640805</v>
+        <v>55.45559345640797</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>25.68651404660014</v>
       </c>
       <c r="H13" t="n">
-        <v>28.60087262311756</v>
+        <v>28.60087262311747</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>29.67425663193107</v>
       </c>
       <c r="J13" t="n">
-        <v>2.325497995006498</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>122.0492982736044</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>41.08873088719863</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -35586,7 +35586,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>67.56853785797843</v>
+        <v>67.56853785797834</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,16 +35644,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>118.5115880530824</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>8.385474052611404</v>
       </c>
       <c r="L14" t="n">
-        <v>122.0492982736044</v>
+        <v>48.8861116030175</v>
       </c>
       <c r="M14" t="n">
-        <v>122.0492982736044</v>
+        <v>83.56285454860296</v>
       </c>
       <c r="N14" t="n">
         <v>78.00343736515646</v>
@@ -35662,13 +35662,13 @@
         <v>36.37425343351535</v>
       </c>
       <c r="P14" t="n">
-        <v>6.103057613692941</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>105.8295037361487</v>
       </c>
       <c r="R14" t="n">
-        <v>0.1749753030303083</v>
+        <v>0.174975303030255</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>39.27388527251657</v>
       </c>
       <c r="L15" t="n">
         <v>119.764688815662</v>
       </c>
       <c r="M15" t="n">
-        <v>119.4026229528154</v>
+        <v>116.6118913185634</v>
       </c>
       <c r="N15" t="n">
-        <v>122.0492982736044</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>122.0492982736044</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>85.56614463534063</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35778,43 +35778,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>16.76555500988653</v>
       </c>
       <c r="C16" t="n">
-        <v>27.92529470288233</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>49.19982542414397</v>
+        <v>49.19982542414391</v>
       </c>
       <c r="E16" t="n">
-        <v>52.70633446262968</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>55.45559345640802</v>
+        <v>55.45559345640797</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>28.60087262311747</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>74.48316832403384</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>122.0492982736044</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>70.5696137732205</v>
+        <v>85.83240739732138</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -35823,7 +35823,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>67.56853785797834</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,10 +35887,10 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>48.88611160301748</v>
+        <v>48.8861116030175</v>
       </c>
       <c r="M17" t="n">
-        <v>83.56285454860294</v>
+        <v>83.56285454860296</v>
       </c>
       <c r="N17" t="n">
         <v>78.00343736515646</v>
@@ -35899,25 +35899,25 @@
         <v>36.37425343351535</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>114.3899530917904</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>72.10184222228862</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="S17" t="n">
-        <v>93.60730859266535</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>70.7301005504401</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>39.27388527251657</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>119.764688815662</v>
       </c>
       <c r="M18" t="n">
-        <v>122.0492982736044</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="N18" t="n">
-        <v>116.6118913185627</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>119.4026229528159</v>
       </c>
       <c r="P18" t="n">
-        <v>85.56614463534062</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36118,16 +36118,16 @@
         <v>80.28369907349908</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>34.1062540182912</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>48.88611160301748</v>
+        <v>48.8861116030175</v>
       </c>
       <c r="M20" t="n">
-        <v>83.56285454860294</v>
+        <v>83.56285454860296</v>
       </c>
       <c r="N20" t="n">
         <v>78.00343736515646</v>
@@ -36142,13 +36142,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="S20" t="n">
-        <v>93.60730859266529</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>62.54824369922973</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>39.27388527251657</v>
       </c>
       <c r="L21" t="n">
-        <v>119.764688815662</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>122.0492982736044</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="N21" t="n">
-        <v>33.83647831747479</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="O21" t="n">
-        <v>122.0492982736044</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="P21" t="n">
-        <v>85.56614463534062</v>
+        <v>77.84412822235662</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36352,7 +36352,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>80.28369907349908</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -36361,10 +36361,10 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>48.88611160301748</v>
+        <v>48.8861116030175</v>
       </c>
       <c r="M23" t="n">
-        <v>83.56285454860294</v>
+        <v>83.56285454860296</v>
       </c>
       <c r="N23" t="n">
         <v>78.00343736515646</v>
@@ -36379,7 +36379,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>67.24827617358883</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36388,7 +36388,7 @@
         <v>98.46087464136507</v>
       </c>
       <c r="U23" t="n">
-        <v>70.73010055044004</v>
+        <v>57.69467765053016</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>39.27388527251657</v>
       </c>
       <c r="L24" t="n">
         <v>119.764688815662</v>
       </c>
       <c r="M24" t="n">
-        <v>33.83647831747471</v>
+        <v>122.0492982736045</v>
       </c>
       <c r="N24" t="n">
-        <v>122.0492982736044</v>
+        <v>80.12873768029898</v>
       </c>
       <c r="O24" t="n">
-        <v>122.0492982736044</v>
+        <v>122.0492982736045</v>
       </c>
       <c r="P24" t="n">
-        <v>85.56614463534062</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36592,22 +36592,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>137.0462696263681</v>
+        <v>137.046269626368</v>
       </c>
       <c r="K26" t="n">
-        <v>207.5549153019833</v>
+        <v>207.5549153019832</v>
       </c>
       <c r="L26" t="n">
         <v>261.8032688511578</v>
       </c>
       <c r="M26" t="n">
-        <v>296.4800117967433</v>
+        <v>296.4800117967432</v>
       </c>
       <c r="N26" t="n">
-        <v>290.9205946132968</v>
+        <v>290.9205946132967</v>
       </c>
       <c r="O26" t="n">
-        <v>249.2914106816557</v>
+        <v>249.2914106816567</v>
       </c>
       <c r="P26" t="n">
         <v>199.368233313222</v>
@@ -36616,7 +36616,7 @@
         <v>124.3641853094343</v>
       </c>
       <c r="R26" t="n">
-        <v>18.70965687631593</v>
+        <v>18.70965687631589</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36689,7 +36689,7 @@
         <v>134.3972494427105</v>
       </c>
       <c r="P27" t="n">
-        <v>85.56614463534062</v>
+        <v>85.56614463534063</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36726,10 +36726,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>1.696198325842523</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>46.45997627616791</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -36744,13 +36744,13 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>47.13555419640311</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>48.20893820521671</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>93.01784989731948</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -36762,7 +36762,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>150.4152974696853</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -36771,7 +36771,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.10321943126404</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>137.0462696263681</v>
+        <v>137.046269626368</v>
       </c>
       <c r="K29" t="n">
-        <v>207.5549153019834</v>
+        <v>207.5549153019832</v>
       </c>
       <c r="L29" t="n">
         <v>261.8032688511578</v>
       </c>
       <c r="M29" t="n">
-        <v>296.4800117967433</v>
+        <v>296.4800117967432</v>
       </c>
       <c r="N29" t="n">
-        <v>290.9205946132968</v>
+        <v>290.9205946132967</v>
       </c>
       <c r="O29" t="n">
-        <v>249.2914106816557</v>
+        <v>249.2914106816556</v>
       </c>
       <c r="P29" t="n">
-        <v>199.3682333132221</v>
+        <v>199.368233313222</v>
       </c>
       <c r="Q29" t="n">
-        <v>124.3641853094344</v>
+        <v>124.3641853094343</v>
       </c>
       <c r="R29" t="n">
-        <v>18.709656876316</v>
+        <v>18.7096568763159</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36926,7 +36926,7 @@
         <v>134.3972494427105</v>
       </c>
       <c r="P30" t="n">
-        <v>85.56614463534062</v>
+        <v>85.56614463534063</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36966,25 +36966,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.45997627616791</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>67.73450699742955</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>60.39990572998527</v>
+        <v>73.99027502969361</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>47.13555419640311</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1.198204401255581</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -37002,7 +37002,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>176.1186111709637</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>137.046269626368</v>
+        <v>137.0462696263681</v>
       </c>
       <c r="K32" t="n">
         <v>207.5549153019833</v>
@@ -37075,13 +37075,13 @@
         <v>261.8032688511578</v>
       </c>
       <c r="M32" t="n">
-        <v>296.4800117967432</v>
+        <v>296.4800117967433</v>
       </c>
       <c r="N32" t="n">
         <v>290.9205946132968</v>
       </c>
       <c r="O32" t="n">
-        <v>249.2914106816556</v>
+        <v>249.2914106816557</v>
       </c>
       <c r="P32" t="n">
         <v>199.3682333132221</v>
@@ -37090,7 +37090,7 @@
         <v>124.3641853094343</v>
       </c>
       <c r="R32" t="n">
-        <v>18.70965687631592</v>
+        <v>18.70965687631595</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37163,7 +37163,7 @@
         <v>134.3972494427105</v>
       </c>
       <c r="P33" t="n">
-        <v>85.56614463534062</v>
+        <v>85.56614463534063</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37203,7 +37203,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>24.65863821970859</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -37218,16 +37218,16 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>47.13555419640317</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>93.01784989731951</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>143.50066700363</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -37242,13 +37242,13 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>155.0207049709725</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>9.703619513865096</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37303,37 +37303,37 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>67.5599288210409</v>
+        <v>172.222346290093</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>140.6650115726349</v>
       </c>
       <c r="L35" t="n">
-        <v>48.88611160301748</v>
+        <v>48.8861116030175</v>
       </c>
       <c r="M35" t="n">
-        <v>328.8902835902923</v>
+        <v>83.56285454860296</v>
       </c>
       <c r="N35" t="n">
         <v>78.00343736515646</v>
       </c>
       <c r="O35" t="n">
-        <v>284.4674873453805</v>
+        <v>284.4674873453806</v>
       </c>
       <c r="P35" t="n">
-        <v>234.5443099769469</v>
+        <v>234.544309976947</v>
       </c>
       <c r="Q35" t="n">
-        <v>159.5402619731591</v>
+        <v>159.5402619731593</v>
       </c>
       <c r="R35" t="n">
-        <v>53.88573354004076</v>
+        <v>53.88573354004087</v>
       </c>
       <c r="S35" t="n">
-        <v>20.82075889537841</v>
+        <v>20.82075889537852</v>
       </c>
       <c r="T35" t="n">
-        <v>25.67432494407819</v>
+        <v>25.6743249440783</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37400,7 +37400,7 @@
         <v>134.3972494427105</v>
       </c>
       <c r="P36" t="n">
-        <v>85.56614463534062</v>
+        <v>85.56614463534063</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37479,7 +37479,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>84.4613138359294</v>
+        <v>84.46131383592918</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37540,37 +37540,37 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>172.2223462900929</v>
+        <v>70.15636589701973</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>242.7309919657082</v>
       </c>
       <c r="L38" t="n">
-        <v>296.9793455148826</v>
+        <v>48.8861116030175</v>
       </c>
       <c r="M38" t="n">
-        <v>224.2278661212402</v>
+        <v>83.56285454860296</v>
       </c>
       <c r="N38" t="n">
         <v>78.00343736515646</v>
       </c>
       <c r="O38" t="n">
-        <v>36.37425343351535</v>
+        <v>284.4674873453806</v>
       </c>
       <c r="P38" t="n">
-        <v>234.5443099769469</v>
+        <v>234.544309976947</v>
       </c>
       <c r="Q38" t="n">
-        <v>159.5402619731591</v>
+        <v>159.5402619731593</v>
       </c>
       <c r="R38" t="n">
-        <v>53.88573354004076</v>
+        <v>53.88573354004087</v>
       </c>
       <c r="S38" t="n">
-        <v>20.82075889537841</v>
+        <v>20.82075889537852</v>
       </c>
       <c r="T38" t="n">
-        <v>25.67432494407819</v>
+        <v>25.6743249440783</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37637,7 +37637,7 @@
         <v>134.3972494427105</v>
       </c>
       <c r="P39" t="n">
-        <v>85.56614463534062</v>
+        <v>85.56614463534063</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37689,7 +37689,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>79.39727228361076</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>84.4613138359294</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -37719,7 +37719,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>5.064041552318408</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,28 +37777,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>164.7251969138806</v>
+        <v>164.7251969138807</v>
       </c>
       <c r="K41" t="n">
         <v>235.2338425894959</v>
       </c>
       <c r="L41" t="n">
-        <v>98.58978873831225</v>
+        <v>98.58978873831219</v>
       </c>
       <c r="M41" t="n">
-        <v>324.1589390842558</v>
+        <v>83.56285454860296</v>
       </c>
       <c r="N41" t="n">
         <v>78.00343736515646</v>
       </c>
       <c r="O41" t="n">
-        <v>36.37425343351535</v>
+        <v>276.9703379691683</v>
       </c>
       <c r="P41" t="n">
         <v>227.0471606007347</v>
       </c>
       <c r="Q41" t="n">
-        <v>152.0431125969469</v>
+        <v>152.043112596947</v>
       </c>
       <c r="R41" t="n">
         <v>46.38858416382855</v>
@@ -37874,7 +37874,7 @@
         <v>134.3972494427105</v>
       </c>
       <c r="P42" t="n">
-        <v>85.56614463534062</v>
+        <v>85.56614463534063</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37953,10 +37953,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
         <v>104.3646190101172</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,31 +38017,31 @@
         <v>164.7251969138807</v>
       </c>
       <c r="K44" t="n">
-        <v>235.2338425894959</v>
+        <v>44.34143518913767</v>
       </c>
       <c r="L44" t="n">
-        <v>289.4821961386704</v>
+        <v>48.8861116030175</v>
       </c>
       <c r="M44" t="n">
-        <v>324.1589390842559</v>
+        <v>324.1589390842558</v>
       </c>
       <c r="N44" t="n">
-        <v>78.00343736515647</v>
+        <v>78.00343736515646</v>
       </c>
       <c r="O44" t="n">
         <v>276.9703379691683</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>227.0471606007347</v>
       </c>
       <c r="Q44" t="n">
-        <v>7.313974944665433</v>
+        <v>152.043112596947</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>46.38858416382855</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>13.3236095191662</v>
       </c>
       <c r="T44" t="n">
         <v>18.17717556786598</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>39.27388527251658</v>
+        <v>39.27388527251657</v>
       </c>
       <c r="L45" t="n">
         <v>119.764688815662</v>
@@ -38166,7 +38166,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>64.0547152898295</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -38193,13 +38193,13 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>44.88505736785072</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>37.3825468013777</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>5.241922842085582</v>
       </c>
       <c r="T46" t="n">
         <v>16.85509199880316</v>
@@ -38217,7 +38217,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>23.4548117214845</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
